--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1043" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{752220AF-FE5E-4980-B07B-D13E3C13C526}"/>
+  <xr:revisionPtr revIDLastSave="1052" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86B55DC6-1D84-48B2-BD04-267421DEA6CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
   <si>
     <t>Fecha</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>https://www.inec.gob.pa/buscador/Default.aspx?BUSCAR=desempleo</t>
+  </si>
+  <si>
+    <t>Monto Inversión (millones de lempiras) &gt;&gt; Datos históricos Futuros azúcar Nº11 EE.UU. &gt;&gt; Precio diario de Azúcar en la Bolsa de Nueva York &gt; FUENTE: Investing, https://es.investing.com/commodities/us-sugar-no11-historical-data &gt; FUENTE: Banco Central de Honduras, https://www.banguat.gob.gt/inc/main.asp?id=109291&amp;aud=1&amp;lang=1</t>
   </si>
 </sst>
 </file>
@@ -367,11 +370,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -924,7 +927,7 @@
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -968,7 +971,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1017,7 +1020,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1068,6 +1071,22 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1124,22 +1143,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1234,7 +1237,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1332,9 +1335,9 @@
       <calculatedColumnFormula>+K4&amp;", "&amp;J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8FC1825F-E2AC-4830-AA41-5B12F2C15972}" name="Índice Mensual de Actividad Económica "/>
-    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="1" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="2" dataCellStyle="Millares"/>
     <tableColumn id="8" xr3:uid="{1A570E63-F800-45DF-9E5A-B8961BEFE222}" name="Tasa de desempleo abierto"/>
     <tableColumn id="9" xr3:uid="{7E984A16-0976-4747-9D31-12709D8A9C2E}" name="Ingesos - Egresos Remesas (Millones USD)"/>
   </tableColumns>
@@ -1343,7 +1346,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="1">
   <autoFilter ref="A1:U23" xr:uid="{A4DDB744-8DEA-4F35-AEC9-FB17B2884A09}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C1E7A7E7-7FD3-4FCB-A528-822BF1431468}" name="ID_Fuente"/>
@@ -1366,7 +1369,7 @@
     <tableColumn id="18" xr3:uid="{BE4CA536-69A1-4E09-B63A-D7282A251F01}" name="País"/>
     <tableColumn id="19" xr3:uid="{15A820D3-8670-4BFD-8BDE-2BD2A5BBCE28}" name="División Administrativa"/>
     <tableColumn id="20" xr3:uid="{19BD7B61-ED33-4BE3-B11A-D96B98260DC0}" name="Formato Descarga"/>
-    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1640,7 +1643,7 @@
   </sheetPr>
   <dimension ref="A1:R527"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
@@ -6319,11 +6322,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB840748-361D-4458-B100-AAECA785CA65}">
   <dimension ref="A1:Y959"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6331,10 +6334,10 @@
     <col min="1" max="1" width="7.33203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="12" customWidth="1"/>
     <col min="5" max="5" width="47.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="95.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="12" customWidth="1"/>
     <col min="8" max="9" width="17.6640625" style="12" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" style="12" customWidth="1"/>
     <col min="11" max="11" width="11.109375" style="12" customWidth="1"/>
@@ -6342,7 +6345,9 @@
     <col min="13" max="13" width="14.109375" style="12" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" style="12" customWidth="1"/>
     <col min="15" max="15" width="27.44140625" style="12" customWidth="1"/>
-    <col min="16" max="24" width="11.109375" style="12" customWidth="1"/>
+    <col min="16" max="22" width="11.109375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="12" customWidth="1"/>
     <col min="25" max="25" width="27.44140625" style="12" customWidth="1"/>
     <col min="26" max="26" width="11.109375" style="12" customWidth="1"/>
     <col min="27" max="16384" width="14" style="12"/>
@@ -7262,6 +7267,9 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="14"/>
+      <c r="E25" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="14"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1054" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3612004-99A5-475E-A9F0-FDB6C76B3286}"/>
+  <xr:revisionPtr revIDLastSave="1086" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A00BDFD-6592-4557-A331-694DE3DD7A76}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -376,7 +376,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,7 +967,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1011,6 +1011,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1299,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H527" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H527" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H541" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H541" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1631,35 +1632,35 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R527"/>
+  <dimension ref="A1:R541"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G547" sqref="G547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1684,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1703,7 +1704,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" ht="43.15">
+    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>43466</v>
       </c>
@@ -1794,7 +1795,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43467</v>
       </c>
@@ -1831,7 +1832,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>43468</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>-89.4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>43469</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>43470</v>
       </c>
@@ -1952,7 +1953,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>43471</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>-95.7</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>43472</v>
       </c>
@@ -2028,7 +2029,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>43473</v>
       </c>
@@ -2067,7 +2068,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>43474</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>-97.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>43475</v>
       </c>
@@ -2143,7 +2144,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>43476</v>
       </c>
@@ -2180,7 +2181,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>43477</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>-107.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>43478</v>
       </c>
@@ -2262,7 +2263,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43479</v>
       </c>
@@ -2299,7 +2300,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>43480</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43481</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>43482</v>
       </c>
@@ -2412,7 +2413,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>43483</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>-65.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>43484</v>
       </c>
@@ -2494,7 +2495,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43485</v>
       </c>
@@ -2533,7 +2534,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43486</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>-94.8</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43487</v>
       </c>
@@ -2609,7 +2610,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43488</v>
       </c>
@@ -2646,7 +2647,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>43489</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>-89.1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43490</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>43491</v>
       </c>
@@ -2759,7 +2760,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>43492</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>-87.4</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43493</v>
       </c>
@@ -2835,7 +2836,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>43494</v>
       </c>
@@ -2872,7 +2873,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>43495</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>43496</v>
       </c>
@@ -2952,7 +2953,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>43497</v>
       </c>
@@ -2991,7 +2992,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>43498</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>43499</v>
       </c>
@@ -3073,7 +3074,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>43500</v>
       </c>
@@ -3110,7 +3111,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>43501</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>-73.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>43502</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>43503</v>
       </c>
@@ -3208,7 +3209,9 @@
         <f t="shared" si="0"/>
         <v>Febrero, 2020</v>
       </c>
-      <c r="M41" s="21"/>
+      <c r="M41" s="24">
+        <v>334.16091635711257</v>
+      </c>
       <c r="N41" s="2">
         <v>54227.436999999991</v>
       </c>
@@ -3221,7 +3224,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>43504</v>
       </c>
@@ -3243,7 +3246,9 @@
         <f t="shared" si="0"/>
         <v>Marzo, 2020</v>
       </c>
-      <c r="M42" s="21"/>
+      <c r="M42" s="24">
+        <v>369.50921717470578</v>
+      </c>
       <c r="N42" s="2">
         <v>69413.402000000002</v>
       </c>
@@ -3256,7 +3261,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="21"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>43505</v>
       </c>
@@ -3293,7 +3298,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43506</v>
       </c>
@@ -3322,7 +3327,7 @@
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43507</v>
       </c>
@@ -3351,7 +3356,7 @@
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>43508</v>
       </c>
@@ -3380,7 +3385,7 @@
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43509</v>
       </c>
@@ -3402,7 +3407,7 @@
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>43510</v>
       </c>
@@ -3424,7 +3429,7 @@
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3435,7 +3440,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3463,7 +3468,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3474,7 +3479,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3485,7 +3490,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3496,7 +3501,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -3507,7 +3512,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -3518,7 +3523,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -3546,7 +3551,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -3557,7 +3562,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -3568,7 +3573,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -3579,7 +3584,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -3594,7 +3599,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -3605,7 +3610,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -3616,7 +3621,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>43527</v>
       </c>
@@ -3627,7 +3632,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>43528</v>
       </c>
@@ -3638,7 +3643,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>43529</v>
       </c>
@@ -3649,7 +3654,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>43530</v>
       </c>
@@ -3660,7 +3665,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>43531</v>
       </c>
@@ -3671,7 +3676,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>43532</v>
       </c>
@@ -3682,7 +3687,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>43533</v>
       </c>
@@ -3699,7 +3704,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>43534</v>
       </c>
@@ -3710,7 +3715,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>43535</v>
       </c>
@@ -3721,7 +3726,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>43536</v>
       </c>
@@ -3732,7 +3737,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>43537</v>
       </c>
@@ -3743,7 +3748,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>43538</v>
       </c>
@@ -3754,7 +3759,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>43539</v>
       </c>
@@ -3765,7 +3770,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>43540</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>43541</v>
       </c>
@@ -3793,7 +3798,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>43542</v>
       </c>
@@ -3804,7 +3809,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>43543</v>
       </c>
@@ -3815,7 +3820,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>43544</v>
       </c>
@@ -3826,7 +3831,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>43545</v>
       </c>
@@ -3837,7 +3842,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>43546</v>
       </c>
@@ -3848,7 +3853,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>43547</v>
       </c>
@@ -3865,7 +3870,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>43548</v>
       </c>
@@ -3876,7 +3881,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>43549</v>
       </c>
@@ -3887,7 +3892,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>43550</v>
       </c>
@@ -3898,7 +3903,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>43551</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>43552</v>
       </c>
@@ -3920,7 +3925,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>43553</v>
       </c>
@@ -3931,7 +3936,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>43554</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>43555</v>
       </c>
@@ -3963,7 +3968,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>43556</v>
       </c>
@@ -3974,7 +3979,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>43557</v>
       </c>
@@ -3985,7 +3990,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>43558</v>
       </c>
@@ -3996,7 +4001,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>43559</v>
       </c>
@@ -4007,7 +4012,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>43560</v>
       </c>
@@ -4018,7 +4023,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>43561</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>43562</v>
       </c>
@@ -4046,7 +4051,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>43563</v>
       </c>
@@ -4057,7 +4062,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>43564</v>
       </c>
@@ -4068,7 +4073,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>43565</v>
       </c>
@@ -4079,7 +4084,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>43566</v>
       </c>
@@ -4090,7 +4095,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>43567</v>
       </c>
@@ -4101,7 +4106,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>43568</v>
       </c>
@@ -4118,7 +4123,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>43569</v>
       </c>
@@ -4129,7 +4134,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>43570</v>
       </c>
@@ -4140,7 +4145,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>43571</v>
       </c>
@@ -4151,7 +4156,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>43572</v>
       </c>
@@ -4162,7 +4167,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>43573</v>
       </c>
@@ -4173,7 +4178,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>43574</v>
       </c>
@@ -4184,7 +4189,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>43575</v>
       </c>
@@ -4201,7 +4206,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>43576</v>
       </c>
@@ -4212,7 +4217,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>43577</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>43578</v>
       </c>
@@ -4234,7 +4239,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>43579</v>
       </c>
@@ -4245,7 +4250,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>43580</v>
       </c>
@@ -4256,7 +4261,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>43581</v>
       </c>
@@ -4267,7 +4272,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>43582</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>43583</v>
       </c>
@@ -4295,7 +4300,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>43584</v>
       </c>
@@ -4306,7 +4311,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>43585</v>
       </c>
@@ -4321,7 +4326,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>43586</v>
       </c>
@@ -4332,7 +4337,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>43587</v>
       </c>
@@ -4343,7 +4348,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>43588</v>
       </c>
@@ -4354,7 +4359,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>43589</v>
       </c>
@@ -4371,7 +4376,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>43590</v>
       </c>
@@ -4382,7 +4387,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>43591</v>
       </c>
@@ -4393,7 +4398,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>43592</v>
       </c>
@@ -4404,7 +4409,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>43593</v>
       </c>
@@ -4415,7 +4420,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>43594</v>
       </c>
@@ -4426,7 +4431,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>43595</v>
       </c>
@@ -4437,7 +4442,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>43596</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>43597</v>
       </c>
@@ -4465,7 +4470,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>43598</v>
       </c>
@@ -4476,7 +4481,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>43599</v>
       </c>
@@ -4487,7 +4492,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>43600</v>
       </c>
@@ -4498,7 +4503,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>43601</v>
       </c>
@@ -4509,7 +4514,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>43602</v>
       </c>
@@ -4520,7 +4525,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>43603</v>
       </c>
@@ -4537,7 +4542,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>43604</v>
       </c>
@@ -4548,7 +4553,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>43605</v>
       </c>
@@ -4559,7 +4564,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>43606</v>
       </c>
@@ -4570,7 +4575,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>43607</v>
       </c>
@@ -4581,7 +4586,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>43608</v>
       </c>
@@ -4592,7 +4597,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>43609</v>
       </c>
@@ -4603,7 +4608,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>43610</v>
       </c>
@@ -4620,7 +4625,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>43611</v>
       </c>
@@ -4631,7 +4636,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>43612</v>
       </c>
@@ -4642,7 +4647,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>43613</v>
       </c>
@@ -4653,7 +4658,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>43614</v>
       </c>
@@ -4664,7 +4669,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>43615</v>
       </c>
@@ -4675,7 +4680,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>43616</v>
       </c>
@@ -4690,7 +4695,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>43618</v>
       </c>
@@ -4718,7 +4723,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>43619</v>
       </c>
@@ -4729,7 +4734,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>43620</v>
       </c>
@@ -4740,7 +4745,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>43621</v>
       </c>
@@ -4751,7 +4756,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>43622</v>
       </c>
@@ -4762,7 +4767,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>43623</v>
       </c>
@@ -4773,7 +4778,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>43624</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>43625</v>
       </c>
@@ -4801,7 +4806,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>43626</v>
       </c>
@@ -4812,7 +4817,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>43627</v>
       </c>
@@ -4823,7 +4828,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>43628</v>
       </c>
@@ -4834,7 +4839,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>43629</v>
       </c>
@@ -4845,7 +4850,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>43630</v>
       </c>
@@ -4856,7 +4861,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>43631</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>43632</v>
       </c>
@@ -4884,7 +4889,7 @@
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>43633</v>
       </c>
@@ -4895,7 +4900,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>43634</v>
       </c>
@@ -4906,7 +4911,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>43635</v>
       </c>
@@ -4917,7 +4922,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>43636</v>
       </c>
@@ -4928,7 +4933,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>43637</v>
       </c>
@@ -4939,7 +4944,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>43638</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>43639</v>
       </c>
@@ -4967,7 +4972,7 @@
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>43640</v>
       </c>
@@ -4978,7 +4983,7 @@
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>43641</v>
       </c>
@@ -4989,7 +4994,7 @@
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>43642</v>
       </c>
@@ -5000,7 +5005,7 @@
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>43643</v>
       </c>
@@ -5011,7 +5016,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>43644</v>
       </c>
@@ -5022,7 +5027,7 @@
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>43645</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>43646</v>
       </c>
@@ -5054,7 +5059,7 @@
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>43647</v>
       </c>
@@ -5065,7 +5070,7 @@
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>43648</v>
       </c>
@@ -5076,7 +5081,7 @@
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>43649</v>
       </c>
@@ -5087,7 +5092,7 @@
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>43650</v>
       </c>
@@ -5098,7 +5103,7 @@
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>43651</v>
       </c>
@@ -5109,7 +5114,7 @@
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>43652</v>
       </c>
@@ -5126,7 +5131,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>43653</v>
       </c>
@@ -5137,7 +5142,7 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>43654</v>
       </c>
@@ -5148,7 +5153,7 @@
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>43655</v>
       </c>
@@ -5159,7 +5164,7 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>43656</v>
       </c>
@@ -5170,7 +5175,7 @@
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>43657</v>
       </c>
@@ -5181,7 +5186,7 @@
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>43658</v>
       </c>
@@ -5192,7 +5197,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>43659</v>
       </c>
@@ -5209,7 +5214,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>43660</v>
       </c>
@@ -5220,7 +5225,7 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>43661</v>
       </c>
@@ -5231,7 +5236,7 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>43662</v>
       </c>
@@ -5242,7 +5247,7 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>43663</v>
       </c>
@@ -5253,7 +5258,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -5264,7 +5269,7 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>43665</v>
       </c>
@@ -5275,7 +5280,7 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>43666</v>
       </c>
@@ -5292,7 +5297,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>43667</v>
       </c>
@@ -5303,7 +5308,7 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>43668</v>
       </c>
@@ -5314,7 +5319,7 @@
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>43669</v>
       </c>
@@ -5325,7 +5330,7 @@
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>43670</v>
       </c>
@@ -5336,7 +5341,7 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>43671</v>
       </c>
@@ -5347,7 +5352,7 @@
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>43672</v>
       </c>
@@ -5358,7 +5363,7 @@
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>43673</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>43674</v>
       </c>
@@ -5386,7 +5391,7 @@
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>43675</v>
       </c>
@@ -5397,7 +5402,7 @@
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>43676</v>
       </c>
@@ -5408,7 +5413,7 @@
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>43677</v>
       </c>
@@ -5423,7 +5428,7 @@
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -5434,7 +5439,7 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>43679</v>
       </c>
@@ -5445,7 +5450,7 @@
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>43680</v>
       </c>
@@ -5462,7 +5467,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>43681</v>
       </c>
@@ -5473,7 +5478,7 @@
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>43682</v>
       </c>
@@ -5484,7 +5489,7 @@
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>43683</v>
       </c>
@@ -5495,7 +5500,7 @@
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>43684</v>
       </c>
@@ -5506,7 +5511,7 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>43685</v>
       </c>
@@ -5517,7 +5522,7 @@
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>43686</v>
       </c>
@@ -5528,7 +5533,7 @@
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>43687</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>43688</v>
       </c>
@@ -5556,7 +5561,7 @@
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>43689</v>
       </c>
@@ -5567,7 +5572,7 @@
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>43690</v>
       </c>
@@ -5578,7 +5583,7 @@
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>43691</v>
       </c>
@@ -5589,7 +5594,7 @@
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>43692</v>
       </c>
@@ -5600,7 +5605,7 @@
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>43693</v>
       </c>
@@ -5611,7 +5616,7 @@
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>43694</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>43695</v>
       </c>
@@ -5639,7 +5644,7 @@
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>43696</v>
       </c>
@@ -5650,7 +5655,7 @@
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>43697</v>
       </c>
@@ -5661,7 +5666,7 @@
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>43698</v>
       </c>
@@ -5672,7 +5677,7 @@
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>43699</v>
       </c>
@@ -5683,7 +5688,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>43700</v>
       </c>
@@ -5694,7 +5699,7 @@
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>43701</v>
       </c>
@@ -5711,7 +5716,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>43702</v>
       </c>
@@ -5722,7 +5727,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>43703</v>
       </c>
@@ -5733,7 +5738,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>43704</v>
       </c>
@@ -5744,7 +5749,7 @@
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>43705</v>
       </c>
@@ -5755,7 +5760,7 @@
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>43706</v>
       </c>
@@ -5766,7 +5771,7 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>43707</v>
       </c>
@@ -5777,7 +5782,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>43708</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>43709</v>
       </c>
@@ -5809,7 +5814,7 @@
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>43710</v>
       </c>
@@ -5820,7 +5825,7 @@
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>43711</v>
       </c>
@@ -5831,7 +5836,7 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>43712</v>
       </c>
@@ -5842,7 +5847,7 @@
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>43713</v>
       </c>
@@ -5853,7 +5858,7 @@
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>43714</v>
       </c>
@@ -5864,7 +5869,7 @@
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>43715</v>
       </c>
@@ -5881,7 +5886,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>43716</v>
       </c>
@@ -5892,7 +5897,7 @@
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>43717</v>
       </c>
@@ -5903,7 +5908,7 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>43718</v>
       </c>
@@ -5914,7 +5919,7 @@
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>43719</v>
       </c>
@@ -5925,7 +5930,7 @@
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>43720</v>
       </c>
@@ -5936,7 +5941,7 @@
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>43721</v>
       </c>
@@ -5947,7 +5952,7 @@
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>43722</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>43723</v>
       </c>
@@ -5975,7 +5980,7 @@
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>43724</v>
       </c>
@@ -5986,7 +5991,7 @@
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>43725</v>
       </c>
@@ -5997,7 +6002,7 @@
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>43726</v>
       </c>
@@ -6008,7 +6013,7 @@
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>43727</v>
       </c>
@@ -6019,7 +6024,7 @@
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>43728</v>
       </c>
@@ -6030,7 +6035,7 @@
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>43729</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>43730</v>
       </c>
@@ -6058,7 +6063,7 @@
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>43731</v>
       </c>
@@ -6069,7 +6074,7 @@
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>43732</v>
       </c>
@@ -6080,7 +6085,7 @@
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>43733</v>
       </c>
@@ -6091,7 +6096,7 @@
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>43734</v>
       </c>
@@ -6102,7 +6107,7 @@
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>43735</v>
       </c>
@@ -6113,7 +6118,7 @@
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>43736</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>43737</v>
       </c>
@@ -6141,7 +6146,7 @@
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>43738</v>
       </c>
@@ -6156,7 +6161,7 @@
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>43739</v>
       </c>
@@ -6167,7 +6172,7 @@
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>43740</v>
       </c>
@@ -6178,7 +6183,7 @@
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>43741</v>
       </c>
@@ -6189,7 +6194,7 @@
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>43742</v>
       </c>
@@ -6200,7 +6205,7 @@
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>43743</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>43744</v>
       </c>
@@ -6228,7 +6233,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>43745</v>
       </c>
@@ -6239,7 +6244,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>43746</v>
       </c>
@@ -6250,7 +6255,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>43747</v>
       </c>
@@ -6261,7 +6266,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>43748</v>
       </c>
@@ -6272,7 +6277,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>43749</v>
       </c>
@@ -6283,7 +6288,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>43750</v>
       </c>
@@ -6300,7 +6305,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>43751</v>
       </c>
@@ -6311,7 +6316,7 @@
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>43752</v>
       </c>
@@ -6322,7 +6327,7 @@
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>43753</v>
       </c>
@@ -6333,7 +6338,7 @@
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>43754</v>
       </c>
@@ -6344,7 +6349,7 @@
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>43755</v>
       </c>
@@ -6355,7 +6360,7 @@
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>43756</v>
       </c>
@@ -6366,7 +6371,7 @@
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>43757</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>43758</v>
       </c>
@@ -6394,7 +6399,7 @@
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>43759</v>
       </c>
@@ -6405,7 +6410,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>43760</v>
       </c>
@@ -6416,7 +6421,7 @@
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>43761</v>
       </c>
@@ -6427,7 +6432,7 @@
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>43762</v>
       </c>
@@ -6438,7 +6443,7 @@
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>43763</v>
       </c>
@@ -6449,7 +6454,7 @@
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>43764</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>43765</v>
       </c>
@@ -6477,7 +6482,7 @@
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>43766</v>
       </c>
@@ -6488,7 +6493,7 @@
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>43767</v>
       </c>
@@ -6499,7 +6504,7 @@
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>43768</v>
       </c>
@@ -6510,7 +6515,7 @@
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>43769</v>
       </c>
@@ -6525,7 +6530,7 @@
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>43770</v>
       </c>
@@ -6536,7 +6541,7 @@
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>43771</v>
       </c>
@@ -6553,7 +6558,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>43772</v>
       </c>
@@ -6564,7 +6569,7 @@
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>43773</v>
       </c>
@@ -6575,7 +6580,7 @@
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>43774</v>
       </c>
@@ -6586,7 +6591,7 @@
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>43775</v>
       </c>
@@ -6597,7 +6602,7 @@
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>43776</v>
       </c>
@@ -6608,7 +6613,7 @@
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>43777</v>
       </c>
@@ -6619,7 +6624,7 @@
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>43778</v>
       </c>
@@ -6636,7 +6641,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>43779</v>
       </c>
@@ -6647,7 +6652,7 @@
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>43780</v>
       </c>
@@ -6658,7 +6663,7 @@
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>43781</v>
       </c>
@@ -6669,7 +6674,7 @@
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>43782</v>
       </c>
@@ -6680,7 +6685,7 @@
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>43783</v>
       </c>
@@ -6691,7 +6696,7 @@
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>43784</v>
       </c>
@@ -6702,7 +6707,7 @@
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>43785</v>
       </c>
@@ -6719,7 +6724,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>43786</v>
       </c>
@@ -6730,7 +6735,7 @@
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>43787</v>
       </c>
@@ -6741,7 +6746,7 @@
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>43788</v>
       </c>
@@ -6752,7 +6757,7 @@
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>43789</v>
       </c>
@@ -6763,7 +6768,7 @@
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>43790</v>
       </c>
@@ -6774,7 +6779,7 @@
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>43791</v>
       </c>
@@ -6785,7 +6790,7 @@
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>43792</v>
       </c>
@@ -6802,7 +6807,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>43793</v>
       </c>
@@ -6813,7 +6818,7 @@
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>43794</v>
       </c>
@@ -6824,7 +6829,7 @@
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>43795</v>
       </c>
@@ -6835,7 +6840,7 @@
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>43796</v>
       </c>
@@ -6846,7 +6851,7 @@
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>43797</v>
       </c>
@@ -6857,7 +6862,7 @@
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>43798</v>
       </c>
@@ -6868,7 +6873,7 @@
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>43799</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>43800</v>
       </c>
@@ -6900,7 +6905,7 @@
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>43801</v>
       </c>
@@ -6911,7 +6916,7 @@
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>43802</v>
       </c>
@@ -6922,7 +6927,7 @@
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>43803</v>
       </c>
@@ -6933,7 +6938,7 @@
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>43804</v>
       </c>
@@ -6944,7 +6949,7 @@
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>43805</v>
       </c>
@@ -6955,7 +6960,7 @@
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>43806</v>
       </c>
@@ -6972,7 +6977,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>43807</v>
       </c>
@@ -6983,7 +6988,7 @@
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>43808</v>
       </c>
@@ -6994,7 +6999,7 @@
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>43809</v>
       </c>
@@ -7005,7 +7010,7 @@
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>43810</v>
       </c>
@@ -7016,7 +7021,7 @@
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>43811</v>
       </c>
@@ -7027,7 +7032,7 @@
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>43812</v>
       </c>
@@ -7038,7 +7043,7 @@
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>43813</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
         <v>43814</v>
       </c>
@@ -7066,7 +7071,7 @@
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>43815</v>
       </c>
@@ -7077,7 +7082,7 @@
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="8">
         <v>43816</v>
       </c>
@@ -7088,7 +7093,7 @@
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="8">
         <v>43817</v>
       </c>
@@ -7099,7 +7104,7 @@
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="8">
         <v>43818</v>
       </c>
@@ -7110,7 +7115,7 @@
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="8">
         <v>43819</v>
       </c>
@@ -7121,7 +7126,7 @@
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="8">
         <v>43820</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="8">
         <v>43821</v>
       </c>
@@ -7149,7 +7154,7 @@
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="8">
         <v>43822</v>
       </c>
@@ -7160,7 +7165,7 @@
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="8">
         <v>43823</v>
       </c>
@@ -7171,7 +7176,7 @@
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="8">
         <v>43824</v>
       </c>
@@ -7182,7 +7187,7 @@
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>43825</v>
       </c>
@@ -7193,7 +7198,7 @@
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="8">
         <v>43826</v>
       </c>
@@ -7204,7 +7209,7 @@
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="8">
         <v>43827</v>
       </c>
@@ -7215,7 +7220,7 @@
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="8">
         <v>43828</v>
       </c>
@@ -7226,7 +7231,7 @@
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>43829</v>
       </c>
@@ -7237,7 +7242,7 @@
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="8">
         <v>43830</v>
       </c>
@@ -7252,7 +7257,7 @@
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="8">
         <v>43831</v>
       </c>
@@ -7263,7 +7268,7 @@
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="8">
         <v>43832</v>
       </c>
@@ -7274,7 +7279,7 @@
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="8">
         <v>43833</v>
       </c>
@@ -7285,7 +7290,7 @@
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="8">
         <v>43834</v>
       </c>
@@ -7296,7 +7301,7 @@
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="8">
         <v>43835</v>
       </c>
@@ -7307,7 +7312,7 @@
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="8">
         <v>43836</v>
       </c>
@@ -7318,7 +7323,7 @@
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="8">
         <v>43837</v>
       </c>
@@ -7329,7 +7334,7 @@
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="8">
         <v>43838</v>
       </c>
@@ -7340,7 +7345,7 @@
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="8">
         <v>43839</v>
       </c>
@@ -7351,7 +7356,7 @@
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="8">
         <v>43840</v>
       </c>
@@ -7362,7 +7367,7 @@
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="8">
         <v>43841</v>
       </c>
@@ -7379,7 +7384,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="8">
         <v>43842</v>
       </c>
@@ -7390,7 +7395,7 @@
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="8">
         <v>43843</v>
       </c>
@@ -7401,7 +7406,7 @@
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="8">
         <v>43844</v>
       </c>
@@ -7412,7 +7417,7 @@
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="8">
         <v>43845</v>
       </c>
@@ -7423,7 +7428,7 @@
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="8">
         <v>43846</v>
       </c>
@@ -7434,7 +7439,7 @@
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="8">
         <v>43847</v>
       </c>
@@ -7445,7 +7450,7 @@
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="8">
         <v>43848</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="8">
         <v>43849</v>
       </c>
@@ -7473,7 +7478,7 @@
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="8">
         <v>43850</v>
       </c>
@@ -7484,7 +7489,7 @@
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>43851</v>
       </c>
@@ -7495,7 +7500,7 @@
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="8">
         <v>43852</v>
       </c>
@@ -7506,7 +7511,7 @@
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
         <v>43853</v>
       </c>
@@ -7517,7 +7522,7 @@
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="8">
         <v>43854</v>
       </c>
@@ -7528,7 +7533,7 @@
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
         <v>43855</v>
       </c>
@@ -7545,7 +7550,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="8">
         <v>43856</v>
       </c>
@@ -7556,7 +7561,7 @@
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="8">
         <v>43857</v>
       </c>
@@ -7567,7 +7572,7 @@
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="8">
         <v>43858</v>
       </c>
@@ -7578,7 +7583,7 @@
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="8">
         <v>43859</v>
       </c>
@@ -7589,7 +7594,7 @@
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="8">
         <v>43860</v>
       </c>
@@ -7600,7 +7605,7 @@
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="8">
         <v>43861</v>
       </c>
@@ -7615,7 +7620,7 @@
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="8">
         <v>43862</v>
       </c>
@@ -7632,7 +7637,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="8">
         <v>43863</v>
       </c>
@@ -7643,7 +7648,7 @@
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="8">
         <v>43864</v>
       </c>
@@ -7654,7 +7659,7 @@
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="8">
         <v>43865</v>
       </c>
@@ -7665,7 +7670,7 @@
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="8">
         <v>43866</v>
       </c>
@@ -7676,7 +7681,7 @@
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="8">
         <v>43867</v>
       </c>
@@ -7687,7 +7692,7 @@
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="8">
         <v>43868</v>
       </c>
@@ -7698,7 +7703,7 @@
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="8">
         <v>43869</v>
       </c>
@@ -7715,7 +7720,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="8">
         <v>43870</v>
       </c>
@@ -7726,7 +7731,7 @@
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="8">
         <v>43871</v>
       </c>
@@ -7737,7 +7742,7 @@
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="8">
         <v>43872</v>
       </c>
@@ -7748,7 +7753,7 @@
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="8">
         <v>43873</v>
       </c>
@@ -7759,7 +7764,7 @@
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="8">
         <v>43874</v>
       </c>
@@ -7770,7 +7775,7 @@
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="8">
         <v>43875</v>
       </c>
@@ -7781,7 +7786,7 @@
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="8">
         <v>43876</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="8">
         <v>43877</v>
       </c>
@@ -7809,7 +7814,7 @@
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="8">
         <v>43878</v>
       </c>
@@ -7820,7 +7825,7 @@
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="8">
         <v>43879</v>
       </c>
@@ -7831,7 +7836,7 @@
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="8">
         <v>43880</v>
       </c>
@@ -7842,7 +7847,7 @@
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="8">
         <v>43881</v>
       </c>
@@ -7853,7 +7858,7 @@
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="8">
         <v>43882</v>
       </c>
@@ -7864,7 +7869,7 @@
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="8">
         <v>43883</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="8">
         <v>43884</v>
       </c>
@@ -7892,7 +7897,7 @@
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="8">
         <v>43885</v>
       </c>
@@ -7903,7 +7908,7 @@
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="8">
         <v>43886</v>
       </c>
@@ -7914,7 +7919,7 @@
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="8">
         <v>43887</v>
       </c>
@@ -7925,7 +7930,7 @@
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="8">
         <v>43888</v>
       </c>
@@ -7936,7 +7941,7 @@
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="8">
         <v>43889</v>
       </c>
@@ -7951,7 +7956,7 @@
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="8">
         <v>43890</v>
       </c>
@@ -7968,7 +7973,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="8">
         <v>43891</v>
       </c>
@@ -7979,7 +7984,7 @@
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="8">
         <v>43892</v>
       </c>
@@ -7990,7 +7995,7 @@
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="8">
         <v>43893</v>
       </c>
@@ -8001,7 +8006,7 @@
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="8">
         <v>43894</v>
       </c>
@@ -8012,7 +8017,7 @@
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="8">
         <v>43895</v>
       </c>
@@ -8023,7 +8028,7 @@
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="8">
         <v>43896</v>
       </c>
@@ -8034,7 +8039,7 @@
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="8">
         <v>43897</v>
       </c>
@@ -8051,7 +8056,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="8">
         <v>43898</v>
       </c>
@@ -8062,7 +8067,7 @@
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="8">
         <v>43899</v>
       </c>
@@ -8073,7 +8078,7 @@
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="8">
         <v>43900</v>
       </c>
@@ -8084,7 +8089,7 @@
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="8">
         <v>43901</v>
       </c>
@@ -8095,7 +8100,7 @@
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="8">
         <v>43902</v>
       </c>
@@ -8106,7 +8111,7 @@
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="8">
         <v>43903</v>
       </c>
@@ -8117,7 +8122,7 @@
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="8">
         <v>43904</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="8">
         <v>43905</v>
       </c>
@@ -8145,7 +8150,7 @@
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="8">
         <v>43906</v>
       </c>
@@ -8156,7 +8161,7 @@
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="8">
         <v>43907</v>
       </c>
@@ -8167,7 +8172,7 @@
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="8">
         <v>43908</v>
       </c>
@@ -8178,7 +8183,7 @@
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="8">
         <v>43909</v>
       </c>
@@ -8189,7 +8194,7 @@
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="8">
         <v>43910</v>
       </c>
@@ -8200,7 +8205,7 @@
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="8">
         <v>43911</v>
       </c>
@@ -8217,7 +8222,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="8">
         <v>43912</v>
       </c>
@@ -8228,7 +8233,7 @@
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="8">
         <v>43913</v>
       </c>
@@ -8239,7 +8244,7 @@
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="8">
         <v>43914</v>
       </c>
@@ -8250,7 +8255,7 @@
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="8">
         <v>43915</v>
       </c>
@@ -8261,7 +8266,7 @@
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="8">
         <v>43916</v>
       </c>
@@ -8272,7 +8277,7 @@
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="8">
         <v>43917</v>
       </c>
@@ -8283,7 +8288,7 @@
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="8">
         <v>43918</v>
       </c>
@@ -8300,7 +8305,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="8">
         <v>43919</v>
       </c>
@@ -8311,7 +8316,7 @@
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="8">
         <v>43920</v>
       </c>
@@ -8322,7 +8327,7 @@
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="8">
         <v>43921</v>
       </c>
@@ -8337,7 +8342,7 @@
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="8">
         <v>43922</v>
       </c>
@@ -8348,7 +8353,7 @@
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="8">
         <v>43923</v>
       </c>
@@ -8359,7 +8364,7 @@
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="8">
         <v>43924</v>
       </c>
@@ -8370,7 +8375,7 @@
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="8">
         <v>43925</v>
       </c>
@@ -8387,7 +8392,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="8">
         <v>43926</v>
       </c>
@@ -8398,7 +8403,7 @@
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="8">
         <v>43927</v>
       </c>
@@ -8409,7 +8414,7 @@
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="8">
         <v>43928</v>
       </c>
@@ -8420,7 +8425,7 @@
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="8">
         <v>43929</v>
       </c>
@@ -8431,7 +8436,7 @@
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="8">
         <v>43930</v>
       </c>
@@ -8442,7 +8447,7 @@
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="8">
         <v>43931</v>
       </c>
@@ -8453,7 +8458,7 @@
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="8">
         <v>43932</v>
       </c>
@@ -8470,7 +8475,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="8">
         <v>43933</v>
       </c>
@@ -8481,7 +8486,7 @@
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="8">
         <v>43934</v>
       </c>
@@ -8492,7 +8497,7 @@
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="8">
         <v>43935</v>
       </c>
@@ -8503,7 +8508,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="8">
         <v>43936</v>
       </c>
@@ -8514,7 +8519,7 @@
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="8">
         <v>43937</v>
       </c>
@@ -8525,7 +8530,7 @@
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="8">
         <v>43938</v>
       </c>
@@ -8536,7 +8541,7 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="8">
         <v>43939</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="8">
         <v>43940</v>
       </c>
@@ -8564,7 +8569,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="8">
         <v>43941</v>
       </c>
@@ -8575,7 +8580,7 @@
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="8">
         <v>43942</v>
       </c>
@@ -8586,7 +8591,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="8">
         <v>43943</v>
       </c>
@@ -8597,7 +8602,7 @@
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="8">
         <v>43944</v>
       </c>
@@ -8608,7 +8613,7 @@
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="8">
         <v>43945</v>
       </c>
@@ -8619,7 +8624,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="8">
         <v>43946</v>
       </c>
@@ -8630,7 +8635,7 @@
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="8">
         <v>43947</v>
       </c>
@@ -8641,7 +8646,7 @@
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="8">
         <v>43948</v>
       </c>
@@ -8652,7 +8657,7 @@
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="8">
         <v>43949</v>
       </c>
@@ -8663,7 +8668,7 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="8">
         <v>43950</v>
       </c>
@@ -8674,7 +8679,7 @@
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="8">
         <v>43951</v>
       </c>
@@ -8689,7 +8694,7 @@
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="8">
         <v>43952</v>
       </c>
@@ -8700,7 +8705,7 @@
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="8">
         <v>43953</v>
       </c>
@@ -8717,7 +8722,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="8">
         <v>43954</v>
       </c>
@@ -8728,7 +8733,7 @@
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="8">
         <v>43955</v>
       </c>
@@ -8739,7 +8744,7 @@
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="8">
         <v>43956</v>
       </c>
@@ -8750,7 +8755,7 @@
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="8">
         <v>43957</v>
       </c>
@@ -8761,7 +8766,7 @@
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="8">
         <v>43958</v>
       </c>
@@ -8772,7 +8777,7 @@
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="8">
         <v>43959</v>
       </c>
@@ -8784,7 +8789,7 @@
       <c r="G497" s="21"/>
       <c r="H497" s="21"/>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="8">
         <v>43960</v>
       </c>
@@ -8802,7 +8807,7 @@
       </c>
       <c r="H498" s="21"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="8">
         <v>43961</v>
       </c>
@@ -8814,7 +8819,7 @@
       <c r="G499" s="21"/>
       <c r="H499" s="21"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="8">
         <v>43962</v>
       </c>
@@ -8826,7 +8831,7 @@
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="8">
         <v>43963</v>
       </c>
@@ -8838,7 +8843,7 @@
       <c r="G501" s="21"/>
       <c r="H501" s="21"/>
     </row>
-    <row r="502" spans="1:8" s="18" customFormat="1">
+    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="8">
         <v>43964</v>
       </c>
@@ -8850,7 +8855,7 @@
       <c r="G502" s="21"/>
       <c r="H502" s="21"/>
     </row>
-    <row r="503" spans="1:8" s="18" customFormat="1">
+    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="8">
         <v>43965</v>
       </c>
@@ -8862,7 +8867,7 @@
       <c r="G503" s="21"/>
       <c r="H503" s="21"/>
     </row>
-    <row r="504" spans="1:8" s="18" customFormat="1">
+    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="8">
         <v>43966</v>
       </c>
@@ -8874,7 +8879,7 @@
       <c r="G504" s="21"/>
       <c r="H504" s="21"/>
     </row>
-    <row r="505" spans="1:8" s="18" customFormat="1">
+    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="8">
         <v>43967</v>
       </c>
@@ -8892,7 +8897,7 @@
       </c>
       <c r="H505" s="21"/>
     </row>
-    <row r="506" spans="1:8" s="18" customFormat="1">
+    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="8">
         <v>43968</v>
       </c>
@@ -8904,7 +8909,7 @@
       <c r="G506" s="21"/>
       <c r="H506" s="21"/>
     </row>
-    <row r="507" spans="1:8" s="18" customFormat="1">
+    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="8">
         <v>43969</v>
       </c>
@@ -8916,7 +8921,7 @@
       <c r="G507" s="21"/>
       <c r="H507" s="21"/>
     </row>
-    <row r="508" spans="1:8" s="18" customFormat="1">
+    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="8">
         <v>43970</v>
       </c>
@@ -8928,7 +8933,7 @@
       <c r="G508" s="21"/>
       <c r="H508" s="21"/>
     </row>
-    <row r="509" spans="1:8" s="18" customFormat="1">
+    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="8">
         <v>43971</v>
       </c>
@@ -8940,7 +8945,7 @@
       <c r="G509" s="21"/>
       <c r="H509" s="21"/>
     </row>
-    <row r="510" spans="1:8" s="18" customFormat="1">
+    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="8">
         <v>43972</v>
       </c>
@@ -8952,7 +8957,7 @@
       <c r="G510" s="21"/>
       <c r="H510" s="21"/>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="8">
         <v>43973</v>
       </c>
@@ -8964,19 +8969,25 @@
       <c r="G511" s="21"/>
       <c r="H511" s="21"/>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="8">
         <v>43974</v>
       </c>
       <c r="B512" s="21"/>
       <c r="C512" s="21"/>
       <c r="D512" s="21"/>
-      <c r="E512" s="21"/>
-      <c r="F512" s="21"/>
-      <c r="G512" s="21"/>
+      <c r="E512" s="21">
+        <v>1.92</v>
+      </c>
+      <c r="F512" s="21">
+        <v>1.87</v>
+      </c>
+      <c r="G512" s="21">
+        <v>1.55</v>
+      </c>
       <c r="H512" s="21"/>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="8">
         <v>43975</v>
       </c>
@@ -8988,7 +8999,7 @@
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="8">
         <v>43976</v>
       </c>
@@ -9000,7 +9011,7 @@
       <c r="G514" s="21"/>
       <c r="H514" s="21"/>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="8">
         <v>43977</v>
       </c>
@@ -9012,7 +9023,7 @@
       <c r="G515" s="21"/>
       <c r="H515" s="21"/>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="8">
         <v>43978</v>
       </c>
@@ -9024,7 +9035,7 @@
       <c r="G516" s="21"/>
       <c r="H516" s="21"/>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="8">
         <v>43979</v>
       </c>
@@ -9036,7 +9047,7 @@
       <c r="G517" s="21"/>
       <c r="H517" s="21"/>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="8">
         <v>43980</v>
       </c>
@@ -9048,19 +9059,25 @@
       <c r="G518" s="21"/>
       <c r="H518" s="21"/>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="8">
         <v>43981</v>
       </c>
       <c r="B519" s="21"/>
       <c r="C519" s="21"/>
       <c r="D519" s="21"/>
-      <c r="E519" s="21"/>
-      <c r="F519" s="21"/>
-      <c r="G519" s="21"/>
+      <c r="E519" s="21">
+        <v>2.14</v>
+      </c>
+      <c r="F519" s="21">
+        <v>2.04</v>
+      </c>
+      <c r="G519" s="21">
+        <v>1.65</v>
+      </c>
       <c r="H519" s="21"/>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="8">
         <v>43982</v>
       </c>
@@ -9072,7 +9089,7 @@
       <c r="G520" s="21"/>
       <c r="H520" s="21"/>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="8">
         <v>43983</v>
       </c>
@@ -9084,7 +9101,7 @@
       <c r="G521" s="21"/>
       <c r="H521" s="21"/>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="8">
         <v>43984</v>
       </c>
@@ -9096,7 +9113,7 @@
       <c r="G522" s="21"/>
       <c r="H522" s="21"/>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="8">
         <v>43985</v>
       </c>
@@ -9108,7 +9125,7 @@
       <c r="G523" s="21"/>
       <c r="H523" s="21"/>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="8">
         <v>43986</v>
       </c>
@@ -9120,7 +9137,7 @@
       <c r="G524" s="21"/>
       <c r="H524" s="21"/>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="8">
         <v>43987</v>
       </c>
@@ -9132,19 +9149,25 @@
       <c r="G525" s="21"/>
       <c r="H525" s="21"/>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="8">
         <v>43988</v>
       </c>
       <c r="B526" s="21"/>
       <c r="C526" s="21"/>
       <c r="D526" s="21"/>
-      <c r="E526" s="21"/>
-      <c r="F526" s="21"/>
-      <c r="G526" s="21"/>
+      <c r="E526" s="21">
+        <v>2.14</v>
+      </c>
+      <c r="F526" s="21">
+        <v>2.04</v>
+      </c>
+      <c r="G526" s="21">
+        <v>1.65</v>
+      </c>
       <c r="H526" s="21"/>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="8">
         <v>43989</v>
       </c>
@@ -9155,6 +9178,122 @@
       <c r="F527" s="21"/>
       <c r="G527" s="21"/>
       <c r="H527" s="21"/>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B528" s="25"/>
+      <c r="C528" s="25"/>
+      <c r="D528" s="25"/>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" s="8">
+        <v>43991</v>
+      </c>
+      <c r="B529" s="25"/>
+      <c r="C529" s="25"/>
+      <c r="D529" s="25"/>
+      <c r="E529" s="21"/>
+      <c r="F529" s="21"/>
+      <c r="G529" s="21"/>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" s="8">
+        <v>43992</v>
+      </c>
+      <c r="B530" s="25"/>
+      <c r="C530" s="25"/>
+      <c r="D530" s="25"/>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" s="8">
+        <v>43993</v>
+      </c>
+      <c r="B531" s="25"/>
+      <c r="C531" s="25"/>
+      <c r="D531" s="25"/>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532" s="8">
+        <v>43994</v>
+      </c>
+      <c r="B532" s="25"/>
+      <c r="C532" s="25"/>
+      <c r="D532" s="25"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" s="8">
+        <v>43995</v>
+      </c>
+      <c r="B533" s="25"/>
+      <c r="C533" s="25"/>
+      <c r="D533" s="25"/>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534" s="8">
+        <v>43996</v>
+      </c>
+      <c r="B534" s="25"/>
+      <c r="C534" s="25"/>
+      <c r="D534" s="25"/>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B535" s="25"/>
+      <c r="C535" s="25"/>
+      <c r="D535" s="25"/>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536" s="8">
+        <v>43998</v>
+      </c>
+      <c r="B536" s="25"/>
+      <c r="C536" s="25"/>
+      <c r="D536" s="25"/>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B537" s="25"/>
+      <c r="C537" s="25"/>
+      <c r="D537" s="25"/>
+      <c r="H537" s="21"/>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538" s="8">
+        <v>44000</v>
+      </c>
+      <c r="B538" s="25"/>
+      <c r="C538" s="25"/>
+      <c r="D538" s="25"/>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539" s="8">
+        <v>44001</v>
+      </c>
+      <c r="B539" s="25"/>
+      <c r="C539" s="25"/>
+      <c r="D539" s="25"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" s="8">
+        <v>44002</v>
+      </c>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="25"/>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" s="8">
+        <v>44003</v>
+      </c>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9175,37 +9314,37 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" style="10" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="10" customWidth="1"/>
-    <col min="16" max="22" width="11.140625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="10" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="10" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="17.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" style="10" customWidth="1"/>
+    <col min="16" max="22" width="11.109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="10" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.44140625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" style="10" customWidth="1"/>
     <col min="27" max="16384" width="14" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.45" customHeight="1">
+    <row r="1" spans="1:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -9273,7 +9412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>18</v>
       </c>
@@ -9330,7 +9469,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.45">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>18</v>
       </c>
@@ -9387,7 +9526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>19</v>
       </c>
@@ -9444,7 +9583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>19</v>
       </c>
@@ -9501,7 +9640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>19</v>
       </c>
@@ -9558,7 +9697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>19</v>
       </c>
@@ -9613,7 +9752,7 @@
       </c>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>19</v>
       </c>
@@ -9668,7 +9807,7 @@
       </c>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>19</v>
       </c>
@@ -9723,7 +9862,7 @@
       </c>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>19</v>
       </c>
@@ -9778,7 +9917,7 @@
       </c>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>19</v>
       </c>
@@ -9837,7 +9976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>15</v>
       </c>
@@ -9894,7 +10033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -9914,7 +10053,7 @@
       <c r="Q13" s="14"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9934,7 +10073,7 @@
       <c r="Q14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9954,7 +10093,7 @@
       <c r="Q15" s="14"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -9974,7 +10113,7 @@
       <c r="Q16" s="14"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -9994,7 +10133,7 @@
       <c r="Q17" s="14"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -10014,7 +10153,7 @@
       <c r="Q18" s="14"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -10034,7 +10173,7 @@
       <c r="Q19" s="14"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -10054,7 +10193,7 @@
       <c r="Q20" s="14"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10074,7 +10213,7 @@
       <c r="Q21" s="14"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10094,7 +10233,7 @@
       <c r="Q22" s="14"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10114,1005 +10253,1005 @@
       <c r="Q23" s="14"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="12"/>
       <c r="E25" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="4:4" ht="15.75" customHeight="1">
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="4:4" ht="15.75" customHeight="1">
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="4:4" ht="15.75" customHeight="1">
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" customHeight="1">
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="4:4" ht="15.75" customHeight="1">
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="4:4" ht="15.75" customHeight="1">
+    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="4:4" ht="15.75" customHeight="1">
+    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="4:4" ht="15.75" customHeight="1">
+    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="4:4" ht="15.75" customHeight="1">
+    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="4:4" ht="15.75" customHeight="1">
+    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="4:4" ht="15.75" customHeight="1">
+    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="4:4" ht="15.75" customHeight="1">
+    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1">
+    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1">
+    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1">
+    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1">
+    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{5BF57AB9-6786-45D4-9B41-00A80ED5A879}"/>
@@ -11124,26 +11263,27 @@
     <hyperlink ref="J3" r:id="rId7" xr:uid="{E9E36F7C-9AE9-4D92-AD1A-261A48C03C76}"/>
     <hyperlink ref="H2" r:id="rId8" xr:uid="{DC8147A4-1488-41A8-BCEB-1DC252AC40C1}"/>
     <hyperlink ref="H3" r:id="rId9" xr:uid="{015F8AFF-AA93-41B9-9298-E61B5BBD7A7C}"/>
-    <hyperlink ref="F4:F6" r:id="rId10" display="https://www.indexmundi.com/es/precios-de-mercado/?mercancia=platanos&amp;meses=60" xr:uid="{0DC5EECF-0A3E-4BA3-AC53-7E304A7A2F3A}"/>
-    <hyperlink ref="H4" r:id="rId11" xr:uid="{63DB3B4E-31D0-4A18-853F-C55CDC4E6314}"/>
-    <hyperlink ref="H5:H6" r:id="rId12" display="infoenergia@energia.gob.pa" xr:uid="{B501EACF-44C1-4586-A06C-96968BC0C772}"/>
-    <hyperlink ref="J4:J6" r:id="rId13" display="infoenergia@energia.gob.pa" xr:uid="{8BA80256-2682-4C0E-8922-0F0EF09B60A5}"/>
-    <hyperlink ref="J7" r:id="rId14" xr:uid="{500391F2-B773-46FD-A6AD-A4DD15A2E300}"/>
-    <hyperlink ref="H7" r:id="rId15" display="cie_inec@contraloria.gob.pa" xr:uid="{1CE71BFE-0E22-4DC9-9264-5448BD359955}"/>
-    <hyperlink ref="F8" r:id="rId16" xr:uid="{1E82AF17-76B8-4CEE-BE6C-BB8EB0BFC8D4}"/>
-    <hyperlink ref="F9:F10" r:id="rId17" display="https://www.inec.gob.pa/avance/Default.aspx?ID_CATEGORIA=1&amp;ID_IDIOMA=1" xr:uid="{3FA6A7D9-598E-4E5C-BA55-FC0DA3460596}"/>
-    <hyperlink ref="J8:J11" r:id="rId18" display="https://www.inec.gob.pa/Default.aspx" xr:uid="{36E186AE-926F-4811-B104-256E80067874}"/>
-    <hyperlink ref="H8:H9" r:id="rId19" display="cie_inec@contraloria.gob.pa" xr:uid="{353E4380-A5D8-4352-B349-A700C12F56F2}"/>
-    <hyperlink ref="H11" r:id="rId20" xr:uid="{41F1E3F3-D669-4C84-9B0F-1C750DF9C5B1}"/>
-    <hyperlink ref="H12" r:id="rId21" xr:uid="{A2CCE213-E64E-4D79-A444-2B2B51E63D8A}"/>
-    <hyperlink ref="F11" r:id="rId22" xr:uid="{BAA932D0-528E-473F-B41D-ACBC3F9E9EC1}"/>
-    <hyperlink ref="H10" r:id="rId23" display="cie_inec@contraloria.gob.pa" xr:uid="{89F510B2-5C68-4D03-A1F1-EFFB3447A280}"/>
+    <hyperlink ref="H4" r:id="rId10" xr:uid="{63DB3B4E-31D0-4A18-853F-C55CDC4E6314}"/>
+    <hyperlink ref="H5:H6" r:id="rId11" display="infoenergia@energia.gob.pa" xr:uid="{B501EACF-44C1-4586-A06C-96968BC0C772}"/>
+    <hyperlink ref="J4:J6" r:id="rId12" display="infoenergia@energia.gob.pa" xr:uid="{8BA80256-2682-4C0E-8922-0F0EF09B60A5}"/>
+    <hyperlink ref="J7" r:id="rId13" xr:uid="{500391F2-B773-46FD-A6AD-A4DD15A2E300}"/>
+    <hyperlink ref="H7" r:id="rId14" display="cie_inec@contraloria.gob.pa" xr:uid="{1CE71BFE-0E22-4DC9-9264-5448BD359955}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{1E82AF17-76B8-4CEE-BE6C-BB8EB0BFC8D4}"/>
+    <hyperlink ref="F9:F10" r:id="rId16" display="https://www.inec.gob.pa/avance/Default.aspx?ID_CATEGORIA=1&amp;ID_IDIOMA=1" xr:uid="{3FA6A7D9-598E-4E5C-BA55-FC0DA3460596}"/>
+    <hyperlink ref="J8:J11" r:id="rId17" display="https://www.inec.gob.pa/Default.aspx" xr:uid="{36E186AE-926F-4811-B104-256E80067874}"/>
+    <hyperlink ref="H8:H9" r:id="rId18" display="cie_inec@contraloria.gob.pa" xr:uid="{353E4380-A5D8-4352-B349-A700C12F56F2}"/>
+    <hyperlink ref="H11" r:id="rId19" xr:uid="{41F1E3F3-D669-4C84-9B0F-1C750DF9C5B1}"/>
+    <hyperlink ref="H12" r:id="rId20" xr:uid="{A2CCE213-E64E-4D79-A444-2B2B51E63D8A}"/>
+    <hyperlink ref="F11" r:id="rId21" xr:uid="{BAA932D0-528E-473F-B41D-ACBC3F9E9EC1}"/>
+    <hyperlink ref="H10" r:id="rId22" display="cie_inec@contraloria.gob.pa" xr:uid="{89F510B2-5C68-4D03-A1F1-EFFB3447A280}"/>
+    <hyperlink ref="F6" r:id="rId23" xr:uid="{A63B55D0-3F47-4A34-8619-62920F88C6BD}"/>
+    <hyperlink ref="F4:F5" r:id="rId24" display="http://www.energia.gob.pa/precios/?tag=255" xr:uid="{CC5C4EC3-A3ED-46B0-9857-4D54C9FB54E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1086" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A00BDFD-6592-4557-A331-694DE3DD7A76}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="0" windowWidth="13296" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R541"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G547" sqref="G547"/>
+      <pane ySplit="3" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E544" sqref="E544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9314,10 +9314,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1086" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A00BDFD-6592-4557-A331-694DE3DD7A76}"/>
+  <xr:revisionPtr revIDLastSave="1087" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2C46382-D909-410C-AA4C-EDC27ECB3BFB}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="0" windowWidth="13296" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R541"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E544" sqref="E544"/>
+      <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A551" sqref="A551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3291,7 +3291,9 @@
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="2">
+        <v>533206.50499999989</v>
+      </c>
       <c r="P43" s="2">
         <v>403.34</v>
       </c>
@@ -9314,10 +9316,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1087" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2C46382-D909-410C-AA4C-EDC27ECB3BFB}"/>
+  <xr:revisionPtr revIDLastSave="1095" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71CF25EA-636C-4D02-959D-20FE2C60326D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1300,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H541" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H541" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H550" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H550" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1632,11 +1632,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R541"/>
+  <dimension ref="A1:R550"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A551" sqref="A551"/>
+      <pane ySplit="3" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9231,6 +9231,15 @@
       <c r="B533" s="25"/>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
+      <c r="E533">
+        <v>2.23</v>
+      </c>
+      <c r="F533">
+        <v>2.14</v>
+      </c>
+      <c r="G533">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="8">
@@ -9288,6 +9297,15 @@
       <c r="B540" s="25"/>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
+      <c r="E540">
+        <v>2.23</v>
+      </c>
+      <c r="F540">
+        <v>2.14</v>
+      </c>
+      <c r="G540">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="8">
@@ -9296,6 +9314,78 @@
       <c r="B541" s="25"/>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542" s="8">
+        <v>44004</v>
+      </c>
+      <c r="B542" s="25"/>
+      <c r="C542" s="25"/>
+      <c r="D542" s="25"/>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543" s="8">
+        <v>44005</v>
+      </c>
+      <c r="B543" s="25"/>
+      <c r="C543" s="25"/>
+      <c r="D543" s="25"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" s="8">
+        <v>44006</v>
+      </c>
+      <c r="B544" s="25"/>
+      <c r="C544" s="25"/>
+      <c r="D544" s="25"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="8">
+        <v>44007</v>
+      </c>
+      <c r="B545" s="25"/>
+      <c r="C545" s="25"/>
+      <c r="D545" s="25"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" s="8">
+        <v>44008</v>
+      </c>
+      <c r="B546" s="25"/>
+      <c r="C546" s="25"/>
+      <c r="D546" s="25"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" s="8">
+        <v>44009</v>
+      </c>
+      <c r="B547" s="25"/>
+      <c r="C547" s="25"/>
+      <c r="D547" s="25"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="8">
+        <v>44010</v>
+      </c>
+      <c r="B548" s="25"/>
+      <c r="C548" s="25"/>
+      <c r="D548" s="25"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="8">
+        <v>44011</v>
+      </c>
+      <c r="B549" s="25"/>
+      <c r="C549" s="25"/>
+      <c r="D549" s="25"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" s="8">
+        <v>44012</v>
+      </c>
+      <c r="B550" s="25"/>
+      <c r="C550" s="25"/>
+      <c r="D550" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9319,7 +9409,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1095" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71CF25EA-636C-4D02-959D-20FE2C60326D}"/>
+  <xr:revisionPtr revIDLastSave="1105" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5BF6134-799B-4670-B31C-6A016063464B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8412" yWindow="0" windowWidth="14616" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -1063,6 +1063,56 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5D7B9D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1207,56 +1257,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF5D7B9D"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9E2F3"/>
@@ -1300,13 +1300,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H550" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H550" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H555" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A3:H555" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{1A412D0D-9DDD-4532-ADAC-BC90F0ABB038}" name="Combustible Gasolina Superior"/>
     <tableColumn id="7" xr3:uid="{6C9802FB-03D0-4F94-9942-ED195CC86D50}" name="Combustible Regular"/>
     <tableColumn id="8" xr3:uid="{EBFE959D-24EF-495E-9BE7-BDEC4C8061F8}" name="Combustible Diesel"/>
@@ -1317,18 +1317,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R46" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
-  <autoFilter ref="J3:R46" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R47" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Millares">
+  <autoFilter ref="J3:R47" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="10">
       <calculatedColumnFormula>+K4&amp;", "&amp;J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8FC1825F-E2AC-4830-AA41-5B12F2C15972}" name="Índice Mensual de Actividad Económica "/>
-    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="4" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="2" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="7" dataCellStyle="Millares"/>
     <tableColumn id="8" xr3:uid="{1A570E63-F800-45DF-9E5A-B8961BEFE222}" name="Tasa de desempleo abierto"/>
     <tableColumn id="9" xr3:uid="{7E984A16-0976-4747-9D31-12709D8A9C2E}" name="Ingesos - Egresos Remesas (Millones USD)"/>
   </tableColumns>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="6">
   <autoFilter ref="A1:U23" xr:uid="{A4DDB744-8DEA-4F35-AEC9-FB17B2884A09}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C1E7A7E7-7FD3-4FCB-A528-822BF1431468}" name="ID_Fuente"/>
@@ -1360,7 +1360,7 @@
     <tableColumn id="18" xr3:uid="{BE4CA536-69A1-4E09-B63A-D7282A251F01}" name="País"/>
     <tableColumn id="19" xr3:uid="{15A820D3-8670-4BFD-8BDE-2BD2A5BBCE28}" name="División Administrativa"/>
     <tableColumn id="20" xr3:uid="{19BD7B61-ED33-4BE3-B11A-D96B98260DC0}" name="Formato Descarga"/>
-    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1632,11 +1632,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R550"/>
+  <dimension ref="A1:R555"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A556" sqref="A556"/>
+      <pane ySplit="3" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A560" sqref="A560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3377,7 @@
         <v>24</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f t="shared" ref="L46" si="2">+K46&amp;", "&amp;J46</f>
+        <f t="shared" ref="L46:L47" si="2">+K46&amp;", "&amp;J46</f>
         <v>Julio, 2020</v>
       </c>
       <c r="M46" s="21"/>
@@ -3399,13 +3399,20 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="J47" s="9">
+        <v>2020</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Agosto, 2020</v>
+      </c>
       <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
     </row>
@@ -8701,8 +8708,12 @@
         <v>43952</v>
       </c>
       <c r="B490" s="21"/>
-      <c r="C490" s="21"/>
-      <c r="D490" s="21"/>
+      <c r="C490" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="D490" s="23">
+        <v>1392.96</v>
+      </c>
       <c r="E490" s="21"/>
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
@@ -9386,6 +9397,46 @@
       <c r="B550" s="25"/>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="8">
+        <v>44013</v>
+      </c>
+      <c r="B551" s="25"/>
+      <c r="C551" s="25"/>
+      <c r="D551" s="25"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="8">
+        <v>44014</v>
+      </c>
+      <c r="B552" s="25"/>
+      <c r="C552" s="25"/>
+      <c r="D552" s="25"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="8">
+        <v>44015</v>
+      </c>
+      <c r="B553" s="25"/>
+      <c r="C553" s="25"/>
+      <c r="D553" s="25"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="8">
+        <v>44016</v>
+      </c>
+      <c r="B554" s="25"/>
+      <c r="C554" s="25"/>
+      <c r="D554" s="25"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="8">
+        <v>44017</v>
+      </c>
+      <c r="B555" s="25"/>
+      <c r="C555" s="25"/>
+      <c r="D555" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9406,10 +9457,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1105" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5BF6134-799B-4670-B31C-6A016063464B}"/>
   <bookViews>
-    <workbookView xWindow="8412" yWindow="0" windowWidth="14616" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7992" yWindow="0" windowWidth="15024" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1063,56 +1063,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF5D7B9D"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1257,6 +1207,56 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5D7B9D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9E2F3"/>
@@ -1300,13 +1300,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H555" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H555" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A3:H555" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{1A412D0D-9DDD-4532-ADAC-BC90F0ABB038}" name="Combustible Gasolina Superior"/>
     <tableColumn id="7" xr3:uid="{6C9802FB-03D0-4F94-9942-ED195CC86D50}" name="Combustible Regular"/>
     <tableColumn id="8" xr3:uid="{EBFE959D-24EF-495E-9BE7-BDEC4C8061F8}" name="Combustible Diesel"/>
@@ -1317,18 +1317,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R47" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R47" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
   <autoFilter ref="J3:R47" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="5">
       <calculatedColumnFormula>+K4&amp;", "&amp;J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8FC1825F-E2AC-4830-AA41-5B12F2C15972}" name="Índice Mensual de Actividad Económica "/>
-    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="9" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="8" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="7" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="2" dataCellStyle="Millares"/>
     <tableColumn id="8" xr3:uid="{1A570E63-F800-45DF-9E5A-B8961BEFE222}" name="Tasa de desempleo abierto"/>
     <tableColumn id="9" xr3:uid="{7E984A16-0976-4747-9D31-12709D8A9C2E}" name="Ingesos - Egresos Remesas (Millones USD)"/>
   </tableColumns>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="1">
   <autoFilter ref="A1:U23" xr:uid="{A4DDB744-8DEA-4F35-AEC9-FB17B2884A09}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C1E7A7E7-7FD3-4FCB-A528-822BF1431468}" name="ID_Fuente"/>
@@ -1360,7 +1360,7 @@
     <tableColumn id="18" xr3:uid="{BE4CA536-69A1-4E09-B63A-D7282A251F01}" name="País"/>
     <tableColumn id="19" xr3:uid="{15A820D3-8670-4BFD-8BDE-2BD2A5BBCE28}" name="División Administrativa"/>
     <tableColumn id="20" xr3:uid="{19BD7B61-ED33-4BE3-B11A-D96B98260DC0}" name="Formato Descarga"/>
-    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R555"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A560" sqref="A560"/>
+      <pane ySplit="3" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A558" sqref="A558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9460,7 +9460,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1105" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5BF6134-799B-4670-B31C-6A016063464B}"/>
+  <xr:revisionPtr revIDLastSave="1120" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B79EDFAF-0483-4B14-804E-3977D007B83E}"/>
   <bookViews>
-    <workbookView xWindow="7992" yWindow="0" windowWidth="15024" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8208" yWindow="0" windowWidth="14808" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R555"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A558" sqref="A558"/>
+      <pane ySplit="3" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A561" sqref="A561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
         <v>Enero, 2020</v>
       </c>
       <c r="M40" s="24">
-        <v>340.19246193075492</v>
+        <v>339.56602505061431</v>
       </c>
       <c r="N40" s="2">
         <v>51503.478000000003</v>
@@ -3210,7 +3210,7 @@
         <v>Febrero, 2020</v>
       </c>
       <c r="M41" s="24">
-        <v>334.16091635711257</v>
+        <v>333.99133203105765</v>
       </c>
       <c r="N41" s="2">
         <v>54227.436999999991</v>
@@ -3247,7 +3247,7 @@
         <v>Marzo, 2020</v>
       </c>
       <c r="M42" s="24">
-        <v>369.50921717470578</v>
+        <v>366.43683999641081</v>
       </c>
       <c r="N42" s="2">
         <v>69413.402000000002</v>
@@ -3289,8 +3289,12 @@
         <f t="shared" si="0"/>
         <v>Abril, 2020</v>
       </c>
-      <c r="M43" s="21"/>
-      <c r="N43" s="2"/>
+      <c r="M43" s="24">
+        <v>217.92340191398858</v>
+      </c>
+      <c r="N43" s="2">
+        <v>59005.919000000002</v>
+      </c>
       <c r="O43" s="2">
         <v>533206.50499999989</v>
       </c>
@@ -3322,11 +3326,13 @@
         <f t="shared" si="0"/>
         <v>Mayo, 2020</v>
       </c>
-      <c r="M44" s="21"/>
+      <c r="M44" s="24"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="21"/>
+      <c r="P44" s="2">
+        <v>375.5</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" s="21"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -3351,11 +3357,11 @@
         <f t="shared" ref="L45" si="1">+K45&amp;", "&amp;J45</f>
         <v>Junio, 2020</v>
       </c>
-      <c r="M45" s="21"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="21"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="21"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -3380,11 +3386,11 @@
         <f t="shared" ref="L46:L47" si="2">+K46&amp;", "&amp;J46</f>
         <v>Julio, 2020</v>
       </c>
-      <c r="M46" s="21"/>
+      <c r="M46" s="24"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="21"/>
+      <c r="Q46" s="2"/>
       <c r="R46" s="21"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -3409,11 +3415,11 @@
         <f t="shared" si="2"/>
         <v>Agosto, 2020</v>
       </c>
-      <c r="M47" s="21"/>
+      <c r="M47" s="24"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="21"/>
+      <c r="Q47" s="2"/>
       <c r="R47" s="21"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -9350,7 +9356,7 @@
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="8">
         <v>44007</v>
       </c>
@@ -9358,7 +9364,7 @@
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="8">
         <v>44008</v>
       </c>
@@ -9366,15 +9372,24 @@
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="8">
         <v>44009</v>
       </c>
       <c r="B547" s="25"/>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E547">
+        <v>2.35</v>
+      </c>
+      <c r="F547">
+        <v>2.29</v>
+      </c>
+      <c r="G547">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="8">
         <v>44010</v>
       </c>
@@ -9382,7 +9397,7 @@
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="8">
         <v>44011</v>
       </c>
@@ -9390,7 +9405,7 @@
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="8">
         <v>44012</v>
       </c>
@@ -9398,7 +9413,7 @@
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="8">
         <v>44013</v>
       </c>
@@ -9406,7 +9421,7 @@
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="8">
         <v>44014</v>
       </c>
@@ -9414,7 +9429,7 @@
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="8">
         <v>44015</v>
       </c>
@@ -9422,7 +9437,7 @@
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="8">
         <v>44016</v>
       </c>
@@ -9430,7 +9445,7 @@
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="8">
         <v>44017</v>
       </c>
@@ -9460,7 +9475,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1120" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B79EDFAF-0483-4B14-804E-3977D007B83E}"/>
+  <xr:revisionPtr revIDLastSave="1121" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D9CC28B-5D1C-42DE-A8E9-577EDE986383}"/>
   <bookViews>
-    <workbookView xWindow="8208" yWindow="0" windowWidth="14808" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -8714,12 +8714,8 @@
         <v>43952</v>
       </c>
       <c r="B490" s="21"/>
-      <c r="C490" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="D490" s="23">
-        <v>1392.96</v>
-      </c>
+      <c r="C490" s="25"/>
+      <c r="D490" s="25"/>
       <c r="E490" s="21"/>
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
@@ -9101,8 +9097,12 @@
         <v>43982</v>
       </c>
       <c r="B520" s="21"/>
-      <c r="C520" s="21"/>
-      <c r="D520" s="21"/>
+      <c r="C520" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="D520" s="23">
+        <v>1392.96</v>
+      </c>
       <c r="E520" s="21"/>
       <c r="F520" s="21"/>
       <c r="G520" s="21"/>
@@ -9475,7 +9475,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1121" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D9CC28B-5D1C-42DE-A8E9-577EDE986383}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5784" yWindow="0" windowWidth="17220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R555"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A561" sqref="A561"/>
+      <pane ySplit="3" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9475,7 +9475,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1121" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D9CC28B-5D1C-42DE-A8E9-577EDE986383}"/>
+  <xr:revisionPtr revIDLastSave="1130" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12AE38F6-9B62-422C-A42D-79C59F4CE46D}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="0" windowWidth="17220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7464" yWindow="696" windowWidth="15552" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1300,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H555" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H555" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H569" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H569" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1632,11 +1632,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R555"/>
+  <dimension ref="A1:R569"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
+      <pane ySplit="3" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E571" sqref="E571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9444,6 +9444,15 @@
       <c r="B554" s="25"/>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
+      <c r="E554">
+        <v>2.35</v>
+      </c>
+      <c r="F554" s="21">
+        <v>2.29</v>
+      </c>
+      <c r="G554" s="21">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="8">
@@ -9452,6 +9461,127 @@
       <c r="B555" s="25"/>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" s="8">
+        <v>44018</v>
+      </c>
+      <c r="B556" s="25"/>
+      <c r="C556" s="25"/>
+      <c r="D556" s="25"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="8">
+        <v>44019</v>
+      </c>
+      <c r="B557" s="25"/>
+      <c r="C557" s="25"/>
+      <c r="D557" s="25"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A558" s="8">
+        <v>44020</v>
+      </c>
+      <c r="B558" s="25"/>
+      <c r="C558" s="25"/>
+      <c r="D558" s="25"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A559" s="8">
+        <v>44021</v>
+      </c>
+      <c r="B559" s="25"/>
+      <c r="C559" s="25"/>
+      <c r="D559" s="25"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A560" s="8">
+        <v>44022</v>
+      </c>
+      <c r="B560" s="25"/>
+      <c r="C560" s="25"/>
+      <c r="D560" s="25"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A561" s="8">
+        <v>44023</v>
+      </c>
+      <c r="B561" s="25"/>
+      <c r="C561" s="25"/>
+      <c r="D561" s="25"/>
+      <c r="E561">
+        <v>2.42</v>
+      </c>
+      <c r="F561">
+        <v>2.35</v>
+      </c>
+      <c r="G561">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A562" s="8">
+        <v>44024</v>
+      </c>
+      <c r="B562" s="25"/>
+      <c r="C562" s="25"/>
+      <c r="D562" s="25"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A563" s="8">
+        <v>44025</v>
+      </c>
+      <c r="B563" s="25"/>
+      <c r="C563" s="25"/>
+      <c r="D563" s="25"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A564" s="8">
+        <v>44026</v>
+      </c>
+      <c r="B564" s="25"/>
+      <c r="C564" s="25"/>
+      <c r="D564" s="25"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A565" s="8">
+        <v>44027</v>
+      </c>
+      <c r="B565" s="25"/>
+      <c r="C565" s="25"/>
+      <c r="D565" s="25"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A566" s="8">
+        <v>44028</v>
+      </c>
+      <c r="B566" s="25"/>
+      <c r="C566" s="25"/>
+      <c r="D566" s="25"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A567" s="8">
+        <v>44029</v>
+      </c>
+      <c r="B567" s="25"/>
+      <c r="C567" s="25"/>
+      <c r="D567" s="25"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A568" s="8">
+        <v>44030</v>
+      </c>
+      <c r="B568" s="25"/>
+      <c r="C568" s="25"/>
+      <c r="D568" s="25"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A569" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B569" s="25"/>
+      <c r="C569" s="25"/>
+      <c r="D569" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9475,7 +9605,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1130" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12AE38F6-9B62-422C-A42D-79C59F4CE46D}"/>
+  <xr:revisionPtr revIDLastSave="1134" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1632F490-2827-4A2A-8169-65748DC905E2}"/>
   <bookViews>
-    <workbookView xWindow="7464" yWindow="696" windowWidth="15552" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6516" yWindow="0" windowWidth="16524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R569"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E571" sqref="E571"/>
+      <pane ySplit="3" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A573" sqref="A573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3327,8 +3327,12 @@
         <v>Mayo, 2020</v>
       </c>
       <c r="M44" s="24"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="N44" s="2">
+        <v>44765.543999999994</v>
+      </c>
+      <c r="O44" s="2">
+        <v>493292.21799999999</v>
+      </c>
       <c r="P44" s="2">
         <v>375.5</v>
       </c>
@@ -9410,8 +9414,12 @@
         <v>44012</v>
       </c>
       <c r="B550" s="25"/>
-      <c r="C550" s="25"/>
-      <c r="D550" s="25"/>
+      <c r="C550" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="D550" s="23">
+        <v>1448</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="8">
@@ -9605,7 +9613,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1134" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1632F490-2827-4A2A-8169-65748DC905E2}"/>
+  <xr:revisionPtr revIDLastSave="1136" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C564F5E4-A314-4E45-A556-9CB75E961416}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="0" windowWidth="16524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1300,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H569" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H569" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H576" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H576" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1632,11 +1632,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R569"/>
+  <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A573" sqref="A573"/>
+      <pane ySplit="3" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E583" sqref="E583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9591,6 +9591,62 @@
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
     </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A570" s="8">
+        <v>44032</v>
+      </c>
+      <c r="B570" s="25"/>
+      <c r="C570" s="25"/>
+      <c r="D570" s="25"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A571" s="8">
+        <v>44033</v>
+      </c>
+      <c r="B571" s="25"/>
+      <c r="C571" s="25"/>
+      <c r="D571" s="25"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A572" s="8">
+        <v>44034</v>
+      </c>
+      <c r="B572" s="25"/>
+      <c r="C572" s="25"/>
+      <c r="D572" s="25"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A573" s="8">
+        <v>44035</v>
+      </c>
+      <c r="B573" s="25"/>
+      <c r="C573" s="25"/>
+      <c r="D573" s="25"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A574" s="8">
+        <v>44036</v>
+      </c>
+      <c r="B574" s="25"/>
+      <c r="C574" s="25"/>
+      <c r="D574" s="25"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A575" s="8">
+        <v>44037</v>
+      </c>
+      <c r="B575" s="25"/>
+      <c r="C575" s="25"/>
+      <c r="D575" s="25"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A576" s="8">
+        <v>44038</v>
+      </c>
+      <c r="B576" s="25"/>
+      <c r="C576" s="25"/>
+      <c r="D576" s="25"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
     <sortCondition ref="S16:S27"/>
@@ -9613,7 +9669,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Panama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1136" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C564F5E4-A314-4E45-A556-9CB75E961416}"/>
+  <xr:revisionPtr revIDLastSave="1136" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C564F5E4-A314-4E45-A556-9CB75E961416}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10128" yWindow="1248" windowWidth="12912" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E583" sqref="E583"/>
+      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A579" sqref="A579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9669,7 +9669,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1136" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C564F5E4-A314-4E45-A556-9CB75E961416}"/>
+  <xr:revisionPtr revIDLastSave="1138" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8BC490A-F996-4519-867B-75E8D1B1E77B}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="1248" windowWidth="12912" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1635,8 +1633,8 @@
   <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A579" sqref="A579"/>
+      <pane ySplit="3" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A584" sqref="A584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9669,7 +9667,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1138" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8BC490A-F996-4519-867B-75E8D1B1E77B}"/>
+  <xr:revisionPtr revIDLastSave="1138" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8BC490A-F996-4519-867B-75E8D1B1E77B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8736" yWindow="0" windowWidth="14268" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
     <sheet name="Fuentes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1632,9 +1634,9 @@
   </sheetPr>
   <dimension ref="A1:R576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A584" sqref="A584"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9667,7 +9669,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1138" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8BC490A-F996-4519-867B-75E8D1B1E77B}"/>
+  <xr:revisionPtr revIDLastSave="1157" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{711844A7-F7C0-4915-9CCB-E9F71D8A4B8D}"/>
   <bookViews>
-    <workbookView xWindow="8736" yWindow="0" windowWidth="14268" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1300,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H576" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H576" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H590" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H590" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1632,11 +1632,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R576"/>
+  <dimension ref="A1:R590"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A595" sqref="A595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,9 +3362,15 @@
         <v>Junio, 2020</v>
       </c>
       <c r="M45" s="24"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="N45" s="2">
+        <v>56461.284</v>
+      </c>
+      <c r="O45" s="2">
+        <v>523101.42599999998</v>
+      </c>
+      <c r="P45" s="2">
+        <v>376.09</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="21"/>
     </row>
@@ -9582,6 +9588,15 @@
       <c r="B568" s="25"/>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
+      <c r="E568">
+        <v>2.42</v>
+      </c>
+      <c r="F568">
+        <v>2.35</v>
+      </c>
+      <c r="G568">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" s="8">
@@ -9638,6 +9653,15 @@
       <c r="B575" s="25"/>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
+      <c r="E575">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F575">
+        <v>2.38</v>
+      </c>
+      <c r="G575">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" s="8">
@@ -9646,6 +9670,127 @@
       <c r="B576" s="25"/>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A577" s="8">
+        <v>44039</v>
+      </c>
+      <c r="B577" s="25"/>
+      <c r="C577" s="25"/>
+      <c r="D577" s="25"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A578" s="8">
+        <v>44040</v>
+      </c>
+      <c r="B578" s="25"/>
+      <c r="C578" s="25"/>
+      <c r="D578" s="25"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A579" s="8">
+        <v>44041</v>
+      </c>
+      <c r="B579" s="25"/>
+      <c r="C579" s="25"/>
+      <c r="D579" s="25"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A580" s="8">
+        <v>44042</v>
+      </c>
+      <c r="B580" s="25"/>
+      <c r="C580" s="25"/>
+      <c r="D580" s="25"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A581" s="8">
+        <v>44043</v>
+      </c>
+      <c r="B581" s="25"/>
+      <c r="C581" s="25"/>
+      <c r="D581" s="25"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A582" s="8">
+        <v>44044</v>
+      </c>
+      <c r="B582" s="25"/>
+      <c r="C582" s="25"/>
+      <c r="D582" s="25"/>
+      <c r="E582">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F582">
+        <v>2.38</v>
+      </c>
+      <c r="G582">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A583" s="8">
+        <v>44045</v>
+      </c>
+      <c r="B583" s="25"/>
+      <c r="C583" s="25"/>
+      <c r="D583" s="25"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A584" s="8">
+        <v>44046</v>
+      </c>
+      <c r="B584" s="25"/>
+      <c r="C584" s="25"/>
+      <c r="D584" s="25"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A585" s="8">
+        <v>44047</v>
+      </c>
+      <c r="B585" s="25"/>
+      <c r="C585" s="25"/>
+      <c r="D585" s="25"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A586" s="8">
+        <v>44048</v>
+      </c>
+      <c r="B586" s="25"/>
+      <c r="C586" s="25"/>
+      <c r="D586" s="25"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A587" s="8">
+        <v>44049</v>
+      </c>
+      <c r="B587" s="25"/>
+      <c r="C587" s="25"/>
+      <c r="D587" s="25"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A588" s="8">
+        <v>44050</v>
+      </c>
+      <c r="B588" s="25"/>
+      <c r="C588" s="25"/>
+      <c r="D588" s="25"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A589" s="8">
+        <v>44051</v>
+      </c>
+      <c r="B589" s="25"/>
+      <c r="C589" s="25"/>
+      <c r="D589" s="25"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A590" s="8">
+        <v>44052</v>
+      </c>
+      <c r="B590" s="25"/>
+      <c r="C590" s="25"/>
+      <c r="D590" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9669,7 +9814,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1157" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{711844A7-F7C0-4915-9CCB-E9F71D8A4B8D}"/>
+  <xr:revisionPtr revIDLastSave="1159" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8D56E48-A941-4EFA-89C7-97213D807BD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:R590"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A595" sqref="A595"/>
+      <pane ySplit="3" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A602" sqref="A602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,7 +3326,9 @@
         <f t="shared" si="0"/>
         <v>Mayo, 2020</v>
       </c>
-      <c r="M44" s="24"/>
+      <c r="M44" s="24">
+        <v>193.83678840082644</v>
+      </c>
       <c r="N44" s="2">
         <v>44765.543999999994</v>
       </c>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1159" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8D56E48-A941-4EFA-89C7-97213D807BD6}"/>
+  <xr:revisionPtr revIDLastSave="1166" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75E0FB4E-1BD3-4B0D-9C64-AC55FEF162A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1300,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H590" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H590" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H597" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H597" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1632,11 +1632,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R590"/>
+  <dimension ref="A1:R597"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A602" sqref="A602"/>
+      <pane ySplit="3" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9710,8 +9710,12 @@
         <v>44043</v>
       </c>
       <c r="B581" s="25"/>
-      <c r="C581" s="25"/>
-      <c r="D581" s="25"/>
+      <c r="C581" s="25">
+        <v>1.27</v>
+      </c>
+      <c r="D581" s="23">
+        <v>1486.92</v>
+      </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" s="8">
@@ -9785,6 +9789,15 @@
       <c r="B589" s="25"/>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
+      <c r="E589">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F589">
+        <v>2.37</v>
+      </c>
+      <c r="G589">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" s="8">
@@ -9793,6 +9806,62 @@
       <c r="B590" s="25"/>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A591" s="8">
+        <v>44053</v>
+      </c>
+      <c r="B591" s="25"/>
+      <c r="C591" s="25"/>
+      <c r="D591" s="25"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A592" s="8">
+        <v>44054</v>
+      </c>
+      <c r="B592" s="25"/>
+      <c r="C592" s="25"/>
+      <c r="D592" s="25"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" s="8">
+        <v>44055</v>
+      </c>
+      <c r="B593" s="25"/>
+      <c r="C593" s="25"/>
+      <c r="D593" s="25"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" s="8">
+        <v>44056</v>
+      </c>
+      <c r="B594" s="25"/>
+      <c r="C594" s="25"/>
+      <c r="D594" s="25"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" s="8">
+        <v>44057</v>
+      </c>
+      <c r="B595" s="25"/>
+      <c r="C595" s="25"/>
+      <c r="D595" s="25"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" s="8">
+        <v>44058</v>
+      </c>
+      <c r="B596" s="25"/>
+      <c r="C596" s="25"/>
+      <c r="D596" s="25"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" s="8">
+        <v>44059</v>
+      </c>
+      <c r="B597" s="25"/>
+      <c r="C597" s="25"/>
+      <c r="D597" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9816,7 +9885,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1166" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75E0FB4E-1BD3-4B0D-9C64-AC55FEF162A5}"/>
+  <xr:revisionPtr revIDLastSave="1167" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE2DBC69-7A9C-4BE7-BCC4-3539132476DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>configuración regional de EE.UU.</t>
-  </si>
-  <si>
-    <t>Monto Inversión (millones de lempiras) &gt;&gt; Datos históricos Futuros azúcar Nº11 EE.UU. &gt;&gt; Precio diario de Azúcar en la Bolsa de Nueva York &gt; FUENTE: Investing, https://es.investing.com/commodities/us-sugar-no11-historical-data &gt; FUENTE: Banco Central de Honduras, https://www.banguat.gob.gt/inc/main.asp?id=109291&amp;aud=1&amp;lang=1</t>
   </si>
 </sst>
 </file>
@@ -1635,8 +1632,8 @@
   <dimension ref="A1:R597"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
+      <pane ySplit="3" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B599" sqref="B599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9882,10 +9879,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10826,9 +10823,6 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="12"/>
-      <c r="E25" s="10" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="12"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1167" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE2DBC69-7A9C-4BE7-BCC4-3539132476DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="14904" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1633,7 +1633,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B599" sqref="B599"/>
+      <selection pane="bottomLeft" activeCell="E599" sqref="E599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9882,7 +9882,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1167" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE2DBC69-7A9C-4BE7-BCC4-3539132476DE}"/>
+  <xr:revisionPtr revIDLastSave="1172" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52F32E3F-6AEB-4AD3-90ED-0123C5807AF2}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="14904" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1297,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H597" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H597" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H604" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H604" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1629,11 +1629,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R597"/>
+  <dimension ref="A1:R604"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E599" sqref="E599"/>
+      <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A606" sqref="A606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9820,7 +9820,7 @@
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" s="8">
         <v>44055</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" s="8">
         <v>44056</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" s="8">
         <v>44057</v>
       </c>
@@ -9844,21 +9844,86 @@
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" s="8">
         <v>44058</v>
       </c>
       <c r="B596" s="25"/>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E596">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F596">
+        <v>2.37</v>
+      </c>
+      <c r="G596">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" s="8">
         <v>44059</v>
       </c>
       <c r="B597" s="25"/>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A598" s="8">
+        <v>44060</v>
+      </c>
+      <c r="B598" s="25"/>
+      <c r="C598" s="25"/>
+      <c r="D598" s="25"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A599" s="8">
+        <v>44061</v>
+      </c>
+      <c r="B599" s="25"/>
+      <c r="C599" s="25"/>
+      <c r="D599" s="25"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A600" s="8">
+        <v>44062</v>
+      </c>
+      <c r="B600" s="25"/>
+      <c r="C600" s="25"/>
+      <c r="D600" s="25"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A601" s="8">
+        <v>44063</v>
+      </c>
+      <c r="B601" s="25"/>
+      <c r="C601" s="25"/>
+      <c r="D601" s="25"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A602" s="8">
+        <v>44064</v>
+      </c>
+      <c r="B602" s="25"/>
+      <c r="C602" s="25"/>
+      <c r="D602" s="25"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A603" s="8">
+        <v>44065</v>
+      </c>
+      <c r="B603" s="25"/>
+      <c r="C603" s="25"/>
+      <c r="D603" s="25"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A604" s="8">
+        <v>44066</v>
+      </c>
+      <c r="B604" s="25"/>
+      <c r="C604" s="25"/>
+      <c r="D604" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9882,7 +9947,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1172" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52F32E3F-6AEB-4AD3-90ED-0123C5807AF2}"/>
+  <xr:revisionPtr revIDLastSave="1175" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FF0E637-7B0E-4D03-81D3-F58E5B1703C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11484" yWindow="0" windowWidth="11544" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1297,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H604" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H604" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H611" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H611" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1629,11 +1629,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R604"/>
+  <dimension ref="A1:R611"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A606" sqref="A606"/>
+      <pane ySplit="3" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9820,7 +9820,7 @@
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="8">
         <v>44055</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="8">
         <v>44056</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="8">
         <v>44057</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="8">
         <v>44058</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="8">
         <v>44059</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="8">
         <v>44060</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="8">
         <v>44061</v>
       </c>
@@ -9885,7 +9885,7 @@
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="8">
         <v>44062</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="8">
         <v>44063</v>
       </c>
@@ -9901,7 +9901,7 @@
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="8">
         <v>44064</v>
       </c>
@@ -9909,7 +9909,7 @@
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="8">
         <v>44065</v>
       </c>
@@ -9917,13 +9917,76 @@
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="8">
         <v>44066</v>
       </c>
       <c r="B604" s="25"/>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605" s="8">
+        <v>44067</v>
+      </c>
+      <c r="B605" s="25"/>
+      <c r="C605" s="25"/>
+      <c r="D605" s="25"/>
+      <c r="H605" s="21"/>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606" s="8">
+        <v>44068</v>
+      </c>
+      <c r="B606" s="25"/>
+      <c r="C606" s="25"/>
+      <c r="D606" s="25"/>
+      <c r="H606" s="21"/>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607" s="8">
+        <v>44069</v>
+      </c>
+      <c r="B607" s="25"/>
+      <c r="C607" s="25"/>
+      <c r="D607" s="25"/>
+      <c r="H607" s="21"/>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608" s="8">
+        <v>44070</v>
+      </c>
+      <c r="B608" s="25"/>
+      <c r="C608" s="25"/>
+      <c r="D608" s="25"/>
+      <c r="H608" s="21"/>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609" s="8">
+        <v>44071</v>
+      </c>
+      <c r="B609" s="25"/>
+      <c r="C609" s="25"/>
+      <c r="D609" s="25"/>
+      <c r="H609" s="21"/>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610" s="8">
+        <v>44072</v>
+      </c>
+      <c r="B610" s="25"/>
+      <c r="C610" s="25"/>
+      <c r="D610" s="25"/>
+      <c r="H610" s="21"/>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A611" s="8">
+        <v>44073</v>
+      </c>
+      <c r="B611" s="25"/>
+      <c r="C611" s="25"/>
+      <c r="D611" s="25"/>
+      <c r="H611" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -9944,10 +10007,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1175" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FF0E637-7B0E-4D03-81D3-F58E5B1703C5}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="0" windowWidth="11544" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R611"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
+      <pane ySplit="3" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A618" sqref="A618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10007,10 +10007,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1175" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FF0E637-7B0E-4D03-81D3-F58E5B1703C5}"/>
+  <xr:revisionPtr revIDLastSave="1180" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84ECCE2D-CE7E-4190-BB38-F8F49EF9A5DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -1314,8 +1314,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R47" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
-  <autoFilter ref="J3:R47" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R48" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
+  <autoFilter ref="J3:R48" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R611"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A618" sqref="A618"/>
+      <pane ySplit="3" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A619" sqref="A619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,7 +3256,9 @@
         <v>425.56</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="21"/>
+      <c r="R42" s="21">
+        <v>-56.3</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
@@ -3368,7 +3370,7 @@
         <v>523101.42599999998</v>
       </c>
       <c r="P45" s="2">
-        <v>376.09</v>
+        <v>367.61</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="21"/>
@@ -3398,7 +3400,9 @@
       <c r="M46" s="24"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="P46" s="2">
+        <v>367.61</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="21"/>
     </row>
@@ -3443,13 +3447,20 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="J48" s="9">
+        <v>2020</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="9" t="str">
+        <f t="shared" ref="L48" si="3">+K48&amp;", "&amp;J48</f>
+        <v>Septiembre, 2020</v>
+      </c>
       <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
@@ -10010,7 +10021,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1180" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84ECCE2D-CE7E-4190-BB38-F8F49EF9A5DB}"/>
+  <xr:revisionPtr revIDLastSave="1182" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FE479EE-9943-4D2A-B825-FB84725F8614}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1633,7 +1633,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A619" sqref="A619"/>
+      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10021,7 +10021,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R611"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
+      <pane ySplit="3" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1182" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FE479EE-9943-4D2A-B825-FB84725F8614}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:R611"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Panama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1182" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FE479EE-9943-4D2A-B825-FB84725F8614}"/>
+  <xr:revisionPtr revIDLastSave="1210" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CD9A215-3C47-4F24-A379-471F66863DF6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1297,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H611" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H611" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H632" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H632" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1629,35 +1629,35 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R611"/>
+  <dimension ref="A1:R632"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
+      <pane ySplit="3" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A635" sqref="A635"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1701,7 +1701,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43466</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43467</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43468</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>-89.4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43469</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43470</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43471</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>-95.7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43472</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43473</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43474</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>-97.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43475</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43476</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43477</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>-107.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43478</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43479</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43480</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43481</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43482</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43483</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>-65.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43484</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43485</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43486</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>-94.8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43487</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43488</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43489</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>-89.1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43490</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43491</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>43492</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>-87.4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43493</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>43494</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43495</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>43496</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43497</v>
       </c>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>43498</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43499</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>43500</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43501</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>-73.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>43502</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43503</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>43504</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>69413.402000000002</v>
       </c>
       <c r="O42" s="2">
-        <v>787744.87100000004</v>
+        <v>787744.87099999993</v>
       </c>
       <c r="P42" s="2">
         <v>425.56</v>
@@ -3260,7 +3260,7 @@
         <v>-56.3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43505</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>59005.919000000002</v>
       </c>
       <c r="O43" s="2">
-        <v>533206.50499999989</v>
+        <v>533206.50500000012</v>
       </c>
       <c r="P43" s="2">
         <v>403.34</v>
@@ -3303,7 +3303,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43506</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43507</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>43508</v>
       </c>
@@ -3398,15 +3398,19 @@
         <v>Julio, 2020</v>
       </c>
       <c r="M46" s="24"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="N46" s="2">
+        <v>52641.306000000011</v>
+      </c>
+      <c r="O46" s="2">
+        <v>556779.63899999997</v>
+      </c>
       <c r="P46" s="2">
         <v>367.61</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43509</v>
       </c>
@@ -3435,7 +3439,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>43510</v>
       </c>
@@ -3464,7 +3468,7 @@
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3475,7 +3479,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3503,7 +3507,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3514,7 +3518,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3536,7 +3540,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -3547,7 +3551,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -3558,7 +3562,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -3586,7 +3590,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -3597,7 +3601,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -3619,7 +3623,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -3645,7 +3649,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -3656,7 +3660,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>43527</v>
       </c>
@@ -3667,7 +3671,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>43528</v>
       </c>
@@ -3678,7 +3682,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>43529</v>
       </c>
@@ -3689,7 +3693,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>43530</v>
       </c>
@@ -3700,7 +3704,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>43531</v>
       </c>
@@ -3711,7 +3715,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>43532</v>
       </c>
@@ -3722,7 +3726,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>43533</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>43534</v>
       </c>
@@ -3750,7 +3754,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>43535</v>
       </c>
@@ -3761,7 +3765,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>43536</v>
       </c>
@@ -3772,7 +3776,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>43537</v>
       </c>
@@ -3783,7 +3787,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>43538</v>
       </c>
@@ -3794,7 +3798,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>43539</v>
       </c>
@@ -3805,7 +3809,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>43540</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>43541</v>
       </c>
@@ -3833,7 +3837,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>43542</v>
       </c>
@@ -3844,7 +3848,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>43543</v>
       </c>
@@ -3855,7 +3859,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>43544</v>
       </c>
@@ -3866,7 +3870,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>43545</v>
       </c>
@@ -3877,7 +3881,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>43546</v>
       </c>
@@ -3888,7 +3892,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>43547</v>
       </c>
@@ -3905,7 +3909,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>43548</v>
       </c>
@@ -3916,7 +3920,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>43549</v>
       </c>
@@ -3927,7 +3931,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>43550</v>
       </c>
@@ -3938,7 +3942,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>43551</v>
       </c>
@@ -3949,7 +3953,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>43552</v>
       </c>
@@ -3960,7 +3964,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>43553</v>
       </c>
@@ -3971,7 +3975,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>43554</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>43555</v>
       </c>
@@ -4003,7 +4007,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>43556</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>43557</v>
       </c>
@@ -4025,7 +4029,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>43558</v>
       </c>
@@ -4036,7 +4040,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>43559</v>
       </c>
@@ -4047,7 +4051,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>43560</v>
       </c>
@@ -4058,7 +4062,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>43561</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>43562</v>
       </c>
@@ -4086,7 +4090,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>43563</v>
       </c>
@@ -4097,7 +4101,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>43564</v>
       </c>
@@ -4108,7 +4112,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>43565</v>
       </c>
@@ -4119,7 +4123,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>43566</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>43567</v>
       </c>
@@ -4141,7 +4145,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>43568</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>43569</v>
       </c>
@@ -4169,7 +4173,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>43570</v>
       </c>
@@ -4180,7 +4184,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>43571</v>
       </c>
@@ -4191,7 +4195,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>43572</v>
       </c>
@@ -4202,7 +4206,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>43573</v>
       </c>
@@ -4213,7 +4217,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>43574</v>
       </c>
@@ -4224,7 +4228,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>43575</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>43576</v>
       </c>
@@ -4252,7 +4256,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>43577</v>
       </c>
@@ -4263,7 +4267,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>43578</v>
       </c>
@@ -4274,7 +4278,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>43579</v>
       </c>
@@ -4285,7 +4289,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>43580</v>
       </c>
@@ -4296,7 +4300,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>43581</v>
       </c>
@@ -4307,7 +4311,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>43582</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>43583</v>
       </c>
@@ -4335,7 +4339,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>43584</v>
       </c>
@@ -4346,7 +4350,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>43585</v>
       </c>
@@ -4361,7 +4365,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>43586</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>43587</v>
       </c>
@@ -4383,7 +4387,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>43588</v>
       </c>
@@ -4394,7 +4398,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>43589</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>43590</v>
       </c>
@@ -4422,7 +4426,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>43591</v>
       </c>
@@ -4433,7 +4437,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>43592</v>
       </c>
@@ -4444,7 +4448,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>43593</v>
       </c>
@@ -4455,7 +4459,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>43594</v>
       </c>
@@ -4466,7 +4470,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>43595</v>
       </c>
@@ -4477,7 +4481,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>43596</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>43597</v>
       </c>
@@ -4505,7 +4509,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>43598</v>
       </c>
@@ -4516,7 +4520,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>43599</v>
       </c>
@@ -4527,7 +4531,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>43600</v>
       </c>
@@ -4538,7 +4542,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>43601</v>
       </c>
@@ -4549,7 +4553,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>43602</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>43603</v>
       </c>
@@ -4577,7 +4581,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>43604</v>
       </c>
@@ -4588,7 +4592,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>43605</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>43606</v>
       </c>
@@ -4610,7 +4614,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>43607</v>
       </c>
@@ -4621,7 +4625,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>43608</v>
       </c>
@@ -4632,7 +4636,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>43609</v>
       </c>
@@ -4643,7 +4647,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>43610</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>43611</v>
       </c>
@@ -4671,7 +4675,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>43612</v>
       </c>
@@ -4682,7 +4686,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>43613</v>
       </c>
@@ -4693,7 +4697,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>43614</v>
       </c>
@@ -4704,7 +4708,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>43615</v>
       </c>
@@ -4715,7 +4719,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>43616</v>
       </c>
@@ -4730,7 +4734,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>43618</v>
       </c>
@@ -4758,7 +4762,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>43619</v>
       </c>
@@ -4769,7 +4773,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>43620</v>
       </c>
@@ -4780,7 +4784,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>43621</v>
       </c>
@@ -4791,7 +4795,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>43622</v>
       </c>
@@ -4802,7 +4806,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>43623</v>
       </c>
@@ -4813,7 +4817,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>43624</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>43625</v>
       </c>
@@ -4841,7 +4845,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>43626</v>
       </c>
@@ -4852,7 +4856,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>43627</v>
       </c>
@@ -4863,7 +4867,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>43628</v>
       </c>
@@ -4874,7 +4878,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>43629</v>
       </c>
@@ -4885,7 +4889,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>43630</v>
       </c>
@@ -4896,7 +4900,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>43631</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>43632</v>
       </c>
@@ -4924,7 +4928,7 @@
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>43633</v>
       </c>
@@ -4935,7 +4939,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>43634</v>
       </c>
@@ -4946,7 +4950,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>43635</v>
       </c>
@@ -4957,7 +4961,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>43636</v>
       </c>
@@ -4968,7 +4972,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>43637</v>
       </c>
@@ -4979,7 +4983,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>43638</v>
       </c>
@@ -4996,7 +5000,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>43639</v>
       </c>
@@ -5007,7 +5011,7 @@
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>43640</v>
       </c>
@@ -5018,7 +5022,7 @@
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>43641</v>
       </c>
@@ -5029,7 +5033,7 @@
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>43642</v>
       </c>
@@ -5040,7 +5044,7 @@
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>43643</v>
       </c>
@@ -5051,7 +5055,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>43644</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>43645</v>
       </c>
@@ -5079,7 +5083,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>43646</v>
       </c>
@@ -5094,7 +5098,7 @@
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>43647</v>
       </c>
@@ -5105,7 +5109,7 @@
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>43648</v>
       </c>
@@ -5116,7 +5120,7 @@
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>43649</v>
       </c>
@@ -5127,7 +5131,7 @@
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>43650</v>
       </c>
@@ -5138,7 +5142,7 @@
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>43651</v>
       </c>
@@ -5149,7 +5153,7 @@
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>43652</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>43653</v>
       </c>
@@ -5177,7 +5181,7 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>43654</v>
       </c>
@@ -5188,7 +5192,7 @@
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>43655</v>
       </c>
@@ -5199,7 +5203,7 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>43656</v>
       </c>
@@ -5210,7 +5214,7 @@
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>43657</v>
       </c>
@@ -5221,7 +5225,7 @@
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>43658</v>
       </c>
@@ -5232,7 +5236,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>43659</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>43660</v>
       </c>
@@ -5260,7 +5264,7 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>43661</v>
       </c>
@@ -5271,7 +5275,7 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>43662</v>
       </c>
@@ -5282,7 +5286,7 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>43663</v>
       </c>
@@ -5293,7 +5297,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -5304,7 +5308,7 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>43665</v>
       </c>
@@ -5315,7 +5319,7 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>43666</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>43667</v>
       </c>
@@ -5343,7 +5347,7 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>43668</v>
       </c>
@@ -5354,7 +5358,7 @@
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>43669</v>
       </c>
@@ -5365,7 +5369,7 @@
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>43670</v>
       </c>
@@ -5376,7 +5380,7 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>43671</v>
       </c>
@@ -5387,7 +5391,7 @@
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>43672</v>
       </c>
@@ -5398,7 +5402,7 @@
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>43673</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>43674</v>
       </c>
@@ -5426,7 +5430,7 @@
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>43675</v>
       </c>
@@ -5437,7 +5441,7 @@
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>43676</v>
       </c>
@@ -5448,7 +5452,7 @@
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>43677</v>
       </c>
@@ -5463,7 +5467,7 @@
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -5474,7 +5478,7 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>43679</v>
       </c>
@@ -5485,7 +5489,7 @@
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>43680</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>43681</v>
       </c>
@@ -5513,7 +5517,7 @@
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>43682</v>
       </c>
@@ -5524,7 +5528,7 @@
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>43683</v>
       </c>
@@ -5535,7 +5539,7 @@
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>43684</v>
       </c>
@@ -5546,7 +5550,7 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>43685</v>
       </c>
@@ -5557,7 +5561,7 @@
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>43686</v>
       </c>
@@ -5568,7 +5572,7 @@
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>43687</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>43688</v>
       </c>
@@ -5596,7 +5600,7 @@
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>43689</v>
       </c>
@@ -5607,7 +5611,7 @@
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>43690</v>
       </c>
@@ -5618,7 +5622,7 @@
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>43691</v>
       </c>
@@ -5629,7 +5633,7 @@
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>43692</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>43693</v>
       </c>
@@ -5651,7 +5655,7 @@
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>43694</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>43695</v>
       </c>
@@ -5679,7 +5683,7 @@
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>43696</v>
       </c>
@@ -5690,7 +5694,7 @@
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>43697</v>
       </c>
@@ -5701,7 +5705,7 @@
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>43698</v>
       </c>
@@ -5712,7 +5716,7 @@
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>43699</v>
       </c>
@@ -5723,7 +5727,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>43700</v>
       </c>
@@ -5734,7 +5738,7 @@
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>43701</v>
       </c>
@@ -5751,7 +5755,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>43702</v>
       </c>
@@ -5762,7 +5766,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>43703</v>
       </c>
@@ -5773,7 +5777,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>43704</v>
       </c>
@@ -5784,7 +5788,7 @@
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>43705</v>
       </c>
@@ -5795,7 +5799,7 @@
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>43706</v>
       </c>
@@ -5806,7 +5810,7 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>43707</v>
       </c>
@@ -5817,7 +5821,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>43708</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>43709</v>
       </c>
@@ -5849,7 +5853,7 @@
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>43710</v>
       </c>
@@ -5860,7 +5864,7 @@
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>43711</v>
       </c>
@@ -5871,7 +5875,7 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>43712</v>
       </c>
@@ -5882,7 +5886,7 @@
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>43713</v>
       </c>
@@ -5893,7 +5897,7 @@
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>43714</v>
       </c>
@@ -5904,7 +5908,7 @@
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>43715</v>
       </c>
@@ -5921,7 +5925,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>43716</v>
       </c>
@@ -5932,7 +5936,7 @@
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>43717</v>
       </c>
@@ -5943,7 +5947,7 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>43718</v>
       </c>
@@ -5954,7 +5958,7 @@
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>43719</v>
       </c>
@@ -5965,7 +5969,7 @@
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>43720</v>
       </c>
@@ -5976,7 +5980,7 @@
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>43721</v>
       </c>
@@ -5987,7 +5991,7 @@
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>43722</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>43723</v>
       </c>
@@ -6015,7 +6019,7 @@
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>43724</v>
       </c>
@@ -6026,7 +6030,7 @@
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>43725</v>
       </c>
@@ -6037,7 +6041,7 @@
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>43726</v>
       </c>
@@ -6048,7 +6052,7 @@
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>43727</v>
       </c>
@@ -6059,7 +6063,7 @@
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>43728</v>
       </c>
@@ -6070,7 +6074,7 @@
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>43729</v>
       </c>
@@ -6087,7 +6091,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>43730</v>
       </c>
@@ -6098,7 +6102,7 @@
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>43731</v>
       </c>
@@ -6109,7 +6113,7 @@
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>43732</v>
       </c>
@@ -6120,7 +6124,7 @@
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>43733</v>
       </c>
@@ -6131,7 +6135,7 @@
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>43734</v>
       </c>
@@ -6142,7 +6146,7 @@
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>43735</v>
       </c>
@@ -6153,7 +6157,7 @@
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>43736</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>43737</v>
       </c>
@@ -6181,7 +6185,7 @@
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>43738</v>
       </c>
@@ -6196,7 +6200,7 @@
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>43739</v>
       </c>
@@ -6207,7 +6211,7 @@
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>43740</v>
       </c>
@@ -6218,7 +6222,7 @@
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>43741</v>
       </c>
@@ -6229,7 +6233,7 @@
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>43742</v>
       </c>
@@ -6240,7 +6244,7 @@
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>43743</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>43744</v>
       </c>
@@ -6268,7 +6272,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>43745</v>
       </c>
@@ -6279,7 +6283,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>43746</v>
       </c>
@@ -6290,7 +6294,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>43747</v>
       </c>
@@ -6301,7 +6305,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>43748</v>
       </c>
@@ -6312,7 +6316,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>43749</v>
       </c>
@@ -6323,7 +6327,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>43750</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>43751</v>
       </c>
@@ -6351,7 +6355,7 @@
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>43752</v>
       </c>
@@ -6362,7 +6366,7 @@
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>43753</v>
       </c>
@@ -6373,7 +6377,7 @@
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>43754</v>
       </c>
@@ -6384,7 +6388,7 @@
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>43755</v>
       </c>
@@ -6395,7 +6399,7 @@
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>43756</v>
       </c>
@@ -6406,7 +6410,7 @@
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>43757</v>
       </c>
@@ -6423,7 +6427,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>43758</v>
       </c>
@@ -6434,7 +6438,7 @@
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>43759</v>
       </c>
@@ -6445,7 +6449,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>43760</v>
       </c>
@@ -6456,7 +6460,7 @@
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>43761</v>
       </c>
@@ -6467,7 +6471,7 @@
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>43762</v>
       </c>
@@ -6478,7 +6482,7 @@
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>43763</v>
       </c>
@@ -6489,7 +6493,7 @@
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>43764</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>43765</v>
       </c>
@@ -6517,7 +6521,7 @@
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>43766</v>
       </c>
@@ -6528,7 +6532,7 @@
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>43767</v>
       </c>
@@ -6539,7 +6543,7 @@
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>43768</v>
       </c>
@@ -6550,7 +6554,7 @@
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>43769</v>
       </c>
@@ -6565,7 +6569,7 @@
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>43770</v>
       </c>
@@ -6576,7 +6580,7 @@
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>43771</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>43772</v>
       </c>
@@ -6604,7 +6608,7 @@
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>43773</v>
       </c>
@@ -6615,7 +6619,7 @@
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>43774</v>
       </c>
@@ -6626,7 +6630,7 @@
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>43775</v>
       </c>
@@ -6637,7 +6641,7 @@
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>43776</v>
       </c>
@@ -6648,7 +6652,7 @@
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>43777</v>
       </c>
@@ -6659,7 +6663,7 @@
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>43778</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>43779</v>
       </c>
@@ -6687,7 +6691,7 @@
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>43780</v>
       </c>
@@ -6698,7 +6702,7 @@
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>43781</v>
       </c>
@@ -6709,7 +6713,7 @@
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>43782</v>
       </c>
@@ -6720,7 +6724,7 @@
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>43783</v>
       </c>
@@ -6731,7 +6735,7 @@
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>43784</v>
       </c>
@@ -6742,7 +6746,7 @@
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>43785</v>
       </c>
@@ -6759,7 +6763,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>43786</v>
       </c>
@@ -6770,7 +6774,7 @@
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>43787</v>
       </c>
@@ -6781,7 +6785,7 @@
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>43788</v>
       </c>
@@ -6792,7 +6796,7 @@
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>43789</v>
       </c>
@@ -6803,7 +6807,7 @@
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>43790</v>
       </c>
@@ -6814,7 +6818,7 @@
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>43791</v>
       </c>
@@ -6825,7 +6829,7 @@
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>43792</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>43793</v>
       </c>
@@ -6853,7 +6857,7 @@
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>43794</v>
       </c>
@@ -6864,7 +6868,7 @@
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>43795</v>
       </c>
@@ -6875,7 +6879,7 @@
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>43796</v>
       </c>
@@ -6886,7 +6890,7 @@
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>43797</v>
       </c>
@@ -6897,7 +6901,7 @@
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>43798</v>
       </c>
@@ -6908,7 +6912,7 @@
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>43799</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>43800</v>
       </c>
@@ -6940,7 +6944,7 @@
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>43801</v>
       </c>
@@ -6951,7 +6955,7 @@
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>43802</v>
       </c>
@@ -6962,7 +6966,7 @@
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>43803</v>
       </c>
@@ -6973,7 +6977,7 @@
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>43804</v>
       </c>
@@ -6984,7 +6988,7 @@
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>43805</v>
       </c>
@@ -6995,7 +6999,7 @@
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>43806</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>43807</v>
       </c>
@@ -7023,7 +7027,7 @@
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>43808</v>
       </c>
@@ -7034,7 +7038,7 @@
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>43809</v>
       </c>
@@ -7045,7 +7049,7 @@
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>43810</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>43811</v>
       </c>
@@ -7067,7 +7071,7 @@
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>43812</v>
       </c>
@@ -7078,7 +7082,7 @@
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>43813</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>43814</v>
       </c>
@@ -7106,7 +7110,7 @@
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>43815</v>
       </c>
@@ -7117,7 +7121,7 @@
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>43816</v>
       </c>
@@ -7128,7 +7132,7 @@
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>43817</v>
       </c>
@@ -7139,7 +7143,7 @@
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>43818</v>
       </c>
@@ -7150,7 +7154,7 @@
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>43819</v>
       </c>
@@ -7161,7 +7165,7 @@
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>43820</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>43821</v>
       </c>
@@ -7189,7 +7193,7 @@
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>43822</v>
       </c>
@@ -7200,7 +7204,7 @@
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>43823</v>
       </c>
@@ -7211,7 +7215,7 @@
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>43824</v>
       </c>
@@ -7222,7 +7226,7 @@
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>43825</v>
       </c>
@@ -7233,7 +7237,7 @@
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>43826</v>
       </c>
@@ -7244,7 +7248,7 @@
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>43827</v>
       </c>
@@ -7255,7 +7259,7 @@
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>43828</v>
       </c>
@@ -7266,7 +7270,7 @@
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>43829</v>
       </c>
@@ -7277,7 +7281,7 @@
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>43830</v>
       </c>
@@ -7292,7 +7296,7 @@
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>43831</v>
       </c>
@@ -7303,7 +7307,7 @@
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>43832</v>
       </c>
@@ -7314,7 +7318,7 @@
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>43833</v>
       </c>
@@ -7325,7 +7329,7 @@
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>43834</v>
       </c>
@@ -7336,7 +7340,7 @@
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>43835</v>
       </c>
@@ -7347,7 +7351,7 @@
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>43836</v>
       </c>
@@ -7358,7 +7362,7 @@
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>43837</v>
       </c>
@@ -7369,7 +7373,7 @@
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>43838</v>
       </c>
@@ -7380,7 +7384,7 @@
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>43839</v>
       </c>
@@ -7391,7 +7395,7 @@
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>43840</v>
       </c>
@@ -7402,7 +7406,7 @@
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>43841</v>
       </c>
@@ -7419,7 +7423,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>43842</v>
       </c>
@@ -7430,7 +7434,7 @@
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>43843</v>
       </c>
@@ -7441,7 +7445,7 @@
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>43844</v>
       </c>
@@ -7452,7 +7456,7 @@
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>43845</v>
       </c>
@@ -7463,7 +7467,7 @@
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>43846</v>
       </c>
@@ -7474,7 +7478,7 @@
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>43847</v>
       </c>
@@ -7485,7 +7489,7 @@
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>43848</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>43849</v>
       </c>
@@ -7513,7 +7517,7 @@
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>43850</v>
       </c>
@@ -7524,7 +7528,7 @@
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>43851</v>
       </c>
@@ -7535,7 +7539,7 @@
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>43852</v>
       </c>
@@ -7546,7 +7550,7 @@
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>43853</v>
       </c>
@@ -7557,7 +7561,7 @@
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>43854</v>
       </c>
@@ -7568,7 +7572,7 @@
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>43855</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>43856</v>
       </c>
@@ -7596,7 +7600,7 @@
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>43857</v>
       </c>
@@ -7607,7 +7611,7 @@
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>43858</v>
       </c>
@@ -7618,7 +7622,7 @@
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>43859</v>
       </c>
@@ -7629,7 +7633,7 @@
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>43860</v>
       </c>
@@ -7640,7 +7644,7 @@
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>43861</v>
       </c>
@@ -7655,7 +7659,7 @@
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>43862</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>43863</v>
       </c>
@@ -7683,7 +7687,7 @@
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>43864</v>
       </c>
@@ -7694,7 +7698,7 @@
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>43865</v>
       </c>
@@ -7705,7 +7709,7 @@
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>43866</v>
       </c>
@@ -7716,7 +7720,7 @@
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>43867</v>
       </c>
@@ -7727,7 +7731,7 @@
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>43868</v>
       </c>
@@ -7738,7 +7742,7 @@
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>43869</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>43870</v>
       </c>
@@ -7766,7 +7770,7 @@
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>43871</v>
       </c>
@@ -7777,7 +7781,7 @@
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>43872</v>
       </c>
@@ -7788,7 +7792,7 @@
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>43873</v>
       </c>
@@ -7799,7 +7803,7 @@
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>43874</v>
       </c>
@@ -7810,7 +7814,7 @@
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>43875</v>
       </c>
@@ -7821,7 +7825,7 @@
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>43876</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>43877</v>
       </c>
@@ -7849,7 +7853,7 @@
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>43878</v>
       </c>
@@ -7860,7 +7864,7 @@
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>43879</v>
       </c>
@@ -7871,7 +7875,7 @@
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>43880</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>43881</v>
       </c>
@@ -7893,7 +7897,7 @@
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>43882</v>
       </c>
@@ -7904,7 +7908,7 @@
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>43883</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>43884</v>
       </c>
@@ -7932,7 +7936,7 @@
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>43885</v>
       </c>
@@ -7943,7 +7947,7 @@
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>43886</v>
       </c>
@@ -7954,7 +7958,7 @@
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>43887</v>
       </c>
@@ -7965,7 +7969,7 @@
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>43888</v>
       </c>
@@ -7976,7 +7980,7 @@
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>43889</v>
       </c>
@@ -7991,7 +7995,7 @@
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>43890</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>43891</v>
       </c>
@@ -8019,7 +8023,7 @@
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>43892</v>
       </c>
@@ -8030,7 +8034,7 @@
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>43893</v>
       </c>
@@ -8041,7 +8045,7 @@
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>43894</v>
       </c>
@@ -8052,7 +8056,7 @@
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>43895</v>
       </c>
@@ -8063,7 +8067,7 @@
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>43896</v>
       </c>
@@ -8074,7 +8078,7 @@
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>43897</v>
       </c>
@@ -8091,7 +8095,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>43898</v>
       </c>
@@ -8102,7 +8106,7 @@
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>43899</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>43900</v>
       </c>
@@ -8124,7 +8128,7 @@
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>43901</v>
       </c>
@@ -8135,7 +8139,7 @@
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>43902</v>
       </c>
@@ -8146,7 +8150,7 @@
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>43903</v>
       </c>
@@ -8157,7 +8161,7 @@
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>43904</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>43905</v>
       </c>
@@ -8185,7 +8189,7 @@
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>43906</v>
       </c>
@@ -8196,7 +8200,7 @@
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>43907</v>
       </c>
@@ -8207,7 +8211,7 @@
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>43908</v>
       </c>
@@ -8218,7 +8222,7 @@
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>43909</v>
       </c>
@@ -8229,7 +8233,7 @@
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>43910</v>
       </c>
@@ -8240,7 +8244,7 @@
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>43911</v>
       </c>
@@ -8257,7 +8261,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>43912</v>
       </c>
@@ -8268,7 +8272,7 @@
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>43913</v>
       </c>
@@ -8279,7 +8283,7 @@
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>43914</v>
       </c>
@@ -8290,7 +8294,7 @@
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>43915</v>
       </c>
@@ -8301,7 +8305,7 @@
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>43916</v>
       </c>
@@ -8312,7 +8316,7 @@
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>43917</v>
       </c>
@@ -8323,7 +8327,7 @@
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>43918</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>43919</v>
       </c>
@@ -8351,7 +8355,7 @@
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>43920</v>
       </c>
@@ -8362,7 +8366,7 @@
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>43921</v>
       </c>
@@ -8377,7 +8381,7 @@
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>43922</v>
       </c>
@@ -8388,7 +8392,7 @@
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>43923</v>
       </c>
@@ -8399,7 +8403,7 @@
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>43924</v>
       </c>
@@ -8410,7 +8414,7 @@
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>43925</v>
       </c>
@@ -8427,7 +8431,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>43926</v>
       </c>
@@ -8438,7 +8442,7 @@
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>43927</v>
       </c>
@@ -8449,7 +8453,7 @@
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>43928</v>
       </c>
@@ -8460,7 +8464,7 @@
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>43929</v>
       </c>
@@ -8471,7 +8475,7 @@
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>43930</v>
       </c>
@@ -8482,7 +8486,7 @@
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>43931</v>
       </c>
@@ -8493,7 +8497,7 @@
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>43932</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>43933</v>
       </c>
@@ -8521,7 +8525,7 @@
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>43934</v>
       </c>
@@ -8532,7 +8536,7 @@
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>43935</v>
       </c>
@@ -8543,7 +8547,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>43936</v>
       </c>
@@ -8554,7 +8558,7 @@
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>43937</v>
       </c>
@@ -8565,7 +8569,7 @@
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>43938</v>
       </c>
@@ -8576,7 +8580,7 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>43939</v>
       </c>
@@ -8593,7 +8597,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>43940</v>
       </c>
@@ -8604,7 +8608,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>43941</v>
       </c>
@@ -8615,7 +8619,7 @@
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>43942</v>
       </c>
@@ -8626,7 +8630,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>43943</v>
       </c>
@@ -8637,7 +8641,7 @@
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>43944</v>
       </c>
@@ -8648,7 +8652,7 @@
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>43945</v>
       </c>
@@ -8659,7 +8663,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>43946</v>
       </c>
@@ -8670,7 +8674,7 @@
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>43947</v>
       </c>
@@ -8681,7 +8685,7 @@
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>43948</v>
       </c>
@@ -8692,7 +8696,7 @@
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>43949</v>
       </c>
@@ -8703,7 +8707,7 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>43950</v>
       </c>
@@ -8714,7 +8718,7 @@
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>43951</v>
       </c>
@@ -8729,7 +8733,7 @@
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>43952</v>
       </c>
@@ -8740,7 +8744,7 @@
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>43953</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>43954</v>
       </c>
@@ -8768,7 +8772,7 @@
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>43955</v>
       </c>
@@ -8779,7 +8783,7 @@
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>43956</v>
       </c>
@@ -8790,7 +8794,7 @@
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>43957</v>
       </c>
@@ -8801,7 +8805,7 @@
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>43958</v>
       </c>
@@ -8812,7 +8816,7 @@
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>43959</v>
       </c>
@@ -8824,7 +8828,7 @@
       <c r="G497" s="21"/>
       <c r="H497" s="21"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>43960</v>
       </c>
@@ -8842,7 +8846,7 @@
       </c>
       <c r="H498" s="21"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>43961</v>
       </c>
@@ -8854,7 +8858,7 @@
       <c r="G499" s="21"/>
       <c r="H499" s="21"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>43962</v>
       </c>
@@ -8866,7 +8870,7 @@
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>43963</v>
       </c>
@@ -8878,7 +8882,7 @@
       <c r="G501" s="21"/>
       <c r="H501" s="21"/>
     </row>
-    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>43964</v>
       </c>
@@ -8890,7 +8894,7 @@
       <c r="G502" s="21"/>
       <c r="H502" s="21"/>
     </row>
-    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>43965</v>
       </c>
@@ -8902,7 +8906,7 @@
       <c r="G503" s="21"/>
       <c r="H503" s="21"/>
     </row>
-    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8">
         <v>43966</v>
       </c>
@@ -8914,7 +8918,7 @@
       <c r="G504" s="21"/>
       <c r="H504" s="21"/>
     </row>
-    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8">
         <v>43967</v>
       </c>
@@ -8932,7 +8936,7 @@
       </c>
       <c r="H505" s="21"/>
     </row>
-    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8">
         <v>43968</v>
       </c>
@@ -8944,7 +8948,7 @@
       <c r="G506" s="21"/>
       <c r="H506" s="21"/>
     </row>
-    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8">
         <v>43969</v>
       </c>
@@ -8956,7 +8960,7 @@
       <c r="G507" s="21"/>
       <c r="H507" s="21"/>
     </row>
-    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8">
         <v>43970</v>
       </c>
@@ -8968,7 +8972,7 @@
       <c r="G508" s="21"/>
       <c r="H508" s="21"/>
     </row>
-    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8">
         <v>43971</v>
       </c>
@@ -8980,7 +8984,7 @@
       <c r="G509" s="21"/>
       <c r="H509" s="21"/>
     </row>
-    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8">
         <v>43972</v>
       </c>
@@ -8992,7 +8996,7 @@
       <c r="G510" s="21"/>
       <c r="H510" s="21"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="8">
         <v>43973</v>
       </c>
@@ -9004,7 +9008,7 @@
       <c r="G511" s="21"/>
       <c r="H511" s="21"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="8">
         <v>43974</v>
       </c>
@@ -9022,7 +9026,7 @@
       </c>
       <c r="H512" s="21"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="8">
         <v>43975</v>
       </c>
@@ -9034,7 +9038,7 @@
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="8">
         <v>43976</v>
       </c>
@@ -9046,7 +9050,7 @@
       <c r="G514" s="21"/>
       <c r="H514" s="21"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="8">
         <v>43977</v>
       </c>
@@ -9058,7 +9062,7 @@
       <c r="G515" s="21"/>
       <c r="H515" s="21"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="8">
         <v>43978</v>
       </c>
@@ -9070,7 +9074,7 @@
       <c r="G516" s="21"/>
       <c r="H516" s="21"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="8">
         <v>43979</v>
       </c>
@@ -9082,7 +9086,7 @@
       <c r="G517" s="21"/>
       <c r="H517" s="21"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="8">
         <v>43980</v>
       </c>
@@ -9094,7 +9098,7 @@
       <c r="G518" s="21"/>
       <c r="H518" s="21"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="8">
         <v>43981</v>
       </c>
@@ -9112,7 +9116,7 @@
       </c>
       <c r="H519" s="21"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="8">
         <v>43982</v>
       </c>
@@ -9128,7 +9132,7 @@
       <c r="G520" s="21"/>
       <c r="H520" s="21"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="8">
         <v>43983</v>
       </c>
@@ -9140,7 +9144,7 @@
       <c r="G521" s="21"/>
       <c r="H521" s="21"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="8">
         <v>43984</v>
       </c>
@@ -9152,7 +9156,7 @@
       <c r="G522" s="21"/>
       <c r="H522" s="21"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="8">
         <v>43985</v>
       </c>
@@ -9164,7 +9168,7 @@
       <c r="G523" s="21"/>
       <c r="H523" s="21"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="8">
         <v>43986</v>
       </c>
@@ -9176,7 +9180,7 @@
       <c r="G524" s="21"/>
       <c r="H524" s="21"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="8">
         <v>43987</v>
       </c>
@@ -9188,7 +9192,7 @@
       <c r="G525" s="21"/>
       <c r="H525" s="21"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="8">
         <v>43988</v>
       </c>
@@ -9206,7 +9210,7 @@
       </c>
       <c r="H526" s="21"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="8">
         <v>43989</v>
       </c>
@@ -9218,7 +9222,7 @@
       <c r="G527" s="21"/>
       <c r="H527" s="21"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="8">
         <v>43990</v>
       </c>
@@ -9226,7 +9230,7 @@
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="8">
         <v>43991</v>
       </c>
@@ -9237,7 +9241,7 @@
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="8">
         <v>43992</v>
       </c>
@@ -9245,7 +9249,7 @@
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="8">
         <v>43993</v>
       </c>
@@ -9253,7 +9257,7 @@
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="8">
         <v>43994</v>
       </c>
@@ -9261,7 +9265,7 @@
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="8">
         <v>43995</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="8">
         <v>43996</v>
       </c>
@@ -9286,7 +9290,7 @@
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="8">
         <v>43997</v>
       </c>
@@ -9294,7 +9298,7 @@
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="8">
         <v>43998</v>
       </c>
@@ -9302,7 +9306,7 @@
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="8">
         <v>43999</v>
       </c>
@@ -9311,7 +9315,7 @@
       <c r="D537" s="25"/>
       <c r="H537" s="21"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="8">
         <v>44000</v>
       </c>
@@ -9319,7 +9323,7 @@
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="8">
         <v>44001</v>
       </c>
@@ -9327,7 +9331,7 @@
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="8">
         <v>44002</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="8">
         <v>44003</v>
       </c>
@@ -9352,7 +9356,7 @@
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="8">
         <v>44004</v>
       </c>
@@ -9360,7 +9364,7 @@
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="8">
         <v>44005</v>
       </c>
@@ -9368,7 +9372,7 @@
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="8">
         <v>44006</v>
       </c>
@@ -9376,7 +9380,7 @@
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="8">
         <v>44007</v>
       </c>
@@ -9384,7 +9388,7 @@
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="8">
         <v>44008</v>
       </c>
@@ -9392,7 +9396,7 @@
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="8">
         <v>44009</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="8">
         <v>44010</v>
       </c>
@@ -9417,7 +9421,7 @@
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="8">
         <v>44011</v>
       </c>
@@ -9425,7 +9429,7 @@
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="8">
         <v>44012</v>
       </c>
@@ -9437,7 +9441,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="8">
         <v>44013</v>
       </c>
@@ -9445,7 +9449,7 @@
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="8">
         <v>44014</v>
       </c>
@@ -9453,7 +9457,7 @@
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="8">
         <v>44015</v>
       </c>
@@ -9461,7 +9465,7 @@
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="8">
         <v>44016</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="8">
         <v>44017</v>
       </c>
@@ -9486,7 +9490,7 @@
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="8">
         <v>44018</v>
       </c>
@@ -9494,7 +9498,7 @@
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="8">
         <v>44019</v>
       </c>
@@ -9502,7 +9506,7 @@
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="8">
         <v>44020</v>
       </c>
@@ -9510,7 +9514,7 @@
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="8">
         <v>44021</v>
       </c>
@@ -9518,7 +9522,7 @@
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="8">
         <v>44022</v>
       </c>
@@ -9526,7 +9530,7 @@
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="8">
         <v>44023</v>
       </c>
@@ -9543,7 +9547,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="8">
         <v>44024</v>
       </c>
@@ -9551,7 +9555,7 @@
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="8">
         <v>44025</v>
       </c>
@@ -9559,7 +9563,7 @@
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="8">
         <v>44026</v>
       </c>
@@ -9567,7 +9571,7 @@
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="8">
         <v>44027</v>
       </c>
@@ -9575,7 +9579,7 @@
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="8">
         <v>44028</v>
       </c>
@@ -9583,7 +9587,7 @@
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="8">
         <v>44029</v>
       </c>
@@ -9591,7 +9595,7 @@
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="8">
         <v>44030</v>
       </c>
@@ -9608,7 +9612,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="8">
         <v>44031</v>
       </c>
@@ -9616,7 +9620,7 @@
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="8">
         <v>44032</v>
       </c>
@@ -9624,7 +9628,7 @@
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="8">
         <v>44033</v>
       </c>
@@ -9632,7 +9636,7 @@
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="8">
         <v>44034</v>
       </c>
@@ -9640,7 +9644,7 @@
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="8">
         <v>44035</v>
       </c>
@@ -9648,7 +9652,7 @@
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="8">
         <v>44036</v>
       </c>
@@ -9656,7 +9660,7 @@
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="8">
         <v>44037</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="8">
         <v>44038</v>
       </c>
@@ -9681,7 +9685,7 @@
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="8">
         <v>44039</v>
       </c>
@@ -9689,7 +9693,7 @@
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="8">
         <v>44040</v>
       </c>
@@ -9697,7 +9701,7 @@
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="8">
         <v>44041</v>
       </c>
@@ -9705,7 +9709,7 @@
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="8">
         <v>44042</v>
       </c>
@@ -9713,7 +9717,7 @@
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="8">
         <v>44043</v>
       </c>
@@ -9725,7 +9729,7 @@
         <v>1486.92</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="8">
         <v>44044</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="8">
         <v>44045</v>
       </c>
@@ -9750,7 +9754,7 @@
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="8">
         <v>44046</v>
       </c>
@@ -9758,7 +9762,7 @@
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="8">
         <v>44047</v>
       </c>
@@ -9766,7 +9770,7 @@
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="8">
         <v>44048</v>
       </c>
@@ -9774,7 +9778,7 @@
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="8">
         <v>44049</v>
       </c>
@@ -9782,7 +9786,7 @@
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="8">
         <v>44050</v>
       </c>
@@ -9790,7 +9794,7 @@
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="8">
         <v>44051</v>
       </c>
@@ -9807,7 +9811,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="8">
         <v>44052</v>
       </c>
@@ -9815,7 +9819,7 @@
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="8">
         <v>44053</v>
       </c>
@@ -9823,7 +9827,7 @@
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="8">
         <v>44054</v>
       </c>
@@ -9831,7 +9835,7 @@
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="8">
         <v>44055</v>
       </c>
@@ -9839,7 +9843,7 @@
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="8">
         <v>44056</v>
       </c>
@@ -9847,7 +9851,7 @@
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="8">
         <v>44057</v>
       </c>
@@ -9855,7 +9859,7 @@
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="8">
         <v>44058</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="8">
         <v>44059</v>
       </c>
@@ -9880,7 +9884,7 @@
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="8">
         <v>44060</v>
       </c>
@@ -9888,7 +9892,7 @@
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="8">
         <v>44061</v>
       </c>
@@ -9896,7 +9900,7 @@
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="8">
         <v>44062</v>
       </c>
@@ -9904,7 +9908,7 @@
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="8">
         <v>44063</v>
       </c>
@@ -9912,7 +9916,7 @@
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="8">
         <v>44064</v>
       </c>
@@ -9920,15 +9924,24 @@
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="8">
         <v>44065</v>
       </c>
       <c r="B603" s="25"/>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E603">
+        <v>2.38</v>
+      </c>
+      <c r="F603">
+        <v>2.34</v>
+      </c>
+      <c r="G603">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="8">
         <v>44066</v>
       </c>
@@ -9936,7 +9949,7 @@
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="8">
         <v>44067</v>
       </c>
@@ -9945,7 +9958,7 @@
       <c r="D605" s="25"/>
       <c r="H605" s="21"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="8">
         <v>44068</v>
       </c>
@@ -9954,7 +9967,7 @@
       <c r="D606" s="25"/>
       <c r="H606" s="21"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="8">
         <v>44069</v>
       </c>
@@ -9963,7 +9976,7 @@
       <c r="D607" s="25"/>
       <c r="H607" s="21"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="8">
         <v>44070</v>
       </c>
@@ -9972,7 +9985,7 @@
       <c r="D608" s="25"/>
       <c r="H608" s="21"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="8">
         <v>44071</v>
       </c>
@@ -9981,16 +9994,25 @@
       <c r="D609" s="25"/>
       <c r="H609" s="21"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="8">
         <v>44072</v>
       </c>
       <c r="B610" s="25"/>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
+      <c r="E610">
+        <v>2.38</v>
+      </c>
+      <c r="F610">
+        <v>2.34</v>
+      </c>
+      <c r="G610">
+        <v>2.04</v>
+      </c>
       <c r="H610" s="21"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="8">
         <v>44073</v>
       </c>
@@ -9998,6 +10020,206 @@
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
       <c r="H611" s="21"/>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" s="8">
+        <v>44074</v>
+      </c>
+      <c r="B612" s="25"/>
+      <c r="C612" s="25"/>
+      <c r="D612" s="25"/>
+      <c r="H612" s="21"/>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" s="8">
+        <v>44075</v>
+      </c>
+      <c r="B613" s="25"/>
+      <c r="C613" s="25"/>
+      <c r="D613" s="25"/>
+      <c r="H613" s="21"/>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" s="8">
+        <v>44076</v>
+      </c>
+      <c r="B614" s="25"/>
+      <c r="C614" s="25"/>
+      <c r="D614" s="25"/>
+      <c r="H614" s="21"/>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B615" s="25"/>
+      <c r="C615" s="25"/>
+      <c r="D615" s="25"/>
+      <c r="H615" s="21"/>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" s="8">
+        <v>44078</v>
+      </c>
+      <c r="B616" s="25"/>
+      <c r="C616" s="25"/>
+      <c r="D616" s="25"/>
+      <c r="H616" s="21"/>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="8">
+        <v>44079</v>
+      </c>
+      <c r="B617" s="25"/>
+      <c r="C617" s="25"/>
+      <c r="D617" s="25"/>
+      <c r="E617">
+        <v>2.48</v>
+      </c>
+      <c r="F617">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G617">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H617" s="21"/>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" s="8">
+        <v>44080</v>
+      </c>
+      <c r="B618" s="25"/>
+      <c r="C618" s="25"/>
+      <c r="D618" s="25"/>
+      <c r="H618" s="21"/>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" s="8">
+        <v>44081</v>
+      </c>
+      <c r="B619" s="25"/>
+      <c r="C619" s="25"/>
+      <c r="D619" s="25"/>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" s="8">
+        <v>44082</v>
+      </c>
+      <c r="B620" s="25"/>
+      <c r="C620" s="25"/>
+      <c r="D620" s="25"/>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" s="8">
+        <v>44083</v>
+      </c>
+      <c r="B621" s="25"/>
+      <c r="C621" s="25"/>
+      <c r="D621" s="25"/>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" s="8">
+        <v>44084</v>
+      </c>
+      <c r="B622" s="25"/>
+      <c r="C622" s="25"/>
+      <c r="D622" s="25"/>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" s="8">
+        <v>44085</v>
+      </c>
+      <c r="B623" s="25"/>
+      <c r="C623" s="25"/>
+      <c r="D623" s="25"/>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" s="8">
+        <v>44086</v>
+      </c>
+      <c r="B624" s="25"/>
+      <c r="C624" s="25"/>
+      <c r="D624" s="25"/>
+      <c r="E624">
+        <v>2.48</v>
+      </c>
+      <c r="F624">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G624">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" s="8">
+        <v>44087</v>
+      </c>
+      <c r="B625" s="25"/>
+      <c r="C625" s="25"/>
+      <c r="D625" s="25"/>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" s="8">
+        <v>44088</v>
+      </c>
+      <c r="B626" s="25"/>
+      <c r="C626" s="25"/>
+      <c r="D626" s="25"/>
+      <c r="H626" s="21"/>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" s="8">
+        <v>44089</v>
+      </c>
+      <c r="B627" s="25"/>
+      <c r="C627" s="25"/>
+      <c r="D627" s="25"/>
+      <c r="H627" s="21"/>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" s="8">
+        <v>44090</v>
+      </c>
+      <c r="B628" s="25"/>
+      <c r="C628" s="25"/>
+      <c r="D628" s="25"/>
+      <c r="H628" s="21"/>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" s="8">
+        <v>44091</v>
+      </c>
+      <c r="B629" s="25"/>
+      <c r="C629" s="25"/>
+      <c r="D629" s="25"/>
+      <c r="H629" s="21"/>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B630" s="25"/>
+      <c r="C630" s="25"/>
+      <c r="D630" s="25"/>
+      <c r="H630" s="21"/>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" s="8">
+        <v>44093</v>
+      </c>
+      <c r="B631" s="25"/>
+      <c r="C631" s="25"/>
+      <c r="D631" s="25"/>
+      <c r="H631" s="21"/>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" s="8">
+        <v>44094</v>
+      </c>
+      <c r="B632" s="25"/>
+      <c r="C632" s="25"/>
+      <c r="D632" s="25"/>
+      <c r="H632" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -10021,34 +10243,34 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" style="10" customWidth="1"/>
-    <col min="8" max="9" width="17.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="27.44140625" style="10" customWidth="1"/>
-    <col min="16" max="22" width="11.109375" style="10" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="10" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="10" customWidth="1"/>
-    <col min="25" max="25" width="27.44140625" style="10" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" style="10" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" style="10" customWidth="1"/>
+    <col min="16" max="22" width="11.140625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="10" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="10" customWidth="1"/>
     <col min="27" max="16384" width="14" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -10116,7 +10338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>18</v>
       </c>
@@ -10173,7 +10395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>18</v>
       </c>
@@ -10230,7 +10452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>19</v>
       </c>
@@ -10287,7 +10509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>19</v>
       </c>
@@ -10344,7 +10566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>19</v>
       </c>
@@ -10401,7 +10623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>19</v>
       </c>
@@ -10456,7 +10678,7 @@
       </c>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>19</v>
       </c>
@@ -10511,7 +10733,7 @@
       </c>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>19</v>
       </c>
@@ -10566,7 +10788,7 @@
       </c>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>19</v>
       </c>
@@ -10621,7 +10843,7 @@
       </c>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>19</v>
       </c>
@@ -10680,7 +10902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>15</v>
       </c>
@@ -10737,7 +10959,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -10757,7 +10979,7 @@
       <c r="Q13" s="14"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -10777,7 +10999,7 @@
       <c r="Q14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -10797,7 +11019,7 @@
       <c r="Q15" s="14"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -10817,7 +11039,7 @@
       <c r="Q16" s="14"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -10837,7 +11059,7 @@
       <c r="Q17" s="14"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -10857,7 +11079,7 @@
       <c r="Q18" s="14"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -10877,7 +11099,7 @@
       <c r="Q19" s="14"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -10897,7 +11119,7 @@
       <c r="Q20" s="14"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10917,7 +11139,7 @@
       <c r="Q21" s="14"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10937,7 +11159,7 @@
       <c r="Q22" s="14"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10957,1002 +11179,1002 @@
       <c r="Q23" s="14"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{5BF57AB9-6786-45D4-9B41-00A80ED5A879}"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R632"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A635" sqref="A635"/>
+      <pane ySplit="3" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A634" sqref="A634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10243,7 +10243,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1210" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CD9A215-3C47-4F24-A379-471F66863DF6}"/>
+  <xr:revisionPtr revIDLastSave="1217" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3C2CAAC-FF8D-4A8D-8BE2-8DEE7706844D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H632" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H632" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H639" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H639" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1629,11 +1629,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R632"/>
+  <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A634" sqref="A634"/>
+      <pane ySplit="3" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A646" sqref="A646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10210,6 +10210,15 @@
       <c r="B631" s="25"/>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
+      <c r="E631">
+        <v>2.48</v>
+      </c>
+      <c r="F631">
+        <v>2.41</v>
+      </c>
+      <c r="G631">
+        <v>1.99</v>
+      </c>
       <c r="H631" s="21"/>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
@@ -10220,6 +10229,62 @@
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
       <c r="H632" s="21"/>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" s="8">
+        <v>44095</v>
+      </c>
+      <c r="B633" s="25"/>
+      <c r="C633" s="25"/>
+      <c r="D633" s="25"/>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="8">
+        <v>44096</v>
+      </c>
+      <c r="B634" s="25"/>
+      <c r="C634" s="25"/>
+      <c r="D634" s="25"/>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" s="8">
+        <v>44097</v>
+      </c>
+      <c r="B635" s="25"/>
+      <c r="C635" s="25"/>
+      <c r="D635" s="25"/>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" s="8">
+        <v>44098</v>
+      </c>
+      <c r="B636" s="25"/>
+      <c r="C636" s="25"/>
+      <c r="D636" s="25"/>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" s="8">
+        <v>44099</v>
+      </c>
+      <c r="B637" s="25"/>
+      <c r="C637" s="25"/>
+      <c r="D637" s="25"/>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" s="8">
+        <v>44100</v>
+      </c>
+      <c r="B638" s="25"/>
+      <c r="C638" s="25"/>
+      <c r="D638" s="25"/>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" s="8">
+        <v>44101</v>
+      </c>
+      <c r="B639" s="25"/>
+      <c r="C639" s="25"/>
+      <c r="D639" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1217" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3C2CAAC-FF8D-4A8D-8BE2-8DEE7706844D}"/>
+  <xr:revisionPtr revIDLastSave="1219" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11B8B756-3FC1-4FFC-A332-833C8A6E9252}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A646" sqref="A646"/>
+      <pane ySplit="3" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B641" sqref="B641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1219" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11B8B756-3FC1-4FFC-A332-833C8A6E9252}"/>
+  <xr:revisionPtr revIDLastSave="1221" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FF551ED-A17E-4E65-854A-1BC346941723}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B641" sqref="B641"/>
+      <pane ySplit="3" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A645" sqref="A645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10026,8 +10026,12 @@
         <v>44074</v>
       </c>
       <c r="B612" s="25"/>
-      <c r="C612" s="25"/>
-      <c r="D612" s="25"/>
+      <c r="C612" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="D612" s="23">
+        <v>1479.92</v>
+      </c>
       <c r="H612" s="21"/>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1221" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FF551ED-A17E-4E65-854A-1BC346941723}"/>
+  <xr:revisionPtr revIDLastSave="1225" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EFF54CE-C568-488C-87E4-6ED193B5B111}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H639" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H639" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H646" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H646" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1629,11 +1629,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R639"/>
+  <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A645" sqref="A645"/>
+      <pane ySplit="3" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A650" sqref="A650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,8 +3434,12 @@
       </c>
       <c r="M47" s="24"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="O47" s="2">
+        <v>584213.68099999998</v>
+      </c>
+      <c r="P47" s="2">
+        <v>368.93</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="21"/>
     </row>
@@ -10289,6 +10293,62 @@
       <c r="B639" s="25"/>
       <c r="C639" s="25"/>
       <c r="D639" s="25"/>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" s="8">
+        <v>44102</v>
+      </c>
+      <c r="B640" s="25"/>
+      <c r="C640" s="25"/>
+      <c r="D640" s="25"/>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="8">
+        <v>44103</v>
+      </c>
+      <c r="B641" s="25"/>
+      <c r="C641" s="25"/>
+      <c r="D641" s="25"/>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="8">
+        <v>44104</v>
+      </c>
+      <c r="B642" s="25"/>
+      <c r="C642" s="25"/>
+      <c r="D642" s="25"/>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="8">
+        <v>44105</v>
+      </c>
+      <c r="B643" s="25"/>
+      <c r="C643" s="25"/>
+      <c r="D643" s="25"/>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="8">
+        <v>44106</v>
+      </c>
+      <c r="B644" s="25"/>
+      <c r="C644" s="25"/>
+      <c r="D644" s="25"/>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="8">
+        <v>44107</v>
+      </c>
+      <c r="B645" s="25"/>
+      <c r="C645" s="25"/>
+      <c r="D645" s="25"/>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="8">
+        <v>44108</v>
+      </c>
+      <c r="B646" s="25"/>
+      <c r="C646" s="25"/>
+      <c r="D646" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -10312,7 +10372,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A650" sqref="A650"/>
+      <pane ySplit="3" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A652" sqref="A652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10372,7 +10372,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1225" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EFF54CE-C568-488C-87E4-6ED193B5B111}"/>
+  <xr:revisionPtr revIDLastSave="1227" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{081292B3-B85A-4AE1-8142-69A0920BB157}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A652" sqref="A652"/>
+      <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A651" sqref="A651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10372,7 +10372,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1227" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{081292B3-B85A-4AE1-8142-69A0920BB157}"/>
+  <xr:revisionPtr revIDLastSave="1229" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFF08B96-EBCC-40F9-9F41-21F0A6898C10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1633,7 +1633,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A651" sqref="A651"/>
+      <selection pane="bottomLeft" activeCell="A652" sqref="A652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10372,7 +10372,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1229" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFF08B96-EBCC-40F9-9F41-21F0A6898C10}"/>
+  <xr:revisionPtr revIDLastSave="1232" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84A208AE-9049-463B-A1A2-0370A4BBBF3A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A652" sqref="A652"/>
+      <pane ySplit="3" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A647" sqref="A647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3433,9 @@
         <v>Agosto, 2020</v>
       </c>
       <c r="M47" s="24"/>
-      <c r="N47" s="2"/>
+      <c r="N47" s="2">
+        <v>50175.788</v>
+      </c>
       <c r="O47" s="2">
         <v>584213.68099999998</v>
       </c>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1232" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84A208AE-9049-463B-A1A2-0370A4BBBF3A}"/>
+  <xr:revisionPtr revIDLastSave="1234" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5DEC077-4BD9-4801-8323-47DFEAA96334}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A647" sqref="A647"/>
+      <pane ySplit="3" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A649" sqref="A649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1234" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5DEC077-4BD9-4801-8323-47DFEAA96334}"/>
+  <xr:revisionPtr revIDLastSave="1241" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD706504-121F-4092-9509-1C4BC16EDFF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -361,6 +361,18 @@
   <si>
     <t>configuración regional de EE.UU.</t>
   </si>
+  <si>
+    <t>Combustible Gasolina Superior (USD/Galón)</t>
+  </si>
+  <si>
+    <t>Combustible Regular (USD/Galón)</t>
+  </si>
+  <si>
+    <t>Combustible Diesel (USD/Galón)</t>
+  </si>
+  <si>
+    <t>https://sen.hn/informe-estadistico-semanal-de-cchac/</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +385,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +602,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -916,7 +936,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -963,8 +983,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1009,8 +1030,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="47">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -1042,6 +1064,7 @@
     <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="46" builtinId="8"/>
     <cellStyle name="Hipervínculo 2" xfId="44" xr:uid="{D1D5AC69-E029-407D-8457-44EF34D97FF6}"/>
     <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1632,8 +1655,8 @@
   <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A649" sqref="A649"/>
+      <pane ySplit="3" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,6 +10310,15 @@
       <c r="B638" s="25"/>
       <c r="C638" s="25"/>
       <c r="D638" s="25"/>
+      <c r="E638">
+        <v>2.48</v>
+      </c>
+      <c r="F638" s="21">
+        <v>2.41</v>
+      </c>
+      <c r="G638" s="21">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="8">
@@ -10371,10 +10403,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10597,7 +10629,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>67</v>
@@ -10654,7 +10686,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>67</v>
@@ -10711,7 +10743,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>67</v>
@@ -11113,10 +11145,18 @@
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="12">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
@@ -12332,12 +12372,13 @@
     <hyperlink ref="H10" r:id="rId22" display="cie_inec@contraloria.gob.pa" xr:uid="{89F510B2-5C68-4D03-A1F1-EFFB3447A280}"/>
     <hyperlink ref="F6" r:id="rId23" xr:uid="{A63B55D0-3F47-4A34-8619-62920F88C6BD}"/>
     <hyperlink ref="F4:F5" r:id="rId24" display="http://www.energia.gob.pa/precios/?tag=255" xr:uid="{CC5C4EC3-A3ED-46B0-9857-4D54C9FB54E0}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{3987BD5B-4929-4737-915E-69B483BD1681}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1241" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD706504-121F-4092-9509-1C4BC16EDFF2}"/>
+  <xr:revisionPtr revIDLastSave="1243" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0CCFF9A-361A-4295-826F-BE83E689C715}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,9 +1654,9 @@
   </sheetPr>
   <dimension ref="A1:R646"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A648" sqref="A648"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10349,8 +10349,12 @@
         <v>44104</v>
       </c>
       <c r="B642" s="25"/>
-      <c r="C642" s="25"/>
-      <c r="D642" s="25"/>
+      <c r="C642" s="25">
+        <v>1.24</v>
+      </c>
+      <c r="D642" s="23">
+        <v>1477.77</v>
+      </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="8">
@@ -10403,10 +10407,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1654,9 +1654,9 @@
   </sheetPr>
   <dimension ref="A1:R646"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A653" sqref="A653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10410,7 +10410,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1243" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0CCFF9A-361A-4295-826F-BE83E689C715}"/>
+  <xr:revisionPtr revIDLastSave="1245" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9C0D8ED-0392-426A-A9AA-5C9A6111CF84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,8 +1320,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H646" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H646" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H653" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H653" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1652,11 +1652,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R646"/>
+  <dimension ref="A1:R653"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A653" sqref="A653"/>
+      <pane ySplit="3" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A659" sqref="A659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10388,6 +10388,62 @@
       <c r="C646" s="25"/>
       <c r="D646" s="25"/>
     </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="8">
+        <v>44109</v>
+      </c>
+      <c r="B647" s="25"/>
+      <c r="C647" s="25"/>
+      <c r="D647" s="25"/>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="8">
+        <v>44110</v>
+      </c>
+      <c r="B648" s="25"/>
+      <c r="C648" s="25"/>
+      <c r="D648" s="25"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="8">
+        <v>44111</v>
+      </c>
+      <c r="B649" s="25"/>
+      <c r="C649" s="25"/>
+      <c r="D649" s="25"/>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="8">
+        <v>44112</v>
+      </c>
+      <c r="B650" s="25"/>
+      <c r="C650" s="25"/>
+      <c r="D650" s="25"/>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="8">
+        <v>44113</v>
+      </c>
+      <c r="B651" s="25"/>
+      <c r="C651" s="25"/>
+      <c r="D651" s="25"/>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="8">
+        <v>44114</v>
+      </c>
+      <c r="B652" s="25"/>
+      <c r="C652" s="25"/>
+      <c r="D652" s="25"/>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="8">
+        <v>44115</v>
+      </c>
+      <c r="B653" s="25"/>
+      <c r="C653" s="25"/>
+      <c r="D653" s="25"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
     <sortCondition ref="S16:S27"/>
@@ -10410,7 +10466,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1245" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9C0D8ED-0392-426A-A9AA-5C9A6111CF84}"/>
+  <xr:revisionPtr revIDLastSave="1258" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE584541-2E57-41F7-8D5F-EF0D0A951267}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,8 +1320,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H653" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H653" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H674" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H674" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1652,11 +1652,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R653"/>
+  <dimension ref="A1:R674"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A659" sqref="A659"/>
+      <pane ySplit="3" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A677" sqref="A677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10444,6 +10444,201 @@
       <c r="C653" s="25"/>
       <c r="D653" s="25"/>
     </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="8">
+        <v>44116</v>
+      </c>
+      <c r="B654" s="25"/>
+      <c r="C654" s="25"/>
+      <c r="D654" s="25"/>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="8">
+        <v>44117</v>
+      </c>
+      <c r="B655" s="25"/>
+      <c r="C655" s="25"/>
+      <c r="D655" s="25"/>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="8">
+        <v>44118</v>
+      </c>
+      <c r="B656" s="25"/>
+      <c r="C656" s="25"/>
+      <c r="D656" s="25"/>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="8">
+        <v>44119</v>
+      </c>
+      <c r="B657" s="25"/>
+      <c r="C657" s="25"/>
+      <c r="D657" s="25"/>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" s="8">
+        <v>44120</v>
+      </c>
+      <c r="B658" s="25"/>
+      <c r="C658" s="25"/>
+      <c r="D658" s="25"/>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" s="8">
+        <v>44121</v>
+      </c>
+      <c r="B659" s="25"/>
+      <c r="C659" s="25"/>
+      <c r="D659" s="25"/>
+      <c r="E659" s="21">
+        <v>2.46</v>
+      </c>
+      <c r="F659" s="21">
+        <v>2.38</v>
+      </c>
+      <c r="G659" s="21">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" s="8">
+        <v>44122</v>
+      </c>
+      <c r="B660" s="25"/>
+      <c r="C660" s="25"/>
+      <c r="D660" s="25"/>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" s="8">
+        <v>44123</v>
+      </c>
+      <c r="B661" s="25"/>
+      <c r="C661" s="25"/>
+      <c r="D661" s="25"/>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" s="8">
+        <v>44124</v>
+      </c>
+      <c r="B662" s="25"/>
+      <c r="C662" s="25"/>
+      <c r="D662" s="25"/>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" s="8">
+        <v>44125</v>
+      </c>
+      <c r="B663" s="25"/>
+      <c r="C663" s="25"/>
+      <c r="D663" s="25"/>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" s="8">
+        <v>44126</v>
+      </c>
+      <c r="B664" s="25"/>
+      <c r="C664" s="25"/>
+      <c r="D664" s="25"/>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" s="8">
+        <v>44127</v>
+      </c>
+      <c r="B665" s="25"/>
+      <c r="C665" s="25"/>
+      <c r="D665" s="25"/>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" s="8">
+        <v>44128</v>
+      </c>
+      <c r="B666" s="25"/>
+      <c r="C666" s="25"/>
+      <c r="D666" s="25"/>
+      <c r="E666" s="21">
+        <v>2.46</v>
+      </c>
+      <c r="F666" s="21">
+        <v>2.38</v>
+      </c>
+      <c r="G666" s="21">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" s="8">
+        <v>44129</v>
+      </c>
+      <c r="B667" s="25"/>
+      <c r="C667" s="25"/>
+      <c r="D667" s="25"/>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" s="8">
+        <v>44130</v>
+      </c>
+      <c r="B668" s="25"/>
+      <c r="C668" s="25"/>
+      <c r="D668" s="25"/>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" s="8">
+        <v>44131</v>
+      </c>
+      <c r="B669" s="25"/>
+      <c r="C669" s="25"/>
+      <c r="D669" s="25"/>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" s="8">
+        <v>44132</v>
+      </c>
+      <c r="B670" s="25"/>
+      <c r="C670" s="25"/>
+      <c r="D670" s="25"/>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" s="8">
+        <v>44133</v>
+      </c>
+      <c r="B671" s="25"/>
+      <c r="C671" s="25"/>
+      <c r="D671" s="25"/>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="8">
+        <v>44134</v>
+      </c>
+      <c r="B672" s="25"/>
+      <c r="C672" s="25"/>
+      <c r="D672" s="25"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="8">
+        <v>44135</v>
+      </c>
+      <c r="B673" s="25"/>
+      <c r="C673" s="25"/>
+      <c r="D673" s="25"/>
+      <c r="E673">
+        <v>2.42</v>
+      </c>
+      <c r="F673">
+        <v>2.37</v>
+      </c>
+      <c r="G673">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="8">
+        <v>44136</v>
+      </c>
+      <c r="B674" s="25"/>
+      <c r="C674" s="25"/>
+      <c r="D674" s="25"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
     <sortCondition ref="S16:S27"/>
@@ -10466,7 +10661,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1258" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE584541-2E57-41F7-8D5F-EF0D0A951267}"/>
+  <xr:revisionPtr revIDLastSave="1266" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BA6CCCF-6C43-44F0-B9DF-826863657E24}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -1320,8 +1320,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H674" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H674" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H681" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H681" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1337,8 +1337,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R48" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
-  <autoFilter ref="J3:R48" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R49" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
+  <autoFilter ref="J3:R49" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
@@ -1652,11 +1652,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R674"/>
+  <dimension ref="A1:R681"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A677" sqref="A677"/>
+      <pane ySplit="3" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A688" sqref="A688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3393,7 @@
         <v>523101.42599999998</v>
       </c>
       <c r="P45" s="2">
-        <v>367.61</v>
+        <v>376.09</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="21"/>
@@ -3487,17 +3487,21 @@
         <v>26</v>
       </c>
       <c r="L48" s="9" t="str">
-        <f t="shared" ref="L48" si="3">+K48&amp;", "&amp;J48</f>
+        <f t="shared" ref="L48:L49" si="3">+K48&amp;", "&amp;J48</f>
         <v>Septiembre, 2020</v>
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="O48" s="2">
+        <v>652482.00699999998</v>
+      </c>
+      <c r="P48" s="2">
+        <v>367.09</v>
+      </c>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3507,8 +3511,21 @@
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49" s="9">
+        <v>2020</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Octubre, 2020</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3525,7 +3542,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3536,7 +3553,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3547,7 +3564,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3558,7 +3575,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3569,7 +3586,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -3580,7 +3597,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -3591,7 +3608,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -3608,7 +3625,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -3619,7 +3636,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -3630,7 +3647,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -3641,7 +3658,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -3652,7 +3669,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -3667,7 +3684,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -3678,7 +3695,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -10638,6 +10655,62 @@
       <c r="B674" s="25"/>
       <c r="C674" s="25"/>
       <c r="D674" s="25"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="8">
+        <v>44137</v>
+      </c>
+      <c r="B675" s="25"/>
+      <c r="C675" s="25"/>
+      <c r="D675" s="25"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="8">
+        <v>44138</v>
+      </c>
+      <c r="B676" s="25"/>
+      <c r="C676" s="25"/>
+      <c r="D676" s="25"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="8">
+        <v>44139</v>
+      </c>
+      <c r="B677" s="25"/>
+      <c r="C677" s="25"/>
+      <c r="D677" s="25"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="8">
+        <v>44140</v>
+      </c>
+      <c r="B678" s="25"/>
+      <c r="C678" s="25"/>
+      <c r="D678" s="25"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="8">
+        <v>44141</v>
+      </c>
+      <c r="B679" s="25"/>
+      <c r="C679" s="25"/>
+      <c r="D679" s="25"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="8">
+        <v>44142</v>
+      </c>
+      <c r="B680" s="25"/>
+      <c r="C680" s="25"/>
+      <c r="D680" s="25"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="8">
+        <v>44143</v>
+      </c>
+      <c r="B681" s="25"/>
+      <c r="C681" s="25"/>
+      <c r="D681" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -10661,7 +10734,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1266" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BA6CCCF-6C43-44F0-B9DF-826863657E24}"/>
+  <xr:revisionPtr revIDLastSave="1271" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B51F616F-2682-4445-8198-376A47BAD7BC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1656,7 +1656,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A688" sqref="A688"/>
+      <selection pane="bottomLeft" activeCell="A684" sqref="A684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10703,6 +10703,15 @@
       <c r="B680" s="25"/>
       <c r="C680" s="25"/>
       <c r="D680" s="25"/>
+      <c r="E680" s="21">
+        <v>2.42</v>
+      </c>
+      <c r="F680" s="21">
+        <v>2.37</v>
+      </c>
+      <c r="G680" s="21">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="8">
@@ -10734,7 +10743,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1271" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B51F616F-2682-4445-8198-376A47BAD7BC}"/>
+  <xr:revisionPtr revIDLastSave="1274" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AE17112-F7FF-42A4-8358-15C1580612C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="135" windowWidth="17220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,14 +602,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +928,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -983,9 +975,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1030,9 +1021,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -1064,7 +1054,6 @@
     <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="46" builtinId="8"/>
     <cellStyle name="Hipervínculo 2" xfId="44" xr:uid="{D1D5AC69-E029-407D-8457-44EF34D97FF6}"/>
     <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1320,8 +1309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H681" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H681" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H688" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H688" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1652,11 +1641,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R681"/>
+  <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A684" sqref="A684"/>
+      <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E681" sqref="E681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10721,6 +10710,62 @@
       <c r="C681" s="25"/>
       <c r="D681" s="25"/>
     </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="8">
+        <v>44144</v>
+      </c>
+      <c r="B682" s="25"/>
+      <c r="C682" s="25"/>
+      <c r="D682" s="25"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683" s="8">
+        <v>44145</v>
+      </c>
+      <c r="B683" s="25"/>
+      <c r="C683" s="25"/>
+      <c r="D683" s="25"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684" s="8">
+        <v>44146</v>
+      </c>
+      <c r="B684" s="25"/>
+      <c r="C684" s="25"/>
+      <c r="D684" s="25"/>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685" s="8">
+        <v>44147</v>
+      </c>
+      <c r="B685" s="25"/>
+      <c r="C685" s="25"/>
+      <c r="D685" s="25"/>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686" s="8">
+        <v>44148</v>
+      </c>
+      <c r="B686" s="25"/>
+      <c r="C686" s="25"/>
+      <c r="D686" s="25"/>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A687" s="8">
+        <v>44149</v>
+      </c>
+      <c r="B687" s="25"/>
+      <c r="C687" s="25"/>
+      <c r="D687" s="25"/>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A688" s="8">
+        <v>44150</v>
+      </c>
+      <c r="B688" s="25"/>
+      <c r="C688" s="25"/>
+      <c r="D688" s="25"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
     <sortCondition ref="S16:S27"/>
@@ -10740,10 +10785,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11491,7 +11536,7 @@
       <c r="E14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="16" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="12"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E681" sqref="E681"/>
+      <pane ySplit="3" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A695" sqref="A695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10788,7 +10788,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1274" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AE17112-F7FF-42A4-8358-15C1580612C8}"/>
+  <xr:revisionPtr revIDLastSave="1275" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45A34D75-11CD-4B8D-97DB-543D75B3F6F3}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="135" windowWidth="17220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A695" sqref="A695"/>
+      <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A692" sqref="A692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,7 +3480,9 @@
         <v>Septiembre, 2020</v>
       </c>
       <c r="M48" s="21"/>
-      <c r="N48" s="2"/>
+      <c r="N48" s="2">
+        <v>51815.226999999999</v>
+      </c>
       <c r="O48" s="2">
         <v>652482.00699999998</v>
       </c>
@@ -10788,7 +10790,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A692" sqref="A692"/>
+      <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A691" sqref="A691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10787,10 +10787,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1275" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45A34D75-11CD-4B8D-97DB-543D75B3F6F3}"/>
+  <xr:revisionPtr revIDLastSave="1286" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A72986E-4E1E-42AD-B2CF-D5D3E331C32B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H688" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H688" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H702" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H702" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1641,11 +1641,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R688"/>
+  <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A691" sqref="A691"/>
+      <pane ySplit="3" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10627,8 +10627,12 @@
         <v>44135</v>
       </c>
       <c r="B673" s="25"/>
-      <c r="C673" s="25"/>
-      <c r="D673" s="25"/>
+      <c r="C673" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D673" s="23">
+        <v>1438.22</v>
+      </c>
       <c r="E673">
         <v>2.42</v>
       </c>
@@ -10759,6 +10763,15 @@
       <c r="B687" s="25"/>
       <c r="C687" s="25"/>
       <c r="D687" s="25"/>
+      <c r="E687">
+        <v>2.31</v>
+      </c>
+      <c r="F687">
+        <v>2.25</v>
+      </c>
+      <c r="G687">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="8">
@@ -10767,6 +10780,127 @@
       <c r="B688" s="25"/>
       <c r="C688" s="25"/>
       <c r="D688" s="25"/>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A689" s="8">
+        <v>44151</v>
+      </c>
+      <c r="B689" s="25"/>
+      <c r="C689" s="25"/>
+      <c r="D689" s="25"/>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690" s="8">
+        <v>44152</v>
+      </c>
+      <c r="B690" s="25"/>
+      <c r="C690" s="25"/>
+      <c r="D690" s="25"/>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A691" s="8">
+        <v>44153</v>
+      </c>
+      <c r="B691" s="25"/>
+      <c r="C691" s="25"/>
+      <c r="D691" s="25"/>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692" s="8">
+        <v>44154</v>
+      </c>
+      <c r="B692" s="25"/>
+      <c r="C692" s="25"/>
+      <c r="D692" s="25"/>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693" s="8">
+        <v>44155</v>
+      </c>
+      <c r="B693" s="25"/>
+      <c r="C693" s="25"/>
+      <c r="D693" s="25"/>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694" s="8">
+        <v>44156</v>
+      </c>
+      <c r="B694" s="25"/>
+      <c r="C694" s="25"/>
+      <c r="D694" s="25"/>
+      <c r="E694" s="21">
+        <v>2.31</v>
+      </c>
+      <c r="F694" s="21">
+        <v>2.25</v>
+      </c>
+      <c r="G694" s="21">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A695" s="8">
+        <v>44157</v>
+      </c>
+      <c r="B695" s="25"/>
+      <c r="C695" s="25"/>
+      <c r="D695" s="25"/>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A696" s="8">
+        <v>44158</v>
+      </c>
+      <c r="B696" s="25"/>
+      <c r="C696" s="25"/>
+      <c r="D696" s="25"/>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A697" s="8">
+        <v>44159</v>
+      </c>
+      <c r="B697" s="25"/>
+      <c r="C697" s="25"/>
+      <c r="D697" s="25"/>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698" s="8">
+        <v>44160</v>
+      </c>
+      <c r="B698" s="25"/>
+      <c r="C698" s="25"/>
+      <c r="D698" s="25"/>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699" s="8">
+        <v>44161</v>
+      </c>
+      <c r="B699" s="25"/>
+      <c r="C699" s="25"/>
+      <c r="D699" s="25"/>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700" s="8">
+        <v>44162</v>
+      </c>
+      <c r="B700" s="25"/>
+      <c r="C700" s="25"/>
+      <c r="D700" s="25"/>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701" s="8">
+        <v>44163</v>
+      </c>
+      <c r="B701" s="25"/>
+      <c r="C701" s="25"/>
+      <c r="D701" s="25"/>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702" s="8">
+        <v>44164</v>
+      </c>
+      <c r="B702" s="25"/>
+      <c r="C702" s="25"/>
+      <c r="D702" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -10790,7 +10924,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1286" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A72986E-4E1E-42AD-B2CF-D5D3E331C32B}"/>
+  <xr:revisionPtr revIDLastSave="1287" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFACA9D6-CAFF-4D67-AF8F-57143861C00D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
+      <pane ySplit="3" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G702" sqref="G702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,7 +3182,7 @@
         <v>Enero, 2020</v>
       </c>
       <c r="M40" s="24">
-        <v>339.56602505061431</v>
+        <v>339.61158109834963</v>
       </c>
       <c r="N40" s="2">
         <v>51503.478000000003</v>
@@ -3219,7 +3219,7 @@
         <v>Febrero, 2020</v>
       </c>
       <c r="M41" s="24">
-        <v>333.99133203105765</v>
+        <v>334.01742836097281</v>
       </c>
       <c r="N41" s="2">
         <v>54227.436999999991</v>
@@ -3256,7 +3256,7 @@
         <v>Marzo, 2020</v>
       </c>
       <c r="M42" s="24">
-        <v>366.43683999641081</v>
+        <v>366.38633514958934</v>
       </c>
       <c r="N42" s="2">
         <v>69413.402000000002</v>
@@ -3301,7 +3301,7 @@
         <v>Abril, 2020</v>
       </c>
       <c r="M43" s="24">
-        <v>217.92340191398858</v>
+        <v>245.00732997578669</v>
       </c>
       <c r="N43" s="2">
         <v>59005.919000000002</v>
@@ -3338,7 +3338,7 @@
         <v>Mayo, 2020</v>
       </c>
       <c r="M44" s="24">
-        <v>193.83678840082644</v>
+        <v>225.38759592718446</v>
       </c>
       <c r="N44" s="2">
         <v>44765.543999999994</v>
@@ -3374,7 +3374,9 @@
         <f t="shared" ref="L45" si="1">+K45&amp;", "&amp;J45</f>
         <v>Junio, 2020</v>
       </c>
-      <c r="M45" s="24"/>
+      <c r="M45" s="24">
+        <v>238.98816111041066</v>
+      </c>
       <c r="N45" s="2">
         <v>56461.284</v>
       </c>
@@ -3409,7 +3411,9 @@
         <f t="shared" ref="L46:L47" si="2">+K46&amp;", "&amp;J46</f>
         <v>Julio, 2020</v>
       </c>
-      <c r="M46" s="24"/>
+      <c r="M46" s="24">
+        <v>222.70585963798015</v>
+      </c>
       <c r="N46" s="2">
         <v>52641.306000000011</v>
       </c>
@@ -3444,7 +3448,9 @@
         <f t="shared" si="2"/>
         <v>Agosto, 2020</v>
       </c>
-      <c r="M47" s="24"/>
+      <c r="M47" s="24">
+        <v>240.42959604465955</v>
+      </c>
       <c r="N47" s="2">
         <v>50175.788</v>
       </c>
@@ -10924,7 +10930,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1287" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFACA9D6-CAFF-4D67-AF8F-57143861C00D}"/>
+  <xr:revisionPtr revIDLastSave="1290" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90B3B6B8-5F27-4BAF-8EC0-1F18D75DE23A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G702" sqref="G702"/>
+      <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A705" sqref="A705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,7 +3387,9 @@
         <v>376.09</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="21"/>
+      <c r="R45" s="21">
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -10930,7 +10932,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1290" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90B3B6B8-5F27-4BAF-8EC0-1F18D75DE23A}"/>
+  <xr:revisionPtr revIDLastSave="1292" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B516BC8-3D1F-2544-8D0B-D6E4F57DABD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
     <sheet name="Fuentes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -379,8 +379,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -930,7 +930,7 @@
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -974,7 +974,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1644,32 +1644,32 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A705" sqref="A705"/>
+      <pane ySplit="3" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F702" sqref="F702"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.14453125" customWidth="1"/>
+    <col min="2" max="2" width="17.75390625" customWidth="1"/>
+    <col min="3" max="3" width="12.23828125" customWidth="1"/>
+    <col min="4" max="4" width="14.390625" customWidth="1"/>
+    <col min="5" max="5" width="12.5078125" customWidth="1"/>
+    <col min="6" max="6" width="15.87109375" customWidth="1"/>
+    <col min="7" max="7" width="11.703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5859375" customWidth="1"/>
+    <col min="10" max="10" width="9.55078125" customWidth="1"/>
+    <col min="11" max="11" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.2578125" customWidth="1"/>
+    <col min="14" max="14" width="20.17578125" customWidth="1"/>
+    <col min="15" max="15" width="14.9296875" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" customWidth="1"/>
+    <col min="18" max="18" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1713,7 +1713,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>43466</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>43467</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>43468</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>-89.4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>43469</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>43470</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>43471</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>-95.7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>43472</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>43473</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>43474</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>-97.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>43475</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>43476</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>43477</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>-107.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>43478</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>43479</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>43480</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>43481</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>43482</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>43483</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>-65.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>43484</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>43485</v>
       </c>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>43486</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>-94.8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>43487</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>43488</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>43489</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>-89.1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>43490</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>43491</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>43492</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>-87.4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>43493</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>43494</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>43495</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>43496</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>43497</v>
       </c>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>43498</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>43499</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>43500</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>43501</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>-73.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>43502</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>43503</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>43504</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>-56.3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>43505</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>43506</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43507</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>43508</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>43509</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>43510</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>43527</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>43528</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>43529</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>43530</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>43531</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>43532</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>43533</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>43534</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>43535</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>43536</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>43537</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>43538</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>43539</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>43540</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>43541</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>43542</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>43543</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>43544</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>43545</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>43546</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>43547</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>43548</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>43549</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>43550</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>43551</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>43552</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>43553</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>43554</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>43555</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>43556</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>43557</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>43558</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>43559</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>43560</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>43561</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>43562</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>43563</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>43564</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>43565</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>43566</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>43567</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>43568</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>43569</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>43570</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>43571</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>43572</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>43573</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>43574</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>43575</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>43576</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>43577</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>43578</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>43579</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>43580</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>43581</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>43582</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>43583</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>43584</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>43585</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>43586</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>43587</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>43588</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>43589</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>43590</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>43591</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>43592</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>43593</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>43594</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>43595</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>43596</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>43597</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>43598</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>43599</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>43600</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>43601</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>43602</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>43603</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>43604</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>43605</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>43606</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>43607</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>43608</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>43609</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>43610</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>43611</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>43612</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>43613</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>43614</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>43615</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>43616</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>43618</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>43619</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>43620</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>43621</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>43622</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>43623</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>43624</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>43625</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>43626</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>43627</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>43628</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>43629</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>43630</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>43631</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>43632</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>43633</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>43634</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>43635</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>43636</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>43637</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>43638</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>43639</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>43640</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>43641</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>43642</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>43643</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>43644</v>
       </c>
@@ -5111,7 +5111,7 @@
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>43645</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>43646</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>43647</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>43648</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>43649</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>43650</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>43651</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>43652</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>43653</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>43654</v>
       </c>
@@ -5237,7 +5237,7 @@
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>43655</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>43656</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>43657</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>43658</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>43659</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>43660</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>43661</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>43662</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>43663</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>43665</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>43666</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>43667</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>43668</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>43669</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>43670</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>43671</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>43672</v>
       </c>
@@ -5447,7 +5447,7 @@
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>43673</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>43674</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>43675</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>43676</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>43677</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>43679</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>43680</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>43681</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>43682</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>43683</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>43684</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>43685</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>43686</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>43687</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>43688</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>43689</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>43690</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>43691</v>
       </c>
@@ -5678,7 +5678,7 @@
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>43692</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>43693</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>43694</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>43695</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>43696</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>43697</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>43698</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>43699</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>43700</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>43701</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>43702</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>43703</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>43704</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>43705</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>43706</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>43707</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>43708</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>43709</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>43710</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>43711</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>43712</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>43713</v>
       </c>
@@ -5942,7 +5942,7 @@
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>43714</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>43715</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>43716</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>43717</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>43718</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>43719</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>43720</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>43721</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>43722</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>43723</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>43724</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>43725</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>43726</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>43727</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>43728</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>43729</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>43730</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>43731</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>43732</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>43733</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>43734</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>43735</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>43736</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>43737</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>43738</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>43739</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>43740</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>43741</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>43742</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>43743</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>43744</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>43745</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>43746</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>43747</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>43748</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>43749</v>
       </c>
@@ -6372,7 +6372,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="8">
         <v>43750</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>43751</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>43752</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="8">
         <v>43753</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>43754</v>
       </c>
@@ -6433,7 +6433,7 @@
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>43755</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="8">
         <v>43756</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>43757</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>43758</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>43759</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>43760</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
         <v>43761</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>43762</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>43763</v>
       </c>
@@ -6538,7 +6538,7 @@
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>43764</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>43765</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>43766</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>43767</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>43768</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>43769</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>43770</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>43771</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>43772</v>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>43773</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>43774</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>43775</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>43776</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>43777</v>
       </c>
@@ -6708,7 +6708,7 @@
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>43778</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>43779</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>43780</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>43781</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>43782</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>43783</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>43784</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>43785</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>43786</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>43787</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>43788</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>43789</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>43790</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>43791</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>43792</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>43793</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>43794</v>
       </c>
@@ -6913,7 +6913,7 @@
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>43795</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>43796</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>43797</v>
       </c>
@@ -6946,7 +6946,7 @@
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>43798</v>
       </c>
@@ -6957,7 +6957,7 @@
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>43799</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>43800</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>43801</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
         <v>43802</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
         <v>43803</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
         <v>43804</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
         <v>43805</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
         <v>43806</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>43807</v>
       </c>
@@ -7072,7 +7072,7 @@
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
         <v>43808</v>
       </c>
@@ -7083,7 +7083,7 @@
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
         <v>43809</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
         <v>43810</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
         <v>43811</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
         <v>43812</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
         <v>43813</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
         <v>43814</v>
       </c>
@@ -7155,7 +7155,7 @@
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
         <v>43815</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="8">
         <v>43816</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
         <v>43817</v>
       </c>
@@ -7188,7 +7188,7 @@
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="8">
         <v>43818</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="8">
         <v>43819</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="8">
         <v>43820</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="8">
         <v>43821</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="8">
         <v>43822</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="8">
         <v>43823</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="8">
         <v>43824</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="8">
         <v>43825</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="8">
         <v>43826</v>
       </c>
@@ -7293,7 +7293,7 @@
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="8">
         <v>43827</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="8">
         <v>43828</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="8">
         <v>43829</v>
       </c>
@@ -7326,7 +7326,7 @@
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="8">
         <v>43830</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="8">
         <v>43831</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="8">
         <v>43832</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="8">
         <v>43833</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="8">
         <v>43834</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="8">
         <v>43835</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="8">
         <v>43836</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="8">
         <v>43837</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="8">
         <v>43838</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="8">
         <v>43839</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="8">
         <v>43840</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="8">
         <v>43841</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="8">
         <v>43842</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="8">
         <v>43843</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="8">
         <v>43844</v>
       </c>
@@ -7501,7 +7501,7 @@
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="8">
         <v>43845</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="8">
         <v>43846</v>
       </c>
@@ -7523,7 +7523,7 @@
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="8">
         <v>43847</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="8">
         <v>43848</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="8">
         <v>43849</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="8">
         <v>43850</v>
       </c>
@@ -7573,7 +7573,7 @@
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="8">
         <v>43851</v>
       </c>
@@ -7584,7 +7584,7 @@
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="8">
         <v>43852</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="8">
         <v>43853</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="8">
         <v>43854</v>
       </c>
@@ -7617,7 +7617,7 @@
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="8">
         <v>43855</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="8">
         <v>43856</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="8">
         <v>43857</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="8">
         <v>43858</v>
       </c>
@@ -7667,7 +7667,7 @@
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="8">
         <v>43859</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="8">
         <v>43860</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="8">
         <v>43861</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="8">
         <v>43862</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="8">
         <v>43863</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="8">
         <v>43864</v>
       </c>
@@ -7743,7 +7743,7 @@
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="8">
         <v>43865</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="8">
         <v>43866</v>
       </c>
@@ -7765,7 +7765,7 @@
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="8">
         <v>43867</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="8">
         <v>43868</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="8">
         <v>43869</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="8">
         <v>43870</v>
       </c>
@@ -7815,7 +7815,7 @@
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="8">
         <v>43871</v>
       </c>
@@ -7826,7 +7826,7 @@
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="8">
         <v>43872</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="8">
         <v>43873</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="8">
         <v>43874</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="8">
         <v>43875</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="8">
         <v>43876</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="8">
         <v>43877</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="8">
         <v>43878</v>
       </c>
@@ -7909,7 +7909,7 @@
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="8">
         <v>43879</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="8">
         <v>43880</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="8">
         <v>43881</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="8">
         <v>43882</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="8">
         <v>43883</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="8">
         <v>43884</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="8">
         <v>43885</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="8">
         <v>43886</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="8">
         <v>43887</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="8">
         <v>43888</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="8">
         <v>43889</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="8">
         <v>43890</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="8">
         <v>43891</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="8">
         <v>43892</v>
       </c>
@@ -8079,7 +8079,7 @@
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="8">
         <v>43893</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="8">
         <v>43894</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="8">
         <v>43895</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="8">
         <v>43896</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="8">
         <v>43897</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="8">
         <v>43898</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="8">
         <v>43899</v>
       </c>
@@ -8162,7 +8162,7 @@
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="8">
         <v>43900</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="8">
         <v>43901</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="8">
         <v>43902</v>
       </c>
@@ -8195,7 +8195,7 @@
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="8">
         <v>43903</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="8">
         <v>43904</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="8">
         <v>43905</v>
       </c>
@@ -8234,7 +8234,7 @@
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="8">
         <v>43906</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="8">
         <v>43907</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="8">
         <v>43908</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="8">
         <v>43909</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="8">
         <v>43910</v>
       </c>
@@ -8289,7 +8289,7 @@
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="8">
         <v>43911</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="8">
         <v>43912</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="8">
         <v>43913</v>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="8">
         <v>43914</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="8">
         <v>43915</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="8">
         <v>43916</v>
       </c>
@@ -8361,7 +8361,7 @@
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="8">
         <v>43917</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="8">
         <v>43918</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="8">
         <v>43919</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="8">
         <v>43920</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="8">
         <v>43921</v>
       </c>
@@ -8426,7 +8426,7 @@
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="8">
         <v>43922</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="8">
         <v>43923</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="8">
         <v>43924</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="8">
         <v>43925</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="8">
         <v>43926</v>
       </c>
@@ -8487,7 +8487,7 @@
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="8">
         <v>43927</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="8">
         <v>43928</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="8">
         <v>43929</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="8">
         <v>43930</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="8">
         <v>43931</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="8">
         <v>43932</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="8">
         <v>43933</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="8">
         <v>43934</v>
       </c>
@@ -8581,7 +8581,7 @@
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="8">
         <v>43935</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="8">
         <v>43936</v>
       </c>
@@ -8603,7 +8603,7 @@
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="8">
         <v>43937</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="8">
         <v>43938</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="8">
         <v>43939</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="8">
         <v>43940</v>
       </c>
@@ -8653,7 +8653,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="8">
         <v>43941</v>
       </c>
@@ -8664,7 +8664,7 @@
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="8">
         <v>43942</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="8">
         <v>43943</v>
       </c>
@@ -8686,7 +8686,7 @@
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="8">
         <v>43944</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="8">
         <v>43945</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="8">
         <v>43946</v>
       </c>
@@ -8719,7 +8719,7 @@
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="8">
         <v>43947</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="8">
         <v>43948</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="8">
         <v>43949</v>
       </c>
@@ -8752,7 +8752,7 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="8">
         <v>43950</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="8">
         <v>43951</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="8">
         <v>43952</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="8">
         <v>43953</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="8">
         <v>43954</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="8">
         <v>43955</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="8">
         <v>43956</v>
       </c>
@@ -8839,7 +8839,7 @@
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="8">
         <v>43957</v>
       </c>
@@ -8850,7 +8850,7 @@
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="8">
         <v>43958</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="8">
         <v>43959</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="G497" s="21"/>
       <c r="H497" s="21"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="8">
         <v>43960</v>
       </c>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="H498" s="21"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="8">
         <v>43961</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="G499" s="21"/>
       <c r="H499" s="21"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="8">
         <v>43962</v>
       </c>
@@ -8915,7 +8915,7 @@
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="8">
         <v>43963</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="G501" s="21"/>
       <c r="H501" s="21"/>
     </row>
-    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="8">
         <v>43964</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="G502" s="21"/>
       <c r="H502" s="21"/>
     </row>
-    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="8">
         <v>43965</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="G503" s="21"/>
       <c r="H503" s="21"/>
     </row>
-    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="8">
         <v>43966</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="G504" s="21"/>
       <c r="H504" s="21"/>
     </row>
-    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="8">
         <v>43967</v>
       </c>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="H505" s="21"/>
     </row>
-    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="8">
         <v>43968</v>
       </c>
@@ -8993,7 +8993,7 @@
       <c r="G506" s="21"/>
       <c r="H506" s="21"/>
     </row>
-    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="8">
         <v>43969</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="G507" s="21"/>
       <c r="H507" s="21"/>
     </row>
-    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" s="8">
         <v>43970</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="G508" s="21"/>
       <c r="H508" s="21"/>
     </row>
-    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="8">
         <v>43971</v>
       </c>
@@ -9029,7 +9029,7 @@
       <c r="G509" s="21"/>
       <c r="H509" s="21"/>
     </row>
-    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="8">
         <v>43972</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="G510" s="21"/>
       <c r="H510" s="21"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="8">
         <v>43973</v>
       </c>
@@ -9053,7 +9053,7 @@
       <c r="G511" s="21"/>
       <c r="H511" s="21"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="8">
         <v>43974</v>
       </c>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H512" s="21"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="8">
         <v>43975</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="8">
         <v>43976</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="G514" s="21"/>
       <c r="H514" s="21"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="8">
         <v>43977</v>
       </c>
@@ -9107,7 +9107,7 @@
       <c r="G515" s="21"/>
       <c r="H515" s="21"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="8">
         <v>43978</v>
       </c>
@@ -9119,7 +9119,7 @@
       <c r="G516" s="21"/>
       <c r="H516" s="21"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="8">
         <v>43979</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="G517" s="21"/>
       <c r="H517" s="21"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="8">
         <v>43980</v>
       </c>
@@ -9143,7 +9143,7 @@
       <c r="G518" s="21"/>
       <c r="H518" s="21"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="8">
         <v>43981</v>
       </c>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H519" s="21"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="8">
         <v>43982</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="G520" s="21"/>
       <c r="H520" s="21"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="8">
         <v>43983</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="G521" s="21"/>
       <c r="H521" s="21"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="8">
         <v>43984</v>
       </c>
@@ -9201,7 +9201,7 @@
       <c r="G522" s="21"/>
       <c r="H522" s="21"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="8">
         <v>43985</v>
       </c>
@@ -9213,7 +9213,7 @@
       <c r="G523" s="21"/>
       <c r="H523" s="21"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="8">
         <v>43986</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="G524" s="21"/>
       <c r="H524" s="21"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="8">
         <v>43987</v>
       </c>
@@ -9237,7 +9237,7 @@
       <c r="G525" s="21"/>
       <c r="H525" s="21"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="8">
         <v>43988</v>
       </c>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="H526" s="21"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="8">
         <v>43989</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="G527" s="21"/>
       <c r="H527" s="21"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="8">
         <v>43990</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="8">
         <v>43991</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="8">
         <v>43992</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="8">
         <v>43993</v>
       </c>
@@ -9302,7 +9302,7 @@
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="8">
         <v>43994</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="8">
         <v>43995</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="8">
         <v>43996</v>
       </c>
@@ -9335,7 +9335,7 @@
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="8">
         <v>43997</v>
       </c>
@@ -9343,7 +9343,7 @@
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="8">
         <v>43998</v>
       </c>
@@ -9351,7 +9351,7 @@
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="8">
         <v>43999</v>
       </c>
@@ -9360,7 +9360,7 @@
       <c r="D537" s="25"/>
       <c r="H537" s="21"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="8">
         <v>44000</v>
       </c>
@@ -9368,7 +9368,7 @@
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="8">
         <v>44001</v>
       </c>
@@ -9376,7 +9376,7 @@
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="8">
         <v>44002</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="8">
         <v>44003</v>
       </c>
@@ -9401,7 +9401,7 @@
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="8">
         <v>44004</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="8">
         <v>44005</v>
       </c>
@@ -9417,7 +9417,7 @@
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="8">
         <v>44006</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="8">
         <v>44007</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="8">
         <v>44008</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="8">
         <v>44009</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="8">
         <v>44010</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="8">
         <v>44011</v>
       </c>
@@ -9474,7 +9474,7 @@
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="8">
         <v>44012</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="8">
         <v>44013</v>
       </c>
@@ -9494,7 +9494,7 @@
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="8">
         <v>44014</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="8">
         <v>44015</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="8">
         <v>44016</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="8">
         <v>44017</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="8">
         <v>44018</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="8">
         <v>44019</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="8">
         <v>44020</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="8">
         <v>44021</v>
       </c>
@@ -9567,7 +9567,7 @@
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="8">
         <v>44022</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="8">
         <v>44023</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="8">
         <v>44024</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="8">
         <v>44025</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="8">
         <v>44026</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="8">
         <v>44027</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="8">
         <v>44028</v>
       </c>
@@ -9632,7 +9632,7 @@
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="8">
         <v>44029</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="8">
         <v>44030</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="8">
         <v>44031</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="8">
         <v>44032</v>
       </c>
@@ -9673,7 +9673,7 @@
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="8">
         <v>44033</v>
       </c>
@@ -9681,7 +9681,7 @@
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="8">
         <v>44034</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="8">
         <v>44035</v>
       </c>
@@ -9697,7 +9697,7 @@
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="8">
         <v>44036</v>
       </c>
@@ -9705,7 +9705,7 @@
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="8">
         <v>44037</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="8">
         <v>44038</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="8">
         <v>44039</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="8">
         <v>44040</v>
       </c>
@@ -9746,7 +9746,7 @@
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="8">
         <v>44041</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="8">
         <v>44042</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="8">
         <v>44043</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1486.92</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="8">
         <v>44044</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="8">
         <v>44045</v>
       </c>
@@ -9799,7 +9799,7 @@
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="8">
         <v>44046</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="8">
         <v>44047</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="8">
         <v>44048</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="8">
         <v>44049</v>
       </c>
@@ -9831,7 +9831,7 @@
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="8">
         <v>44050</v>
       </c>
@@ -9839,7 +9839,7 @@
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="8">
         <v>44051</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="8">
         <v>44052</v>
       </c>
@@ -9864,7 +9864,7 @@
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="8">
         <v>44053</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="8">
         <v>44054</v>
       </c>
@@ -9880,7 +9880,7 @@
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="8">
         <v>44055</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="8">
         <v>44056</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="8">
         <v>44057</v>
       </c>
@@ -9904,7 +9904,7 @@
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="8">
         <v>44058</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="8">
         <v>44059</v>
       </c>
@@ -9929,7 +9929,7 @@
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="8">
         <v>44060</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="8">
         <v>44061</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="8">
         <v>44062</v>
       </c>
@@ -9953,7 +9953,7 @@
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="8">
         <v>44063</v>
       </c>
@@ -9961,7 +9961,7 @@
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="8">
         <v>44064</v>
       </c>
@@ -9969,7 +9969,7 @@
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="8">
         <v>44065</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="8">
         <v>44066</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="8">
         <v>44067</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="D605" s="25"/>
       <c r="H605" s="21"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="8">
         <v>44068</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="D606" s="25"/>
       <c r="H606" s="21"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="8">
         <v>44069</v>
       </c>
@@ -10021,7 +10021,7 @@
       <c r="D607" s="25"/>
       <c r="H607" s="21"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="8">
         <v>44070</v>
       </c>
@@ -10030,7 +10030,7 @@
       <c r="D608" s="25"/>
       <c r="H608" s="21"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="8">
         <v>44071</v>
       </c>
@@ -10039,7 +10039,7 @@
       <c r="D609" s="25"/>
       <c r="H609" s="21"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="8">
         <v>44072</v>
       </c>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="H610" s="21"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="8">
         <v>44073</v>
       </c>
@@ -10066,7 +10066,7 @@
       <c r="D611" s="25"/>
       <c r="H611" s="21"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="8">
         <v>44074</v>
       </c>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="H612" s="21"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="8">
         <v>44075</v>
       </c>
@@ -10088,7 +10088,7 @@
       <c r="D613" s="25"/>
       <c r="H613" s="21"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="8">
         <v>44076</v>
       </c>
@@ -10097,7 +10097,7 @@
       <c r="D614" s="25"/>
       <c r="H614" s="21"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="8">
         <v>44077</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="D615" s="25"/>
       <c r="H615" s="21"/>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="8">
         <v>44078</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="D616" s="25"/>
       <c r="H616" s="21"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="8">
         <v>44079</v>
       </c>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="H617" s="21"/>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="8">
         <v>44080</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="D618" s="25"/>
       <c r="H618" s="21"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="8">
         <v>44081</v>
       </c>
@@ -10150,7 +10150,7 @@
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="8">
         <v>44082</v>
       </c>
@@ -10158,7 +10158,7 @@
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="8">
         <v>44083</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="8">
         <v>44084</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="8">
         <v>44085</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="8">
         <v>44086</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="8">
         <v>44087</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="8">
         <v>44088</v>
       </c>
@@ -10216,7 +10216,7 @@
       <c r="D626" s="25"/>
       <c r="H626" s="21"/>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="8">
         <v>44089</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="D627" s="25"/>
       <c r="H627" s="21"/>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="8">
         <v>44090</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="D628" s="25"/>
       <c r="H628" s="21"/>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="8">
         <v>44091</v>
       </c>
@@ -10243,7 +10243,7 @@
       <c r="D629" s="25"/>
       <c r="H629" s="21"/>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="8">
         <v>44092</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="D630" s="25"/>
       <c r="H630" s="21"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="8">
         <v>44093</v>
       </c>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="H631" s="21"/>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="8">
         <v>44094</v>
       </c>
@@ -10279,7 +10279,7 @@
       <c r="D632" s="25"/>
       <c r="H632" s="21"/>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="8">
         <v>44095</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="8">
         <v>44096</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="8">
         <v>44097</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="8">
         <v>44098</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="8">
         <v>44099</v>
       </c>
@@ -10319,7 +10319,7 @@
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="8">
         <v>44100</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="8">
         <v>44101</v>
       </c>
@@ -10344,7 +10344,7 @@
       <c r="C639" s="25"/>
       <c r="D639" s="25"/>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="8">
         <v>44102</v>
       </c>
@@ -10352,7 +10352,7 @@
       <c r="C640" s="25"/>
       <c r="D640" s="25"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="8">
         <v>44103</v>
       </c>
@@ -10360,7 +10360,7 @@
       <c r="C641" s="25"/>
       <c r="D641" s="25"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="8">
         <v>44104</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>1477.77</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="8">
         <v>44105</v>
       </c>
@@ -10380,7 +10380,7 @@
       <c r="C643" s="25"/>
       <c r="D643" s="25"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="8">
         <v>44106</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="C644" s="25"/>
       <c r="D644" s="25"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="8">
         <v>44107</v>
       </c>
@@ -10396,7 +10396,7 @@
       <c r="C645" s="25"/>
       <c r="D645" s="25"/>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="8">
         <v>44108</v>
       </c>
@@ -10404,7 +10404,7 @@
       <c r="C646" s="25"/>
       <c r="D646" s="25"/>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="8">
         <v>44109</v>
       </c>
@@ -10412,7 +10412,7 @@
       <c r="C647" s="25"/>
       <c r="D647" s="25"/>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="8">
         <v>44110</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="C648" s="25"/>
       <c r="D648" s="25"/>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="8">
         <v>44111</v>
       </c>
@@ -10428,7 +10428,7 @@
       <c r="C649" s="25"/>
       <c r="D649" s="25"/>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="8">
         <v>44112</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="C650" s="25"/>
       <c r="D650" s="25"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="8">
         <v>44113</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="C651" s="25"/>
       <c r="D651" s="25"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="8">
         <v>44114</v>
       </c>
@@ -10452,7 +10452,7 @@
       <c r="C652" s="25"/>
       <c r="D652" s="25"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="8">
         <v>44115</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="C653" s="25"/>
       <c r="D653" s="25"/>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="8">
         <v>44116</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="C654" s="25"/>
       <c r="D654" s="25"/>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="8">
         <v>44117</v>
       </c>
@@ -10476,7 +10476,7 @@
       <c r="C655" s="25"/>
       <c r="D655" s="25"/>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="8">
         <v>44118</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="C656" s="25"/>
       <c r="D656" s="25"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="8">
         <v>44119</v>
       </c>
@@ -10492,7 +10492,7 @@
       <c r="C657" s="25"/>
       <c r="D657" s="25"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="8">
         <v>44120</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="C658" s="25"/>
       <c r="D658" s="25"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="8">
         <v>44121</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="8">
         <v>44122</v>
       </c>
@@ -10525,7 +10525,7 @@
       <c r="C660" s="25"/>
       <c r="D660" s="25"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="8">
         <v>44123</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="C661" s="25"/>
       <c r="D661" s="25"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="8">
         <v>44124</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="C662" s="25"/>
       <c r="D662" s="25"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="8">
         <v>44125</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="C663" s="25"/>
       <c r="D663" s="25"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="8">
         <v>44126</v>
       </c>
@@ -10557,7 +10557,7 @@
       <c r="C664" s="25"/>
       <c r="D664" s="25"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="8">
         <v>44127</v>
       </c>
@@ -10565,7 +10565,7 @@
       <c r="C665" s="25"/>
       <c r="D665" s="25"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="8">
         <v>44128</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="8">
         <v>44129</v>
       </c>
@@ -10590,7 +10590,7 @@
       <c r="C667" s="25"/>
       <c r="D667" s="25"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="8">
         <v>44130</v>
       </c>
@@ -10598,7 +10598,7 @@
       <c r="C668" s="25"/>
       <c r="D668" s="25"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="8">
         <v>44131</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="C669" s="25"/>
       <c r="D669" s="25"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="8">
         <v>44132</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="C670" s="25"/>
       <c r="D670" s="25"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="8">
         <v>44133</v>
       </c>
@@ -10622,7 +10622,7 @@
       <c r="C671" s="25"/>
       <c r="D671" s="25"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="8">
         <v>44134</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="C672" s="25"/>
       <c r="D672" s="25"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="8">
         <v>44135</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="8">
         <v>44136</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="C674" s="25"/>
       <c r="D674" s="25"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="8">
         <v>44137</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="C675" s="25"/>
       <c r="D675" s="25"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="8">
         <v>44138</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="C676" s="25"/>
       <c r="D676" s="25"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="8">
         <v>44139</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="C677" s="25"/>
       <c r="D677" s="25"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="8">
         <v>44140</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="C678" s="25"/>
       <c r="D678" s="25"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="8">
         <v>44141</v>
       </c>
@@ -10699,7 +10699,7 @@
       <c r="C679" s="25"/>
       <c r="D679" s="25"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="8">
         <v>44142</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="8">
         <v>44143</v>
       </c>
@@ -10724,7 +10724,7 @@
       <c r="C681" s="25"/>
       <c r="D681" s="25"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="8">
         <v>44144</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="C682" s="25"/>
       <c r="D682" s="25"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="8">
         <v>44145</v>
       </c>
@@ -10740,7 +10740,7 @@
       <c r="C683" s="25"/>
       <c r="D683" s="25"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="8">
         <v>44146</v>
       </c>
@@ -10748,7 +10748,7 @@
       <c r="C684" s="25"/>
       <c r="D684" s="25"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="8">
         <v>44147</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="C685" s="25"/>
       <c r="D685" s="25"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="8">
         <v>44148</v>
       </c>
@@ -10764,7 +10764,7 @@
       <c r="C686" s="25"/>
       <c r="D686" s="25"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="8">
         <v>44149</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="8">
         <v>44150</v>
       </c>
@@ -10789,7 +10789,7 @@
       <c r="C688" s="25"/>
       <c r="D688" s="25"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="8">
         <v>44151</v>
       </c>
@@ -10797,7 +10797,7 @@
       <c r="C689" s="25"/>
       <c r="D689" s="25"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="8">
         <v>44152</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="C690" s="25"/>
       <c r="D690" s="25"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="8">
         <v>44153</v>
       </c>
@@ -10813,7 +10813,7 @@
       <c r="C691" s="25"/>
       <c r="D691" s="25"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="8">
         <v>44154</v>
       </c>
@@ -10821,7 +10821,7 @@
       <c r="C692" s="25"/>
       <c r="D692" s="25"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="8">
         <v>44155</v>
       </c>
@@ -10829,7 +10829,7 @@
       <c r="C693" s="25"/>
       <c r="D693" s="25"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="8">
         <v>44156</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="8">
         <v>44157</v>
       </c>
@@ -10854,7 +10854,7 @@
       <c r="C695" s="25"/>
       <c r="D695" s="25"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" s="8">
         <v>44158</v>
       </c>
@@ -10862,7 +10862,7 @@
       <c r="C696" s="25"/>
       <c r="D696" s="25"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" s="8">
         <v>44159</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="C697" s="25"/>
       <c r="D697" s="25"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" s="8">
         <v>44160</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="C698" s="25"/>
       <c r="D698" s="25"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="8">
         <v>44161</v>
       </c>
@@ -10886,7 +10886,7 @@
       <c r="C699" s="25"/>
       <c r="D699" s="25"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="8">
         <v>44162</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="C700" s="25"/>
       <c r="D700" s="25"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" s="8">
         <v>44163</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="C701" s="25"/>
       <c r="D701" s="25"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" s="8">
         <v>44164</v>
       </c>
@@ -10929,37 +10929,37 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.98828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" style="10" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="10" customWidth="1"/>
-    <col min="16" max="22" width="11.140625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="10" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="10" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="14" style="10"/>
+    <col min="1" max="1" width="7.26171875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="31.74609375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.28125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.51171875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.69140625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="17.75390625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.4453125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.796875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" style="10" customWidth="1"/>
+    <col min="16" max="22" width="11.1640625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="15.73828125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.44140625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="13.98828125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>18</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>18</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>19</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>19</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>19</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>19</v>
       </c>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>19</v>
       </c>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>19</v>
       </c>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>19</v>
       </c>
@@ -11532,7 +11532,7 @@
       </c>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>19</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>15</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -11668,7 +11668,7 @@
       <c r="Q13" s="14"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -11696,7 +11696,7 @@
       <c r="Q14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -11716,7 +11716,7 @@
       <c r="Q15" s="14"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -11736,7 +11736,7 @@
       <c r="Q16" s="14"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -11756,7 +11756,7 @@
       <c r="Q17" s="14"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -11776,7 +11776,7 @@
       <c r="Q18" s="14"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -11796,7 +11796,7 @@
       <c r="Q19" s="14"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -11816,7 +11816,7 @@
       <c r="Q20" s="14"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -11836,7 +11836,7 @@
       <c r="Q21" s="14"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -11856,7 +11856,7 @@
       <c r="Q22" s="14"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -11876,1002 +11876,1002 @@
       <c r="Q23" s="14"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{5BF57AB9-6786-45D4-9B41-00A80ED5A879}"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1292" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B516BC8-3D1F-2544-8D0B-D6E4F57DABD6}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6317D5D6-EBC6-9741-B46E-5DFD14B8A7B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F702" sqref="F702"/>
+      <pane ySplit="3" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C702" sqref="C702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10929,10 +10929,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.98828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6317D5D6-EBC6-9741-B46E-5DFD14B8A7B5}"/>
+  <xr:revisionPtr revIDLastSave="1304" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E42625C7-D8C7-4A64-8C2E-64D038E7EE3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
     <sheet name="Fuentes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -379,8 +379,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -930,7 +930,7 @@
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -974,7 +974,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1326,8 +1326,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R49" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
-  <autoFilter ref="J3:R49" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R50" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
+  <autoFilter ref="J3:R50" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
@@ -1644,32 +1644,32 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C702" sqref="C702"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.14453125" customWidth="1"/>
-    <col min="2" max="2" width="17.75390625" customWidth="1"/>
-    <col min="3" max="3" width="12.23828125" customWidth="1"/>
-    <col min="4" max="4" width="14.390625" customWidth="1"/>
-    <col min="5" max="5" width="12.5078125" customWidth="1"/>
-    <col min="6" max="6" width="15.87109375" customWidth="1"/>
-    <col min="7" max="7" width="11.703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5859375" customWidth="1"/>
-    <col min="10" max="10" width="9.55078125" customWidth="1"/>
-    <col min="11" max="11" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.2578125" customWidth="1"/>
-    <col min="14" max="14" width="20.17578125" customWidth="1"/>
-    <col min="15" max="15" width="14.9296875" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" customWidth="1"/>
-    <col min="18" max="18" width="20.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1713,7 +1713,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43466</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43467</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43468</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>-89.4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43469</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43470</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43471</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>-95.7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43472</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43473</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43474</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>-97.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43475</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43476</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43477</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>-107.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43478</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43479</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43480</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43481</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43482</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43483</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>-65.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43484</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43485</v>
       </c>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43486</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>-94.8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43487</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43488</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43489</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>-89.1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43490</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43491</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>43492</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>-87.4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43493</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>43494</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43495</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>43496</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43497</v>
       </c>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>43498</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43499</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>43500</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43501</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>-73.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>43502</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43503</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>43504</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>-56.3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43505</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43506</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43507</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>43508</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43509</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>43510</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3521,10 +3521,14 @@
         <v>Octubre, 2020</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="2">
+        <v>726934.16200000001</v>
+      </c>
+      <c r="P49" s="2">
+        <v>363.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3540,8 +3544,21 @@
       <c r="G50" s="21">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J50" s="9">
+        <v>2020</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f t="shared" ref="L50" si="4">+K50&amp;", "&amp;J50</f>
+        <v>Noviembre, 2020</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3552,7 +3569,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3563,7 +3580,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3574,7 +3591,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3585,7 +3602,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -3596,7 +3613,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -3607,7 +3624,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -3635,7 +3652,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -3646,7 +3663,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -3657,7 +3674,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -3668,7 +3685,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -3683,7 +3700,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -3694,7 +3711,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -3705,7 +3722,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>43527</v>
       </c>
@@ -3716,7 +3733,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>43528</v>
       </c>
@@ -3727,7 +3744,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>43529</v>
       </c>
@@ -3738,7 +3755,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>43530</v>
       </c>
@@ -3749,7 +3766,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>43531</v>
       </c>
@@ -3760,7 +3777,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>43532</v>
       </c>
@@ -3771,7 +3788,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>43533</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>43534</v>
       </c>
@@ -3799,7 +3816,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>43535</v>
       </c>
@@ -3810,7 +3827,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>43536</v>
       </c>
@@ -3821,7 +3838,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>43537</v>
       </c>
@@ -3832,7 +3849,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>43538</v>
       </c>
@@ -3843,7 +3860,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>43539</v>
       </c>
@@ -3854,7 +3871,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>43540</v>
       </c>
@@ -3871,7 +3888,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>43541</v>
       </c>
@@ -3882,7 +3899,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>43542</v>
       </c>
@@ -3893,7 +3910,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>43543</v>
       </c>
@@ -3904,7 +3921,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>43544</v>
       </c>
@@ -3915,7 +3932,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>43545</v>
       </c>
@@ -3926,7 +3943,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>43546</v>
       </c>
@@ -3937,7 +3954,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>43547</v>
       </c>
@@ -3954,7 +3971,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>43548</v>
       </c>
@@ -3965,7 +3982,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>43549</v>
       </c>
@@ -3976,7 +3993,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>43550</v>
       </c>
@@ -3987,7 +4004,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>43551</v>
       </c>
@@ -3998,7 +4015,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>43552</v>
       </c>
@@ -4009,7 +4026,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>43553</v>
       </c>
@@ -4020,7 +4037,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>43554</v>
       </c>
@@ -4037,7 +4054,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>43555</v>
       </c>
@@ -4052,7 +4069,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>43556</v>
       </c>
@@ -4063,7 +4080,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>43557</v>
       </c>
@@ -4074,7 +4091,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>43558</v>
       </c>
@@ -4085,7 +4102,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>43559</v>
       </c>
@@ -4096,7 +4113,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>43560</v>
       </c>
@@ -4107,7 +4124,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>43561</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>43562</v>
       </c>
@@ -4135,7 +4152,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>43563</v>
       </c>
@@ -4146,7 +4163,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>43564</v>
       </c>
@@ -4157,7 +4174,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>43565</v>
       </c>
@@ -4168,7 +4185,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>43566</v>
       </c>
@@ -4179,7 +4196,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>43567</v>
       </c>
@@ -4190,7 +4207,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>43568</v>
       </c>
@@ -4207,7 +4224,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>43569</v>
       </c>
@@ -4218,7 +4235,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>43570</v>
       </c>
@@ -4229,7 +4246,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>43571</v>
       </c>
@@ -4240,7 +4257,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>43572</v>
       </c>
@@ -4251,7 +4268,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>43573</v>
       </c>
@@ -4262,7 +4279,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>43574</v>
       </c>
@@ -4273,7 +4290,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>43575</v>
       </c>
@@ -4290,7 +4307,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>43576</v>
       </c>
@@ -4301,7 +4318,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>43577</v>
       </c>
@@ -4312,7 +4329,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>43578</v>
       </c>
@@ -4323,7 +4340,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>43579</v>
       </c>
@@ -4334,7 +4351,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>43580</v>
       </c>
@@ -4345,7 +4362,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>43581</v>
       </c>
@@ -4356,7 +4373,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>43582</v>
       </c>
@@ -4373,7 +4390,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>43583</v>
       </c>
@@ -4384,7 +4401,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>43584</v>
       </c>
@@ -4395,7 +4412,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>43585</v>
       </c>
@@ -4410,7 +4427,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>43586</v>
       </c>
@@ -4421,7 +4438,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>43587</v>
       </c>
@@ -4432,7 +4449,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>43588</v>
       </c>
@@ -4443,7 +4460,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>43589</v>
       </c>
@@ -4460,7 +4477,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>43590</v>
       </c>
@@ -4471,7 +4488,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>43591</v>
       </c>
@@ -4482,7 +4499,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>43592</v>
       </c>
@@ -4493,7 +4510,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>43593</v>
       </c>
@@ -4504,7 +4521,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>43594</v>
       </c>
@@ -4515,7 +4532,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>43595</v>
       </c>
@@ -4526,7 +4543,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>43596</v>
       </c>
@@ -4543,7 +4560,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>43597</v>
       </c>
@@ -4554,7 +4571,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>43598</v>
       </c>
@@ -4565,7 +4582,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>43599</v>
       </c>
@@ -4576,7 +4593,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>43600</v>
       </c>
@@ -4587,7 +4604,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>43601</v>
       </c>
@@ -4598,7 +4615,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>43602</v>
       </c>
@@ -4609,7 +4626,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>43603</v>
       </c>
@@ -4626,7 +4643,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>43604</v>
       </c>
@@ -4637,7 +4654,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>43605</v>
       </c>
@@ -4648,7 +4665,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>43606</v>
       </c>
@@ -4659,7 +4676,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>43607</v>
       </c>
@@ -4670,7 +4687,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>43608</v>
       </c>
@@ -4681,7 +4698,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>43609</v>
       </c>
@@ -4692,7 +4709,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>43610</v>
       </c>
@@ -4709,7 +4726,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>43611</v>
       </c>
@@ -4720,7 +4737,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>43612</v>
       </c>
@@ -4731,7 +4748,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>43613</v>
       </c>
@@ -4742,7 +4759,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>43614</v>
       </c>
@@ -4753,7 +4770,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>43615</v>
       </c>
@@ -4764,7 +4781,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>43616</v>
       </c>
@@ -4779,7 +4796,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -4796,7 +4813,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>43618</v>
       </c>
@@ -4807,7 +4824,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>43619</v>
       </c>
@@ -4818,7 +4835,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>43620</v>
       </c>
@@ -4829,7 +4846,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>43621</v>
       </c>
@@ -4840,7 +4857,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>43622</v>
       </c>
@@ -4851,7 +4868,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>43623</v>
       </c>
@@ -4862,7 +4879,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>43624</v>
       </c>
@@ -4879,7 +4896,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>43625</v>
       </c>
@@ -4890,7 +4907,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>43626</v>
       </c>
@@ -4901,7 +4918,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>43627</v>
       </c>
@@ -4912,7 +4929,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>43628</v>
       </c>
@@ -4923,7 +4940,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>43629</v>
       </c>
@@ -4934,7 +4951,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>43630</v>
       </c>
@@ -4945,7 +4962,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>43631</v>
       </c>
@@ -4962,7 +4979,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>43632</v>
       </c>
@@ -4973,7 +4990,7 @@
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>43633</v>
       </c>
@@ -4984,7 +5001,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>43634</v>
       </c>
@@ -4995,7 +5012,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>43635</v>
       </c>
@@ -5006,7 +5023,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>43636</v>
       </c>
@@ -5017,7 +5034,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>43637</v>
       </c>
@@ -5028,7 +5045,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>43638</v>
       </c>
@@ -5045,7 +5062,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>43639</v>
       </c>
@@ -5056,7 +5073,7 @@
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>43640</v>
       </c>
@@ -5067,7 +5084,7 @@
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>43641</v>
       </c>
@@ -5078,7 +5095,7 @@
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>43642</v>
       </c>
@@ -5089,7 +5106,7 @@
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>43643</v>
       </c>
@@ -5100,7 +5117,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>43644</v>
       </c>
@@ -5111,7 +5128,7 @@
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>43645</v>
       </c>
@@ -5128,7 +5145,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>43646</v>
       </c>
@@ -5143,7 +5160,7 @@
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>43647</v>
       </c>
@@ -5154,7 +5171,7 @@
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>43648</v>
       </c>
@@ -5165,7 +5182,7 @@
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>43649</v>
       </c>
@@ -5176,7 +5193,7 @@
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>43650</v>
       </c>
@@ -5187,7 +5204,7 @@
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>43651</v>
       </c>
@@ -5198,7 +5215,7 @@
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>43652</v>
       </c>
@@ -5215,7 +5232,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>43653</v>
       </c>
@@ -5226,7 +5243,7 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>43654</v>
       </c>
@@ -5237,7 +5254,7 @@
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>43655</v>
       </c>
@@ -5248,7 +5265,7 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>43656</v>
       </c>
@@ -5259,7 +5276,7 @@
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>43657</v>
       </c>
@@ -5270,7 +5287,7 @@
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>43658</v>
       </c>
@@ -5281,7 +5298,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>43659</v>
       </c>
@@ -5298,7 +5315,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>43660</v>
       </c>
@@ -5309,7 +5326,7 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>43661</v>
       </c>
@@ -5320,7 +5337,7 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>43662</v>
       </c>
@@ -5331,7 +5348,7 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>43663</v>
       </c>
@@ -5342,7 +5359,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -5353,7 +5370,7 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>43665</v>
       </c>
@@ -5364,7 +5381,7 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>43666</v>
       </c>
@@ -5381,7 +5398,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>43667</v>
       </c>
@@ -5392,7 +5409,7 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>43668</v>
       </c>
@@ -5403,7 +5420,7 @@
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>43669</v>
       </c>
@@ -5414,7 +5431,7 @@
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>43670</v>
       </c>
@@ -5425,7 +5442,7 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>43671</v>
       </c>
@@ -5436,7 +5453,7 @@
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>43672</v>
       </c>
@@ -5447,7 +5464,7 @@
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>43673</v>
       </c>
@@ -5464,7 +5481,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>43674</v>
       </c>
@@ -5475,7 +5492,7 @@
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>43675</v>
       </c>
@@ -5486,7 +5503,7 @@
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>43676</v>
       </c>
@@ -5497,7 +5514,7 @@
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>43677</v>
       </c>
@@ -5512,7 +5529,7 @@
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -5523,7 +5540,7 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>43679</v>
       </c>
@@ -5534,7 +5551,7 @@
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>43680</v>
       </c>
@@ -5551,7 +5568,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>43681</v>
       </c>
@@ -5562,7 +5579,7 @@
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>43682</v>
       </c>
@@ -5573,7 +5590,7 @@
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>43683</v>
       </c>
@@ -5584,7 +5601,7 @@
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>43684</v>
       </c>
@@ -5595,7 +5612,7 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>43685</v>
       </c>
@@ -5606,7 +5623,7 @@
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>43686</v>
       </c>
@@ -5617,7 +5634,7 @@
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>43687</v>
       </c>
@@ -5634,7 +5651,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>43688</v>
       </c>
@@ -5645,7 +5662,7 @@
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>43689</v>
       </c>
@@ -5656,7 +5673,7 @@
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>43690</v>
       </c>
@@ -5667,7 +5684,7 @@
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>43691</v>
       </c>
@@ -5678,7 +5695,7 @@
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>43692</v>
       </c>
@@ -5689,7 +5706,7 @@
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>43693</v>
       </c>
@@ -5700,7 +5717,7 @@
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>43694</v>
       </c>
@@ -5717,7 +5734,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>43695</v>
       </c>
@@ -5728,7 +5745,7 @@
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>43696</v>
       </c>
@@ -5739,7 +5756,7 @@
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>43697</v>
       </c>
@@ -5750,7 +5767,7 @@
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>43698</v>
       </c>
@@ -5761,7 +5778,7 @@
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>43699</v>
       </c>
@@ -5772,7 +5789,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>43700</v>
       </c>
@@ -5783,7 +5800,7 @@
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>43701</v>
       </c>
@@ -5800,7 +5817,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>43702</v>
       </c>
@@ -5811,7 +5828,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>43703</v>
       </c>
@@ -5822,7 +5839,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>43704</v>
       </c>
@@ -5833,7 +5850,7 @@
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>43705</v>
       </c>
@@ -5844,7 +5861,7 @@
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>43706</v>
       </c>
@@ -5855,7 +5872,7 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>43707</v>
       </c>
@@ -5866,7 +5883,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>43708</v>
       </c>
@@ -5887,7 +5904,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>43709</v>
       </c>
@@ -5898,7 +5915,7 @@
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>43710</v>
       </c>
@@ -5909,7 +5926,7 @@
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>43711</v>
       </c>
@@ -5920,7 +5937,7 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>43712</v>
       </c>
@@ -5931,7 +5948,7 @@
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>43713</v>
       </c>
@@ -5942,7 +5959,7 @@
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>43714</v>
       </c>
@@ -5953,7 +5970,7 @@
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>43715</v>
       </c>
@@ -5970,7 +5987,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>43716</v>
       </c>
@@ -5981,7 +5998,7 @@
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>43717</v>
       </c>
@@ -5992,7 +6009,7 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>43718</v>
       </c>
@@ -6003,7 +6020,7 @@
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>43719</v>
       </c>
@@ -6014,7 +6031,7 @@
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>43720</v>
       </c>
@@ -6025,7 +6042,7 @@
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>43721</v>
       </c>
@@ -6036,7 +6053,7 @@
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>43722</v>
       </c>
@@ -6053,7 +6070,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>43723</v>
       </c>
@@ -6064,7 +6081,7 @@
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>43724</v>
       </c>
@@ -6075,7 +6092,7 @@
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>43725</v>
       </c>
@@ -6086,7 +6103,7 @@
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>43726</v>
       </c>
@@ -6097,7 +6114,7 @@
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>43727</v>
       </c>
@@ -6108,7 +6125,7 @@
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>43728</v>
       </c>
@@ -6119,7 +6136,7 @@
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>43729</v>
       </c>
@@ -6136,7 +6153,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>43730</v>
       </c>
@@ -6147,7 +6164,7 @@
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>43731</v>
       </c>
@@ -6158,7 +6175,7 @@
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>43732</v>
       </c>
@@ -6169,7 +6186,7 @@
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>43733</v>
       </c>
@@ -6180,7 +6197,7 @@
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>43734</v>
       </c>
@@ -6191,7 +6208,7 @@
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>43735</v>
       </c>
@@ -6202,7 +6219,7 @@
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>43736</v>
       </c>
@@ -6219,7 +6236,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>43737</v>
       </c>
@@ -6230,7 +6247,7 @@
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>43738</v>
       </c>
@@ -6245,7 +6262,7 @@
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>43739</v>
       </c>
@@ -6256,7 +6273,7 @@
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>43740</v>
       </c>
@@ -6267,7 +6284,7 @@
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>43741</v>
       </c>
@@ -6278,7 +6295,7 @@
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>43742</v>
       </c>
@@ -6289,7 +6306,7 @@
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>43743</v>
       </c>
@@ -6306,7 +6323,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>43744</v>
       </c>
@@ -6317,7 +6334,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>43745</v>
       </c>
@@ -6328,7 +6345,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>43746</v>
       </c>
@@ -6339,7 +6356,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>43747</v>
       </c>
@@ -6350,7 +6367,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>43748</v>
       </c>
@@ -6361,7 +6378,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>43749</v>
       </c>
@@ -6372,7 +6389,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>43750</v>
       </c>
@@ -6389,7 +6406,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>43751</v>
       </c>
@@ -6400,7 +6417,7 @@
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>43752</v>
       </c>
@@ -6411,7 +6428,7 @@
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>43753</v>
       </c>
@@ -6422,7 +6439,7 @@
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>43754</v>
       </c>
@@ -6433,7 +6450,7 @@
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>43755</v>
       </c>
@@ -6444,7 +6461,7 @@
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>43756</v>
       </c>
@@ -6455,7 +6472,7 @@
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>43757</v>
       </c>
@@ -6472,7 +6489,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>43758</v>
       </c>
@@ -6483,7 +6500,7 @@
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>43759</v>
       </c>
@@ -6494,7 +6511,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>43760</v>
       </c>
@@ -6505,7 +6522,7 @@
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>43761</v>
       </c>
@@ -6516,7 +6533,7 @@
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>43762</v>
       </c>
@@ -6527,7 +6544,7 @@
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>43763</v>
       </c>
@@ -6538,7 +6555,7 @@
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>43764</v>
       </c>
@@ -6555,7 +6572,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>43765</v>
       </c>
@@ -6566,7 +6583,7 @@
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>43766</v>
       </c>
@@ -6577,7 +6594,7 @@
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>43767</v>
       </c>
@@ -6588,7 +6605,7 @@
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>43768</v>
       </c>
@@ -6599,7 +6616,7 @@
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>43769</v>
       </c>
@@ -6614,7 +6631,7 @@
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>43770</v>
       </c>
@@ -6625,7 +6642,7 @@
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>43771</v>
       </c>
@@ -6642,7 +6659,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>43772</v>
       </c>
@@ -6653,7 +6670,7 @@
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>43773</v>
       </c>
@@ -6664,7 +6681,7 @@
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>43774</v>
       </c>
@@ -6675,7 +6692,7 @@
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>43775</v>
       </c>
@@ -6686,7 +6703,7 @@
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>43776</v>
       </c>
@@ -6697,7 +6714,7 @@
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>43777</v>
       </c>
@@ -6708,7 +6725,7 @@
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>43778</v>
       </c>
@@ -6725,7 +6742,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>43779</v>
       </c>
@@ -6736,7 +6753,7 @@
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>43780</v>
       </c>
@@ -6747,7 +6764,7 @@
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>43781</v>
       </c>
@@ -6758,7 +6775,7 @@
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>43782</v>
       </c>
@@ -6769,7 +6786,7 @@
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>43783</v>
       </c>
@@ -6780,7 +6797,7 @@
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>43784</v>
       </c>
@@ -6791,7 +6808,7 @@
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>43785</v>
       </c>
@@ -6808,7 +6825,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>43786</v>
       </c>
@@ -6819,7 +6836,7 @@
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>43787</v>
       </c>
@@ -6830,7 +6847,7 @@
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>43788</v>
       </c>
@@ -6841,7 +6858,7 @@
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>43789</v>
       </c>
@@ -6852,7 +6869,7 @@
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>43790</v>
       </c>
@@ -6863,7 +6880,7 @@
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>43791</v>
       </c>
@@ -6874,7 +6891,7 @@
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>43792</v>
       </c>
@@ -6891,7 +6908,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>43793</v>
       </c>
@@ -6902,7 +6919,7 @@
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>43794</v>
       </c>
@@ -6913,7 +6930,7 @@
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>43795</v>
       </c>
@@ -6924,7 +6941,7 @@
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>43796</v>
       </c>
@@ -6935,7 +6952,7 @@
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>43797</v>
       </c>
@@ -6946,7 +6963,7 @@
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>43798</v>
       </c>
@@ -6957,7 +6974,7 @@
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>43799</v>
       </c>
@@ -6978,7 +6995,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>43800</v>
       </c>
@@ -6989,7 +7006,7 @@
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>43801</v>
       </c>
@@ -7000,7 +7017,7 @@
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>43802</v>
       </c>
@@ -7011,7 +7028,7 @@
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>43803</v>
       </c>
@@ -7022,7 +7039,7 @@
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>43804</v>
       </c>
@@ -7033,7 +7050,7 @@
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>43805</v>
       </c>
@@ -7044,7 +7061,7 @@
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>43806</v>
       </c>
@@ -7061,7 +7078,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>43807</v>
       </c>
@@ -7072,7 +7089,7 @@
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>43808</v>
       </c>
@@ -7083,7 +7100,7 @@
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>43809</v>
       </c>
@@ -7094,7 +7111,7 @@
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>43810</v>
       </c>
@@ -7105,7 +7122,7 @@
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>43811</v>
       </c>
@@ -7116,7 +7133,7 @@
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>43812</v>
       </c>
@@ -7127,7 +7144,7 @@
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>43813</v>
       </c>
@@ -7144,7 +7161,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>43814</v>
       </c>
@@ -7155,7 +7172,7 @@
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>43815</v>
       </c>
@@ -7166,7 +7183,7 @@
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>43816</v>
       </c>
@@ -7177,7 +7194,7 @@
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>43817</v>
       </c>
@@ -7188,7 +7205,7 @@
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>43818</v>
       </c>
@@ -7199,7 +7216,7 @@
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>43819</v>
       </c>
@@ -7210,7 +7227,7 @@
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>43820</v>
       </c>
@@ -7227,7 +7244,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>43821</v>
       </c>
@@ -7238,7 +7255,7 @@
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>43822</v>
       </c>
@@ -7249,7 +7266,7 @@
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>43823</v>
       </c>
@@ -7260,7 +7277,7 @@
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>43824</v>
       </c>
@@ -7271,7 +7288,7 @@
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>43825</v>
       </c>
@@ -7282,7 +7299,7 @@
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>43826</v>
       </c>
@@ -7293,7 +7310,7 @@
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>43827</v>
       </c>
@@ -7304,7 +7321,7 @@
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>43828</v>
       </c>
@@ -7315,7 +7332,7 @@
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>43829</v>
       </c>
@@ -7326,7 +7343,7 @@
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>43830</v>
       </c>
@@ -7341,7 +7358,7 @@
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>43831</v>
       </c>
@@ -7352,7 +7369,7 @@
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>43832</v>
       </c>
@@ -7363,7 +7380,7 @@
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>43833</v>
       </c>
@@ -7374,7 +7391,7 @@
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>43834</v>
       </c>
@@ -7385,7 +7402,7 @@
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>43835</v>
       </c>
@@ -7396,7 +7413,7 @@
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>43836</v>
       </c>
@@ -7407,7 +7424,7 @@
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>43837</v>
       </c>
@@ -7418,7 +7435,7 @@
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>43838</v>
       </c>
@@ -7429,7 +7446,7 @@
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>43839</v>
       </c>
@@ -7440,7 +7457,7 @@
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>43840</v>
       </c>
@@ -7451,7 +7468,7 @@
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>43841</v>
       </c>
@@ -7468,7 +7485,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>43842</v>
       </c>
@@ -7479,7 +7496,7 @@
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>43843</v>
       </c>
@@ -7490,7 +7507,7 @@
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>43844</v>
       </c>
@@ -7501,7 +7518,7 @@
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>43845</v>
       </c>
@@ -7512,7 +7529,7 @@
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>43846</v>
       </c>
@@ -7523,7 +7540,7 @@
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>43847</v>
       </c>
@@ -7534,7 +7551,7 @@
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>43848</v>
       </c>
@@ -7551,7 +7568,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>43849</v>
       </c>
@@ -7562,7 +7579,7 @@
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>43850</v>
       </c>
@@ -7573,7 +7590,7 @@
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>43851</v>
       </c>
@@ -7584,7 +7601,7 @@
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>43852</v>
       </c>
@@ -7595,7 +7612,7 @@
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>43853</v>
       </c>
@@ -7606,7 +7623,7 @@
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>43854</v>
       </c>
@@ -7617,7 +7634,7 @@
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>43855</v>
       </c>
@@ -7634,7 +7651,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>43856</v>
       </c>
@@ -7645,7 +7662,7 @@
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>43857</v>
       </c>
@@ -7656,7 +7673,7 @@
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>43858</v>
       </c>
@@ -7667,7 +7684,7 @@
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>43859</v>
       </c>
@@ -7678,7 +7695,7 @@
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>43860</v>
       </c>
@@ -7689,7 +7706,7 @@
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>43861</v>
       </c>
@@ -7704,7 +7721,7 @@
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>43862</v>
       </c>
@@ -7721,7 +7738,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>43863</v>
       </c>
@@ -7732,7 +7749,7 @@
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>43864</v>
       </c>
@@ -7743,7 +7760,7 @@
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>43865</v>
       </c>
@@ -7754,7 +7771,7 @@
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>43866</v>
       </c>
@@ -7765,7 +7782,7 @@
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>43867</v>
       </c>
@@ -7776,7 +7793,7 @@
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>43868</v>
       </c>
@@ -7787,7 +7804,7 @@
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>43869</v>
       </c>
@@ -7804,7 +7821,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>43870</v>
       </c>
@@ -7815,7 +7832,7 @@
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>43871</v>
       </c>
@@ -7826,7 +7843,7 @@
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>43872</v>
       </c>
@@ -7837,7 +7854,7 @@
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>43873</v>
       </c>
@@ -7848,7 +7865,7 @@
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>43874</v>
       </c>
@@ -7859,7 +7876,7 @@
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>43875</v>
       </c>
@@ -7870,7 +7887,7 @@
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>43876</v>
       </c>
@@ -7887,7 +7904,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>43877</v>
       </c>
@@ -7898,7 +7915,7 @@
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>43878</v>
       </c>
@@ -7909,7 +7926,7 @@
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>43879</v>
       </c>
@@ -7920,7 +7937,7 @@
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>43880</v>
       </c>
@@ -7931,7 +7948,7 @@
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>43881</v>
       </c>
@@ -7942,7 +7959,7 @@
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>43882</v>
       </c>
@@ -7953,7 +7970,7 @@
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>43883</v>
       </c>
@@ -7970,7 +7987,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>43884</v>
       </c>
@@ -7981,7 +7998,7 @@
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>43885</v>
       </c>
@@ -7992,7 +8009,7 @@
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>43886</v>
       </c>
@@ -8003,7 +8020,7 @@
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>43887</v>
       </c>
@@ -8014,7 +8031,7 @@
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>43888</v>
       </c>
@@ -8025,7 +8042,7 @@
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>43889</v>
       </c>
@@ -8040,7 +8057,7 @@
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>43890</v>
       </c>
@@ -8057,7 +8074,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>43891</v>
       </c>
@@ -8068,7 +8085,7 @@
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>43892</v>
       </c>
@@ -8079,7 +8096,7 @@
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>43893</v>
       </c>
@@ -8090,7 +8107,7 @@
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>43894</v>
       </c>
@@ -8101,7 +8118,7 @@
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>43895</v>
       </c>
@@ -8112,7 +8129,7 @@
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>43896</v>
       </c>
@@ -8123,7 +8140,7 @@
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>43897</v>
       </c>
@@ -8140,7 +8157,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>43898</v>
       </c>
@@ -8151,7 +8168,7 @@
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>43899</v>
       </c>
@@ -8162,7 +8179,7 @@
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>43900</v>
       </c>
@@ -8173,7 +8190,7 @@
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>43901</v>
       </c>
@@ -8184,7 +8201,7 @@
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>43902</v>
       </c>
@@ -8195,7 +8212,7 @@
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>43903</v>
       </c>
@@ -8206,7 +8223,7 @@
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>43904</v>
       </c>
@@ -8223,7 +8240,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>43905</v>
       </c>
@@ -8234,7 +8251,7 @@
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>43906</v>
       </c>
@@ -8245,7 +8262,7 @@
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>43907</v>
       </c>
@@ -8256,7 +8273,7 @@
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>43908</v>
       </c>
@@ -8267,7 +8284,7 @@
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>43909</v>
       </c>
@@ -8278,7 +8295,7 @@
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>43910</v>
       </c>
@@ -8289,7 +8306,7 @@
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>43911</v>
       </c>
@@ -8306,7 +8323,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>43912</v>
       </c>
@@ -8317,7 +8334,7 @@
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>43913</v>
       </c>
@@ -8328,7 +8345,7 @@
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>43914</v>
       </c>
@@ -8339,7 +8356,7 @@
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>43915</v>
       </c>
@@ -8350,7 +8367,7 @@
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>43916</v>
       </c>
@@ -8361,7 +8378,7 @@
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>43917</v>
       </c>
@@ -8372,7 +8389,7 @@
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>43918</v>
       </c>
@@ -8389,7 +8406,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>43919</v>
       </c>
@@ -8400,7 +8417,7 @@
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>43920</v>
       </c>
@@ -8411,7 +8428,7 @@
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>43921</v>
       </c>
@@ -8426,7 +8443,7 @@
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>43922</v>
       </c>
@@ -8437,7 +8454,7 @@
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>43923</v>
       </c>
@@ -8448,7 +8465,7 @@
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>43924</v>
       </c>
@@ -8459,7 +8476,7 @@
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>43925</v>
       </c>
@@ -8476,7 +8493,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>43926</v>
       </c>
@@ -8487,7 +8504,7 @@
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>43927</v>
       </c>
@@ -8498,7 +8515,7 @@
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>43928</v>
       </c>
@@ -8509,7 +8526,7 @@
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>43929</v>
       </c>
@@ -8520,7 +8537,7 @@
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>43930</v>
       </c>
@@ -8531,7 +8548,7 @@
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>43931</v>
       </c>
@@ -8542,7 +8559,7 @@
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>43932</v>
       </c>
@@ -8559,7 +8576,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>43933</v>
       </c>
@@ -8570,7 +8587,7 @@
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>43934</v>
       </c>
@@ -8581,7 +8598,7 @@
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>43935</v>
       </c>
@@ -8592,7 +8609,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>43936</v>
       </c>
@@ -8603,7 +8620,7 @@
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>43937</v>
       </c>
@@ -8614,7 +8631,7 @@
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>43938</v>
       </c>
@@ -8625,7 +8642,7 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>43939</v>
       </c>
@@ -8642,7 +8659,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>43940</v>
       </c>
@@ -8653,7 +8670,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>43941</v>
       </c>
@@ -8664,7 +8681,7 @@
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>43942</v>
       </c>
@@ -8675,7 +8692,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>43943</v>
       </c>
@@ -8686,7 +8703,7 @@
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>43944</v>
       </c>
@@ -8697,7 +8714,7 @@
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>43945</v>
       </c>
@@ -8708,7 +8725,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>43946</v>
       </c>
@@ -8719,7 +8736,7 @@
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>43947</v>
       </c>
@@ -8730,7 +8747,7 @@
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>43948</v>
       </c>
@@ -8741,7 +8758,7 @@
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>43949</v>
       </c>
@@ -8752,7 +8769,7 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>43950</v>
       </c>
@@ -8763,7 +8780,7 @@
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>43951</v>
       </c>
@@ -8778,7 +8795,7 @@
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>43952</v>
       </c>
@@ -8789,7 +8806,7 @@
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>43953</v>
       </c>
@@ -8806,7 +8823,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>43954</v>
       </c>
@@ -8817,7 +8834,7 @@
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>43955</v>
       </c>
@@ -8828,7 +8845,7 @@
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>43956</v>
       </c>
@@ -8839,7 +8856,7 @@
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>43957</v>
       </c>
@@ -8850,7 +8867,7 @@
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>43958</v>
       </c>
@@ -8861,7 +8878,7 @@
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>43959</v>
       </c>
@@ -8873,7 +8890,7 @@
       <c r="G497" s="21"/>
       <c r="H497" s="21"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>43960</v>
       </c>
@@ -8891,7 +8908,7 @@
       </c>
       <c r="H498" s="21"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>43961</v>
       </c>
@@ -8903,7 +8920,7 @@
       <c r="G499" s="21"/>
       <c r="H499" s="21"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>43962</v>
       </c>
@@ -8915,7 +8932,7 @@
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>43963</v>
       </c>
@@ -8927,7 +8944,7 @@
       <c r="G501" s="21"/>
       <c r="H501" s="21"/>
     </row>
-    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>43964</v>
       </c>
@@ -8939,7 +8956,7 @@
       <c r="G502" s="21"/>
       <c r="H502" s="21"/>
     </row>
-    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>43965</v>
       </c>
@@ -8951,7 +8968,7 @@
       <c r="G503" s="21"/>
       <c r="H503" s="21"/>
     </row>
-    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8">
         <v>43966</v>
       </c>
@@ -8963,7 +8980,7 @@
       <c r="G504" s="21"/>
       <c r="H504" s="21"/>
     </row>
-    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8">
         <v>43967</v>
       </c>
@@ -8981,7 +8998,7 @@
       </c>
       <c r="H505" s="21"/>
     </row>
-    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8">
         <v>43968</v>
       </c>
@@ -8993,7 +9010,7 @@
       <c r="G506" s="21"/>
       <c r="H506" s="21"/>
     </row>
-    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8">
         <v>43969</v>
       </c>
@@ -9005,7 +9022,7 @@
       <c r="G507" s="21"/>
       <c r="H507" s="21"/>
     </row>
-    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8">
         <v>43970</v>
       </c>
@@ -9017,7 +9034,7 @@
       <c r="G508" s="21"/>
       <c r="H508" s="21"/>
     </row>
-    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8">
         <v>43971</v>
       </c>
@@ -9029,7 +9046,7 @@
       <c r="G509" s="21"/>
       <c r="H509" s="21"/>
     </row>
-    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8">
         <v>43972</v>
       </c>
@@ -9041,7 +9058,7 @@
       <c r="G510" s="21"/>
       <c r="H510" s="21"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="8">
         <v>43973</v>
       </c>
@@ -9053,7 +9070,7 @@
       <c r="G511" s="21"/>
       <c r="H511" s="21"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="8">
         <v>43974</v>
       </c>
@@ -9071,7 +9088,7 @@
       </c>
       <c r="H512" s="21"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="8">
         <v>43975</v>
       </c>
@@ -9083,7 +9100,7 @@
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="8">
         <v>43976</v>
       </c>
@@ -9095,7 +9112,7 @@
       <c r="G514" s="21"/>
       <c r="H514" s="21"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="8">
         <v>43977</v>
       </c>
@@ -9107,7 +9124,7 @@
       <c r="G515" s="21"/>
       <c r="H515" s="21"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="8">
         <v>43978</v>
       </c>
@@ -9119,7 +9136,7 @@
       <c r="G516" s="21"/>
       <c r="H516" s="21"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="8">
         <v>43979</v>
       </c>
@@ -9131,7 +9148,7 @@
       <c r="G517" s="21"/>
       <c r="H517" s="21"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="8">
         <v>43980</v>
       </c>
@@ -9143,7 +9160,7 @@
       <c r="G518" s="21"/>
       <c r="H518" s="21"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="8">
         <v>43981</v>
       </c>
@@ -9161,7 +9178,7 @@
       </c>
       <c r="H519" s="21"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="8">
         <v>43982</v>
       </c>
@@ -9177,7 +9194,7 @@
       <c r="G520" s="21"/>
       <c r="H520" s="21"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="8">
         <v>43983</v>
       </c>
@@ -9189,7 +9206,7 @@
       <c r="G521" s="21"/>
       <c r="H521" s="21"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="8">
         <v>43984</v>
       </c>
@@ -9201,7 +9218,7 @@
       <c r="G522" s="21"/>
       <c r="H522" s="21"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="8">
         <v>43985</v>
       </c>
@@ -9213,7 +9230,7 @@
       <c r="G523" s="21"/>
       <c r="H523" s="21"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="8">
         <v>43986</v>
       </c>
@@ -9225,7 +9242,7 @@
       <c r="G524" s="21"/>
       <c r="H524" s="21"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="8">
         <v>43987</v>
       </c>
@@ -9237,7 +9254,7 @@
       <c r="G525" s="21"/>
       <c r="H525" s="21"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="8">
         <v>43988</v>
       </c>
@@ -9255,7 +9272,7 @@
       </c>
       <c r="H526" s="21"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="8">
         <v>43989</v>
       </c>
@@ -9267,7 +9284,7 @@
       <c r="G527" s="21"/>
       <c r="H527" s="21"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="8">
         <v>43990</v>
       </c>
@@ -9275,7 +9292,7 @@
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="8">
         <v>43991</v>
       </c>
@@ -9286,7 +9303,7 @@
       <c r="F529" s="21"/>
       <c r="G529" s="21"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="8">
         <v>43992</v>
       </c>
@@ -9294,7 +9311,7 @@
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="8">
         <v>43993</v>
       </c>
@@ -9302,7 +9319,7 @@
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="8">
         <v>43994</v>
       </c>
@@ -9310,7 +9327,7 @@
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="8">
         <v>43995</v>
       </c>
@@ -9327,7 +9344,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="8">
         <v>43996</v>
       </c>
@@ -9335,7 +9352,7 @@
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="8">
         <v>43997</v>
       </c>
@@ -9343,7 +9360,7 @@
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="8">
         <v>43998</v>
       </c>
@@ -9351,7 +9368,7 @@
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="8">
         <v>43999</v>
       </c>
@@ -9360,7 +9377,7 @@
       <c r="D537" s="25"/>
       <c r="H537" s="21"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="8">
         <v>44000</v>
       </c>
@@ -9368,7 +9385,7 @@
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="8">
         <v>44001</v>
       </c>
@@ -9376,7 +9393,7 @@
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="8">
         <v>44002</v>
       </c>
@@ -9393,7 +9410,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="8">
         <v>44003</v>
       </c>
@@ -9401,7 +9418,7 @@
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="8">
         <v>44004</v>
       </c>
@@ -9409,7 +9426,7 @@
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="8">
         <v>44005</v>
       </c>
@@ -9417,7 +9434,7 @@
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="8">
         <v>44006</v>
       </c>
@@ -9425,7 +9442,7 @@
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="8">
         <v>44007</v>
       </c>
@@ -9433,7 +9450,7 @@
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="8">
         <v>44008</v>
       </c>
@@ -9441,7 +9458,7 @@
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="8">
         <v>44009</v>
       </c>
@@ -9458,7 +9475,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="8">
         <v>44010</v>
       </c>
@@ -9466,7 +9483,7 @@
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="8">
         <v>44011</v>
       </c>
@@ -9474,7 +9491,7 @@
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="8">
         <v>44012</v>
       </c>
@@ -9486,7 +9503,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="8">
         <v>44013</v>
       </c>
@@ -9494,7 +9511,7 @@
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="8">
         <v>44014</v>
       </c>
@@ -9502,7 +9519,7 @@
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="8">
         <v>44015</v>
       </c>
@@ -9510,7 +9527,7 @@
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="8">
         <v>44016</v>
       </c>
@@ -9527,7 +9544,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="8">
         <v>44017</v>
       </c>
@@ -9535,7 +9552,7 @@
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="8">
         <v>44018</v>
       </c>
@@ -9543,7 +9560,7 @@
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="8">
         <v>44019</v>
       </c>
@@ -9551,7 +9568,7 @@
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="8">
         <v>44020</v>
       </c>
@@ -9559,7 +9576,7 @@
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="8">
         <v>44021</v>
       </c>
@@ -9567,7 +9584,7 @@
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="8">
         <v>44022</v>
       </c>
@@ -9575,7 +9592,7 @@
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="8">
         <v>44023</v>
       </c>
@@ -9592,7 +9609,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="8">
         <v>44024</v>
       </c>
@@ -9600,7 +9617,7 @@
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="8">
         <v>44025</v>
       </c>
@@ -9608,7 +9625,7 @@
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="8">
         <v>44026</v>
       </c>
@@ -9616,7 +9633,7 @@
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="8">
         <v>44027</v>
       </c>
@@ -9624,7 +9641,7 @@
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="8">
         <v>44028</v>
       </c>
@@ -9632,7 +9649,7 @@
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="8">
         <v>44029</v>
       </c>
@@ -9640,7 +9657,7 @@
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="8">
         <v>44030</v>
       </c>
@@ -9657,7 +9674,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="8">
         <v>44031</v>
       </c>
@@ -9665,7 +9682,7 @@
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="8">
         <v>44032</v>
       </c>
@@ -9673,7 +9690,7 @@
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="8">
         <v>44033</v>
       </c>
@@ -9681,7 +9698,7 @@
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="8">
         <v>44034</v>
       </c>
@@ -9689,7 +9706,7 @@
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="8">
         <v>44035</v>
       </c>
@@ -9697,7 +9714,7 @@
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="8">
         <v>44036</v>
       </c>
@@ -9705,7 +9722,7 @@
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="8">
         <v>44037</v>
       </c>
@@ -9722,7 +9739,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="8">
         <v>44038</v>
       </c>
@@ -9730,7 +9747,7 @@
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="8">
         <v>44039</v>
       </c>
@@ -9738,7 +9755,7 @@
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="8">
         <v>44040</v>
       </c>
@@ -9746,7 +9763,7 @@
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="8">
         <v>44041</v>
       </c>
@@ -9754,7 +9771,7 @@
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="8">
         <v>44042</v>
       </c>
@@ -9762,7 +9779,7 @@
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="8">
         <v>44043</v>
       </c>
@@ -9774,7 +9791,7 @@
         <v>1486.92</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="8">
         <v>44044</v>
       </c>
@@ -9791,7 +9808,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="8">
         <v>44045</v>
       </c>
@@ -9799,7 +9816,7 @@
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="8">
         <v>44046</v>
       </c>
@@ -9807,7 +9824,7 @@
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="8">
         <v>44047</v>
       </c>
@@ -9815,7 +9832,7 @@
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="8">
         <v>44048</v>
       </c>
@@ -9823,7 +9840,7 @@
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="8">
         <v>44049</v>
       </c>
@@ -9831,7 +9848,7 @@
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="8">
         <v>44050</v>
       </c>
@@ -9839,7 +9856,7 @@
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="8">
         <v>44051</v>
       </c>
@@ -9856,7 +9873,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="8">
         <v>44052</v>
       </c>
@@ -9864,7 +9881,7 @@
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="8">
         <v>44053</v>
       </c>
@@ -9872,7 +9889,7 @@
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="8">
         <v>44054</v>
       </c>
@@ -9880,7 +9897,7 @@
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="8">
         <v>44055</v>
       </c>
@@ -9888,7 +9905,7 @@
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="8">
         <v>44056</v>
       </c>
@@ -9896,7 +9913,7 @@
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="8">
         <v>44057</v>
       </c>
@@ -9904,7 +9921,7 @@
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="8">
         <v>44058</v>
       </c>
@@ -9921,7 +9938,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="8">
         <v>44059</v>
       </c>
@@ -9929,7 +9946,7 @@
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="8">
         <v>44060</v>
       </c>
@@ -9937,7 +9954,7 @@
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="8">
         <v>44061</v>
       </c>
@@ -9945,7 +9962,7 @@
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="8">
         <v>44062</v>
       </c>
@@ -9953,7 +9970,7 @@
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="8">
         <v>44063</v>
       </c>
@@ -9961,7 +9978,7 @@
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="8">
         <v>44064</v>
       </c>
@@ -9969,7 +9986,7 @@
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="8">
         <v>44065</v>
       </c>
@@ -9986,7 +10003,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="8">
         <v>44066</v>
       </c>
@@ -9994,7 +10011,7 @@
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="8">
         <v>44067</v>
       </c>
@@ -10003,7 +10020,7 @@
       <c r="D605" s="25"/>
       <c r="H605" s="21"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="8">
         <v>44068</v>
       </c>
@@ -10012,7 +10029,7 @@
       <c r="D606" s="25"/>
       <c r="H606" s="21"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="8">
         <v>44069</v>
       </c>
@@ -10021,7 +10038,7 @@
       <c r="D607" s="25"/>
       <c r="H607" s="21"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="8">
         <v>44070</v>
       </c>
@@ -10030,7 +10047,7 @@
       <c r="D608" s="25"/>
       <c r="H608" s="21"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="8">
         <v>44071</v>
       </c>
@@ -10039,7 +10056,7 @@
       <c r="D609" s="25"/>
       <c r="H609" s="21"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="8">
         <v>44072</v>
       </c>
@@ -10057,7 +10074,7 @@
       </c>
       <c r="H610" s="21"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="8">
         <v>44073</v>
       </c>
@@ -10066,7 +10083,7 @@
       <c r="D611" s="25"/>
       <c r="H611" s="21"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="8">
         <v>44074</v>
       </c>
@@ -10079,7 +10096,7 @@
       </c>
       <c r="H612" s="21"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="8">
         <v>44075</v>
       </c>
@@ -10088,7 +10105,7 @@
       <c r="D613" s="25"/>
       <c r="H613" s="21"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="8">
         <v>44076</v>
       </c>
@@ -10097,7 +10114,7 @@
       <c r="D614" s="25"/>
       <c r="H614" s="21"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="8">
         <v>44077</v>
       </c>
@@ -10106,7 +10123,7 @@
       <c r="D615" s="25"/>
       <c r="H615" s="21"/>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="8">
         <v>44078</v>
       </c>
@@ -10115,7 +10132,7 @@
       <c r="D616" s="25"/>
       <c r="H616" s="21"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="8">
         <v>44079</v>
       </c>
@@ -10133,7 +10150,7 @@
       </c>
       <c r="H617" s="21"/>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="8">
         <v>44080</v>
       </c>
@@ -10142,7 +10159,7 @@
       <c r="D618" s="25"/>
       <c r="H618" s="21"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="8">
         <v>44081</v>
       </c>
@@ -10150,7 +10167,7 @@
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="8">
         <v>44082</v>
       </c>
@@ -10158,7 +10175,7 @@
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="8">
         <v>44083</v>
       </c>
@@ -10166,7 +10183,7 @@
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="8">
         <v>44084</v>
       </c>
@@ -10174,7 +10191,7 @@
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="8">
         <v>44085</v>
       </c>
@@ -10182,7 +10199,7 @@
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="8">
         <v>44086</v>
       </c>
@@ -10199,7 +10216,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="8">
         <v>44087</v>
       </c>
@@ -10207,7 +10224,7 @@
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="8">
         <v>44088</v>
       </c>
@@ -10216,7 +10233,7 @@
       <c r="D626" s="25"/>
       <c r="H626" s="21"/>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="8">
         <v>44089</v>
       </c>
@@ -10225,7 +10242,7 @@
       <c r="D627" s="25"/>
       <c r="H627" s="21"/>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="8">
         <v>44090</v>
       </c>
@@ -10234,7 +10251,7 @@
       <c r="D628" s="25"/>
       <c r="H628" s="21"/>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="8">
         <v>44091</v>
       </c>
@@ -10243,7 +10260,7 @@
       <c r="D629" s="25"/>
       <c r="H629" s="21"/>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="8">
         <v>44092</v>
       </c>
@@ -10252,7 +10269,7 @@
       <c r="D630" s="25"/>
       <c r="H630" s="21"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="8">
         <v>44093</v>
       </c>
@@ -10270,7 +10287,7 @@
       </c>
       <c r="H631" s="21"/>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="8">
         <v>44094</v>
       </c>
@@ -10279,7 +10296,7 @@
       <c r="D632" s="25"/>
       <c r="H632" s="21"/>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="8">
         <v>44095</v>
       </c>
@@ -10287,7 +10304,7 @@
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="8">
         <v>44096</v>
       </c>
@@ -10295,7 +10312,7 @@
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="8">
         <v>44097</v>
       </c>
@@ -10303,7 +10320,7 @@
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="8">
         <v>44098</v>
       </c>
@@ -10311,7 +10328,7 @@
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="8">
         <v>44099</v>
       </c>
@@ -10319,7 +10336,7 @@
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="8">
         <v>44100</v>
       </c>
@@ -10336,7 +10353,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="8">
         <v>44101</v>
       </c>
@@ -10344,7 +10361,7 @@
       <c r="C639" s="25"/>
       <c r="D639" s="25"/>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="8">
         <v>44102</v>
       </c>
@@ -10352,7 +10369,7 @@
       <c r="C640" s="25"/>
       <c r="D640" s="25"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="8">
         <v>44103</v>
       </c>
@@ -10360,7 +10377,7 @@
       <c r="C641" s="25"/>
       <c r="D641" s="25"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="8">
         <v>44104</v>
       </c>
@@ -10372,7 +10389,7 @@
         <v>1477.77</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="8">
         <v>44105</v>
       </c>
@@ -10380,7 +10397,7 @@
       <c r="C643" s="25"/>
       <c r="D643" s="25"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="8">
         <v>44106</v>
       </c>
@@ -10388,7 +10405,7 @@
       <c r="C644" s="25"/>
       <c r="D644" s="25"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="8">
         <v>44107</v>
       </c>
@@ -10396,7 +10413,7 @@
       <c r="C645" s="25"/>
       <c r="D645" s="25"/>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="8">
         <v>44108</v>
       </c>
@@ -10404,7 +10421,7 @@
       <c r="C646" s="25"/>
       <c r="D646" s="25"/>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="8">
         <v>44109</v>
       </c>
@@ -10412,7 +10429,7 @@
       <c r="C647" s="25"/>
       <c r="D647" s="25"/>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="8">
         <v>44110</v>
       </c>
@@ -10420,7 +10437,7 @@
       <c r="C648" s="25"/>
       <c r="D648" s="25"/>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="8">
         <v>44111</v>
       </c>
@@ -10428,7 +10445,7 @@
       <c r="C649" s="25"/>
       <c r="D649" s="25"/>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="8">
         <v>44112</v>
       </c>
@@ -10436,7 +10453,7 @@
       <c r="C650" s="25"/>
       <c r="D650" s="25"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="8">
         <v>44113</v>
       </c>
@@ -10444,7 +10461,7 @@
       <c r="C651" s="25"/>
       <c r="D651" s="25"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="8">
         <v>44114</v>
       </c>
@@ -10452,7 +10469,7 @@
       <c r="C652" s="25"/>
       <c r="D652" s="25"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="8">
         <v>44115</v>
       </c>
@@ -10460,7 +10477,7 @@
       <c r="C653" s="25"/>
       <c r="D653" s="25"/>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="8">
         <v>44116</v>
       </c>
@@ -10468,7 +10485,7 @@
       <c r="C654" s="25"/>
       <c r="D654" s="25"/>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="8">
         <v>44117</v>
       </c>
@@ -10476,7 +10493,7 @@
       <c r="C655" s="25"/>
       <c r="D655" s="25"/>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="8">
         <v>44118</v>
       </c>
@@ -10484,7 +10501,7 @@
       <c r="C656" s="25"/>
       <c r="D656" s="25"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="8">
         <v>44119</v>
       </c>
@@ -10492,7 +10509,7 @@
       <c r="C657" s="25"/>
       <c r="D657" s="25"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="8">
         <v>44120</v>
       </c>
@@ -10500,7 +10517,7 @@
       <c r="C658" s="25"/>
       <c r="D658" s="25"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="8">
         <v>44121</v>
       </c>
@@ -10517,7 +10534,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="8">
         <v>44122</v>
       </c>
@@ -10525,7 +10542,7 @@
       <c r="C660" s="25"/>
       <c r="D660" s="25"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="8">
         <v>44123</v>
       </c>
@@ -10533,7 +10550,7 @@
       <c r="C661" s="25"/>
       <c r="D661" s="25"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="8">
         <v>44124</v>
       </c>
@@ -10541,7 +10558,7 @@
       <c r="C662" s="25"/>
       <c r="D662" s="25"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="8">
         <v>44125</v>
       </c>
@@ -10549,7 +10566,7 @@
       <c r="C663" s="25"/>
       <c r="D663" s="25"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="8">
         <v>44126</v>
       </c>
@@ -10557,7 +10574,7 @@
       <c r="C664" s="25"/>
       <c r="D664" s="25"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="8">
         <v>44127</v>
       </c>
@@ -10565,7 +10582,7 @@
       <c r="C665" s="25"/>
       <c r="D665" s="25"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="8">
         <v>44128</v>
       </c>
@@ -10582,7 +10599,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="8">
         <v>44129</v>
       </c>
@@ -10590,7 +10607,7 @@
       <c r="C667" s="25"/>
       <c r="D667" s="25"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="8">
         <v>44130</v>
       </c>
@@ -10598,7 +10615,7 @@
       <c r="C668" s="25"/>
       <c r="D668" s="25"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="8">
         <v>44131</v>
       </c>
@@ -10606,7 +10623,7 @@
       <c r="C669" s="25"/>
       <c r="D669" s="25"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="8">
         <v>44132</v>
       </c>
@@ -10614,7 +10631,7 @@
       <c r="C670" s="25"/>
       <c r="D670" s="25"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="8">
         <v>44133</v>
       </c>
@@ -10622,7 +10639,7 @@
       <c r="C671" s="25"/>
       <c r="D671" s="25"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="8">
         <v>44134</v>
       </c>
@@ -10630,7 +10647,7 @@
       <c r="C672" s="25"/>
       <c r="D672" s="25"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="8">
         <v>44135</v>
       </c>
@@ -10651,7 +10668,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="8">
         <v>44136</v>
       </c>
@@ -10659,7 +10676,7 @@
       <c r="C674" s="25"/>
       <c r="D674" s="25"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="8">
         <v>44137</v>
       </c>
@@ -10667,7 +10684,7 @@
       <c r="C675" s="25"/>
       <c r="D675" s="25"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="8">
         <v>44138</v>
       </c>
@@ -10675,7 +10692,7 @@
       <c r="C676" s="25"/>
       <c r="D676" s="25"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="8">
         <v>44139</v>
       </c>
@@ -10683,7 +10700,7 @@
       <c r="C677" s="25"/>
       <c r="D677" s="25"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="8">
         <v>44140</v>
       </c>
@@ -10691,7 +10708,7 @@
       <c r="C678" s="25"/>
       <c r="D678" s="25"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="8">
         <v>44141</v>
       </c>
@@ -10699,7 +10716,7 @@
       <c r="C679" s="25"/>
       <c r="D679" s="25"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="8">
         <v>44142</v>
       </c>
@@ -10716,7 +10733,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="8">
         <v>44143</v>
       </c>
@@ -10724,7 +10741,7 @@
       <c r="C681" s="25"/>
       <c r="D681" s="25"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="8">
         <v>44144</v>
       </c>
@@ -10732,7 +10749,7 @@
       <c r="C682" s="25"/>
       <c r="D682" s="25"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="8">
         <v>44145</v>
       </c>
@@ -10740,7 +10757,7 @@
       <c r="C683" s="25"/>
       <c r="D683" s="25"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="8">
         <v>44146</v>
       </c>
@@ -10748,7 +10765,7 @@
       <c r="C684" s="25"/>
       <c r="D684" s="25"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="8">
         <v>44147</v>
       </c>
@@ -10756,7 +10773,7 @@
       <c r="C685" s="25"/>
       <c r="D685" s="25"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="8">
         <v>44148</v>
       </c>
@@ -10764,7 +10781,7 @@
       <c r="C686" s="25"/>
       <c r="D686" s="25"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="8">
         <v>44149</v>
       </c>
@@ -10781,7 +10798,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="8">
         <v>44150</v>
       </c>
@@ -10789,7 +10806,7 @@
       <c r="C688" s="25"/>
       <c r="D688" s="25"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="8">
         <v>44151</v>
       </c>
@@ -10797,7 +10814,7 @@
       <c r="C689" s="25"/>
       <c r="D689" s="25"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="8">
         <v>44152</v>
       </c>
@@ -10805,7 +10822,7 @@
       <c r="C690" s="25"/>
       <c r="D690" s="25"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="8">
         <v>44153</v>
       </c>
@@ -10813,7 +10830,7 @@
       <c r="C691" s="25"/>
       <c r="D691" s="25"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="8">
         <v>44154</v>
       </c>
@@ -10821,7 +10838,7 @@
       <c r="C692" s="25"/>
       <c r="D692" s="25"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="8">
         <v>44155</v>
       </c>
@@ -10829,7 +10846,7 @@
       <c r="C693" s="25"/>
       <c r="D693" s="25"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="8">
         <v>44156</v>
       </c>
@@ -10846,7 +10863,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="8">
         <v>44157</v>
       </c>
@@ -10854,7 +10871,7 @@
       <c r="C695" s="25"/>
       <c r="D695" s="25"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="8">
         <v>44158</v>
       </c>
@@ -10862,7 +10879,7 @@
       <c r="C696" s="25"/>
       <c r="D696" s="25"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="8">
         <v>44159</v>
       </c>
@@ -10870,7 +10887,7 @@
       <c r="C697" s="25"/>
       <c r="D697" s="25"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="8">
         <v>44160</v>
       </c>
@@ -10878,7 +10895,7 @@
       <c r="C698" s="25"/>
       <c r="D698" s="25"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="8">
         <v>44161</v>
       </c>
@@ -10886,7 +10903,7 @@
       <c r="C699" s="25"/>
       <c r="D699" s="25"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="8">
         <v>44162</v>
       </c>
@@ -10894,7 +10911,7 @@
       <c r="C700" s="25"/>
       <c r="D700" s="25"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="8">
         <v>44163</v>
       </c>
@@ -10902,7 +10919,7 @@
       <c r="C701" s="25"/>
       <c r="D701" s="25"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="8">
         <v>44164</v>
       </c>
@@ -10929,37 +10946,37 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.98828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.26171875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="31.74609375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.28125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="47.484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.51171875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.69140625" style="10" customWidth="1"/>
-    <col min="8" max="9" width="17.75390625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.4453125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="27.44140625" style="10" customWidth="1"/>
-    <col min="16" max="22" width="11.1640625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="15.73828125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="11.1640625" style="10" customWidth="1"/>
-    <col min="25" max="25" width="27.44140625" style="10" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="13.98828125" style="10"/>
+    <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" style="10" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" style="10" customWidth="1"/>
+    <col min="16" max="22" width="11.140625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="10" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -11027,7 +11044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>18</v>
       </c>
@@ -11084,7 +11101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>18</v>
       </c>
@@ -11141,7 +11158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>19</v>
       </c>
@@ -11198,7 +11215,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>19</v>
       </c>
@@ -11255,7 +11272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>19</v>
       </c>
@@ -11312,7 +11329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>19</v>
       </c>
@@ -11367,7 +11384,7 @@
       </c>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>19</v>
       </c>
@@ -11422,7 +11439,7 @@
       </c>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>19</v>
       </c>
@@ -11477,7 +11494,7 @@
       </c>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>19</v>
       </c>
@@ -11532,7 +11549,7 @@
       </c>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>19</v>
       </c>
@@ -11591,7 +11608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>15</v>
       </c>
@@ -11648,7 +11665,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -11668,7 +11685,7 @@
       <c r="Q13" s="14"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -11696,7 +11713,7 @@
       <c r="Q14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -11716,7 +11733,7 @@
       <c r="Q15" s="14"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -11736,7 +11753,7 @@
       <c r="Q16" s="14"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -11756,7 +11773,7 @@
       <c r="Q17" s="14"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -11776,7 +11793,7 @@
       <c r="Q18" s="14"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -11796,7 +11813,7 @@
       <c r="Q19" s="14"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -11816,7 +11833,7 @@
       <c r="Q20" s="14"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -11836,7 +11853,7 @@
       <c r="Q21" s="14"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -11856,7 +11873,7 @@
       <c r="Q22" s="14"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -11876,1002 +11893,1002 @@
       <c r="Q23" s="14"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{5BF57AB9-6786-45D4-9B41-00A80ED5A879}"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1304" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E42625C7-D8C7-4A64-8C2E-64D038E7EE3C}"/>
+  <xr:revisionPtr revIDLastSave="1306" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28101860-F039-4B97-A3F8-A6BE3AA7CF13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1645,7 +1645,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C702" sqref="C702"/>
+      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1306" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28101860-F039-4B97-A3F8-A6BE3AA7CF13}"/>
+  <xr:revisionPtr revIDLastSave="1308" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{754C5733-7498-4231-9ABF-E6DF9E3243FF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
     </sheetView>
   </sheetViews>
@@ -10946,10 +10946,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1308" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{754C5733-7498-4231-9ABF-E6DF9E3243FF}"/>
+  <xr:revisionPtr revIDLastSave="1310" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F0F808F-91B9-487C-B32C-DC3105E20D78}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A688" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
     </sheetView>
   </sheetViews>
@@ -10949,7 +10949,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1310" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F0F808F-91B9-487C-B32C-DC3105E20D78}"/>
+  <xr:revisionPtr revIDLastSave="1322" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EE93B57-0D31-49CE-B25C-B3992DF64163}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R702"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A688" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
+      <pane ySplit="3" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F702" sqref="F702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,7 +2721,7 @@
         <v>331.32889999999998</v>
       </c>
       <c r="N28" s="2">
-        <v>43482.339</v>
+        <v>43308.890000000007</v>
       </c>
       <c r="O28" s="2">
         <v>1111219.905</v>
@@ -2758,7 +2758,7 @@
         <v>328.63400000000001</v>
       </c>
       <c r="N29" s="2">
-        <v>52653.085999999996</v>
+        <v>51395.210000000006</v>
       </c>
       <c r="O29" s="2">
         <v>1038882.9299999999</v>
@@ -2795,7 +2795,7 @@
         <v>364.33889770244838</v>
       </c>
       <c r="N30" s="2">
-        <v>60651.198999999993</v>
+        <v>60634.097999999991</v>
       </c>
       <c r="O30" s="2">
         <v>1017322.97</v>
@@ -2834,7 +2834,7 @@
         <v>333.48007691186666</v>
       </c>
       <c r="N31" s="2">
-        <v>68424.034</v>
+        <v>68221.039000000004</v>
       </c>
       <c r="O31" s="2">
         <v>1160800.395</v>
@@ -2908,7 +2908,7 @@
         <v>343.69303369887035</v>
       </c>
       <c r="N33" s="2">
-        <v>56420.404000000002</v>
+        <v>86458.164999999994</v>
       </c>
       <c r="O33" s="2">
         <v>1161410.8489999999</v>
@@ -2951,7 +2951,7 @@
         <v>322.31220289308749</v>
       </c>
       <c r="N34" s="2">
-        <v>77405.130999999994</v>
+        <v>275466.90400000004</v>
       </c>
       <c r="O34" s="2">
         <v>1114362.077</v>
@@ -2988,7 +2988,7 @@
         <v>339.43098738157141</v>
       </c>
       <c r="N35" s="2">
-        <v>63098.324999999997</v>
+        <v>149332.53999999998</v>
       </c>
       <c r="O35" s="2">
         <v>1042562.5420000001</v>
@@ -3033,7 +3033,7 @@
         <v>334.79059757082905</v>
       </c>
       <c r="N36" s="2">
-        <v>61629.516000000003</v>
+        <v>214166.18599999999</v>
       </c>
       <c r="O36" s="2">
         <v>973233.25699999998</v>
@@ -3072,7 +3072,7 @@
         <v>357.60777156513046</v>
       </c>
       <c r="N37" s="2">
-        <v>63678.347000000002</v>
+        <v>223565.72999999995</v>
       </c>
       <c r="O37" s="2">
         <v>1168093.5159999998</v>
@@ -3185,7 +3185,7 @@
         <v>339.61158109834963</v>
       </c>
       <c r="N40" s="2">
-        <v>51503.478000000003</v>
+        <v>157509.23899999997</v>
       </c>
       <c r="O40" s="2">
         <v>913121.64900000009</v>
@@ -3222,7 +3222,7 @@
         <v>334.01742836097281</v>
       </c>
       <c r="N41" s="2">
-        <v>54227.436999999991</v>
+        <v>184085.48299999998</v>
       </c>
       <c r="O41" s="2">
         <v>750772.66500000004</v>
@@ -3259,7 +3259,7 @@
         <v>366.38633514958934</v>
       </c>
       <c r="N42" s="2">
-        <v>69413.402000000002</v>
+        <v>181206.992</v>
       </c>
       <c r="O42" s="2">
         <v>787744.87099999993</v>
@@ -3304,7 +3304,7 @@
         <v>245.00732997578669</v>
       </c>
       <c r="N43" s="2">
-        <v>59005.919000000002</v>
+        <v>89167.92</v>
       </c>
       <c r="O43" s="2">
         <v>533206.50500000012</v>
@@ -3341,7 +3341,7 @@
         <v>225.38759592718446</v>
       </c>
       <c r="N44" s="2">
-        <v>44765.543999999994</v>
+        <v>78383.502000000008</v>
       </c>
       <c r="O44" s="2">
         <v>493292.21799999999</v>
@@ -3378,7 +3378,7 @@
         <v>238.98816111041066</v>
       </c>
       <c r="N45" s="2">
-        <v>56461.284</v>
+        <v>107559.02799999998</v>
       </c>
       <c r="O45" s="2">
         <v>523101.42599999998</v>
@@ -3417,7 +3417,7 @@
         <v>222.70585963798015</v>
       </c>
       <c r="N46" s="2">
-        <v>52641.306000000011</v>
+        <v>91433.98000000001</v>
       </c>
       <c r="O46" s="2">
         <v>556779.63899999997</v>
@@ -3454,7 +3454,7 @@
         <v>240.42959604465955</v>
       </c>
       <c r="N47" s="2">
-        <v>50175.788</v>
+        <v>188088.80299999999</v>
       </c>
       <c r="O47" s="2">
         <v>584213.68099999998</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="2">
-        <v>51815.226999999999</v>
+        <v>226098.86000000007</v>
       </c>
       <c r="O48" s="2">
         <v>652482.00699999998</v>
@@ -3520,7 +3520,9 @@
         <f t="shared" si="3"/>
         <v>Octubre, 2020</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" s="2">
+        <v>146935.70398999998</v>
+      </c>
       <c r="O49" s="2">
         <v>726934.16200000001</v>
       </c>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1322" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EE93B57-0D31-49CE-B25C-B3992DF64163}"/>
+  <xr:revisionPtr revIDLastSave="1326" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACA2D15F-A047-4B09-B264-EF4317AB10F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H702" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H702" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H709" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H709" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1641,11 +1641,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R702"/>
+  <dimension ref="A1:R709"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F702" sqref="F702"/>
+      <pane ySplit="3" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A709" sqref="A709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10929,6 +10929,66 @@
       <c r="C702" s="25"/>
       <c r="D702" s="25"/>
     </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703" s="8">
+        <v>44165</v>
+      </c>
+      <c r="B703" s="25"/>
+      <c r="C703" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D703" s="23">
+        <v>1442.77</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704" s="8">
+        <v>44166</v>
+      </c>
+      <c r="B704" s="25"/>
+      <c r="C704" s="25"/>
+      <c r="D704" s="25"/>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705" s="8">
+        <v>44167</v>
+      </c>
+      <c r="B705" s="25"/>
+      <c r="C705" s="25"/>
+      <c r="D705" s="25"/>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706" s="8">
+        <v>44168</v>
+      </c>
+      <c r="B706" s="25"/>
+      <c r="C706" s="25"/>
+      <c r="D706" s="25"/>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707" s="8">
+        <v>44169</v>
+      </c>
+      <c r="B707" s="25"/>
+      <c r="C707" s="25"/>
+      <c r="D707" s="25"/>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708" s="8">
+        <v>44170</v>
+      </c>
+      <c r="B708" s="25"/>
+      <c r="C708" s="25"/>
+      <c r="D708" s="25"/>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709" s="8">
+        <v>44171</v>
+      </c>
+      <c r="B709" s="25"/>
+      <c r="C709" s="25"/>
+      <c r="D709" s="25"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
     <sortCondition ref="S16:S27"/>
@@ -10948,10 +11008,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1326" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACA2D15F-A047-4B09-B264-EF4317AB10F0}"/>
+  <xr:revisionPtr revIDLastSave="1328" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE51FB2A-24F4-4280-A75B-A074EF010CC1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R709"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A709" sqref="A709"/>
+      <pane ySplit="3" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C709" sqref="C709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,7 +11011,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1328" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE51FB2A-24F4-4280-A75B-A074EF010CC1}"/>
+  <xr:revisionPtr revIDLastSave="1332" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2AD27EE-3077-4C5C-B00B-EE1F7FA0AC0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:R709"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C709" sqref="C709"/>
+      <pane ySplit="3" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H709" sqref="H709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>Junio, 2020</v>
       </c>
       <c r="M45" s="24">
-        <v>238.98816111041066</v>
+        <v>239.10946995623192</v>
       </c>
       <c r="N45" s="2">
         <v>107559.02799999998</v>
@@ -3414,7 +3414,7 @@
         <v>Julio, 2020</v>
       </c>
       <c r="M46" s="24">
-        <v>222.70585963798015</v>
+        <v>223.13587473103388</v>
       </c>
       <c r="N46" s="2">
         <v>91433.98000000001</v>
@@ -3451,7 +3451,7 @@
         <v>Agosto, 2020</v>
       </c>
       <c r="M47" s="24">
-        <v>240.42959604465955</v>
+        <v>239.65563601447195</v>
       </c>
       <c r="N47" s="2">
         <v>188088.80299999999</v>
@@ -3487,7 +3487,9 @@
         <f t="shared" ref="L48:L49" si="3">+K48&amp;", "&amp;J48</f>
         <v>Septiembre, 2020</v>
       </c>
-      <c r="M48" s="21"/>
+      <c r="M48" s="24">
+        <v>260.08302350187762</v>
+      </c>
       <c r="N48" s="2">
         <v>226098.86000000007</v>
       </c>
@@ -3520,6 +3522,9 @@
         <f t="shared" si="3"/>
         <v>Octubre, 2020</v>
       </c>
+      <c r="M49" s="24">
+        <v>296.95084413583675</v>
+      </c>
       <c r="N49" s="2">
         <v>146935.70398999998</v>
       </c>
@@ -3556,6 +3561,7 @@
         <f t="shared" ref="L50" si="4">+K50&amp;", "&amp;J50</f>
         <v>Noviembre, 2020</v>
       </c>
+      <c r="M50" s="24"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -11011,7 +11017,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1332" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2AD27EE-3077-4C5C-B00B-EE1F7FA0AC0E}"/>
+  <xr:revisionPtr revIDLastSave="1354" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCDCBE00-F7D9-4355-B5B7-C960C9CDEFC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="104">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>https://sen.hn/informe-estadistico-semanal-de-cchac/</t>
+  </si>
+  <si>
+    <t>https://www.energia.gob.pa/documentos/</t>
+  </si>
+  <si>
+    <t>https://www.energia.gob.pa/archivos/?mdocs-cat=mdocs-cat-9</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1315,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H709" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H709" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H734" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H734" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1641,11 +1647,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R709"/>
+  <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H709" sqref="H709"/>
+      <pane ySplit="3" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D734" sqref="D734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3505,9 @@
       <c r="P48" s="2">
         <v>367.09</v>
       </c>
-      <c r="Q48" s="21"/>
+      <c r="Q48" s="21">
+        <v>18.5</v>
+      </c>
       <c r="R48" s="21"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -10926,6 +10934,15 @@
       <c r="B701" s="25"/>
       <c r="C701" s="25"/>
       <c r="D701" s="25"/>
+      <c r="E701">
+        <v>2.34</v>
+      </c>
+      <c r="F701">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G701">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="8">
@@ -10955,7 +10972,7 @@
       <c r="C704" s="25"/>
       <c r="D704" s="25"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="8">
         <v>44167</v>
       </c>
@@ -10963,7 +10980,7 @@
       <c r="C705" s="25"/>
       <c r="D705" s="25"/>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="8">
         <v>44168</v>
       </c>
@@ -10971,7 +10988,7 @@
       <c r="C706" s="25"/>
       <c r="D706" s="25"/>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="8">
         <v>44169</v>
       </c>
@@ -10979,21 +10996,248 @@
       <c r="C707" s="25"/>
       <c r="D707" s="25"/>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="8">
         <v>44170</v>
       </c>
       <c r="B708" s="25"/>
       <c r="C708" s="25"/>
       <c r="D708" s="25"/>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E708" s="21">
+        <v>2.34</v>
+      </c>
+      <c r="F708" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G708" s="21">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="8">
         <v>44171</v>
       </c>
       <c r="B709" s="25"/>
       <c r="C709" s="25"/>
       <c r="D709" s="25"/>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A710" s="8">
+        <v>44172</v>
+      </c>
+      <c r="B710" s="25"/>
+      <c r="C710" s="25"/>
+      <c r="D710" s="25"/>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A711" s="8">
+        <v>44173</v>
+      </c>
+      <c r="B711" s="25"/>
+      <c r="C711" s="25"/>
+      <c r="D711" s="25"/>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712" s="8">
+        <v>44174</v>
+      </c>
+      <c r="B712" s="25"/>
+      <c r="C712" s="25"/>
+      <c r="D712" s="25"/>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713" s="8">
+        <v>44175</v>
+      </c>
+      <c r="B713" s="25"/>
+      <c r="C713" s="25"/>
+      <c r="D713" s="25"/>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714" s="8">
+        <v>44176</v>
+      </c>
+      <c r="B714" s="25"/>
+      <c r="C714" s="25"/>
+      <c r="D714" s="25"/>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A715" s="8">
+        <v>44177</v>
+      </c>
+      <c r="B715" s="25"/>
+      <c r="C715" s="25"/>
+      <c r="D715" s="25"/>
+      <c r="E715">
+        <v>2.44</v>
+      </c>
+      <c r="F715">
+        <v>2.38</v>
+      </c>
+      <c r="G715">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A716" s="8">
+        <v>44178</v>
+      </c>
+      <c r="B716" s="25"/>
+      <c r="C716" s="25"/>
+      <c r="D716" s="25"/>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A717" s="8">
+        <v>44179</v>
+      </c>
+      <c r="B717" s="25"/>
+      <c r="C717" s="25"/>
+      <c r="D717" s="25"/>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A718" s="8">
+        <v>44180</v>
+      </c>
+      <c r="B718" s="25"/>
+      <c r="C718" s="25"/>
+      <c r="D718" s="25"/>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A719" s="8">
+        <v>44181</v>
+      </c>
+      <c r="B719" s="25"/>
+      <c r="C719" s="25"/>
+      <c r="D719" s="25"/>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A720" s="8">
+        <v>44182</v>
+      </c>
+      <c r="B720" s="25"/>
+      <c r="C720" s="25"/>
+      <c r="D720" s="25"/>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A721" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B721" s="25"/>
+      <c r="C721" s="25"/>
+      <c r="D721" s="25"/>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722" s="8">
+        <v>44184</v>
+      </c>
+      <c r="B722" s="25"/>
+      <c r="C722" s="25"/>
+      <c r="D722" s="25"/>
+      <c r="E722" s="21">
+        <v>2.44</v>
+      </c>
+      <c r="F722" s="21">
+        <v>2.38</v>
+      </c>
+      <c r="G722">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723" s="8">
+        <v>44185</v>
+      </c>
+      <c r="B723" s="25"/>
+      <c r="C723" s="25"/>
+      <c r="D723" s="25"/>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724" s="8">
+        <v>44186</v>
+      </c>
+      <c r="B724" s="25"/>
+      <c r="C724" s="25"/>
+      <c r="D724" s="25"/>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725" s="8">
+        <v>44187</v>
+      </c>
+      <c r="B725" s="25"/>
+      <c r="C725" s="25"/>
+      <c r="D725" s="25"/>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726" s="8">
+        <v>44188</v>
+      </c>
+      <c r="B726" s="25"/>
+      <c r="C726" s="25"/>
+      <c r="D726" s="25"/>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727" s="8">
+        <v>44189</v>
+      </c>
+      <c r="B727" s="25"/>
+      <c r="C727" s="25"/>
+      <c r="D727" s="25"/>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728" s="8">
+        <v>44190</v>
+      </c>
+      <c r="B728" s="25"/>
+      <c r="C728" s="25"/>
+      <c r="D728" s="25"/>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729" s="8">
+        <v>44191</v>
+      </c>
+      <c r="B729" s="25"/>
+      <c r="C729" s="25"/>
+      <c r="D729" s="25"/>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730" s="8">
+        <v>44192</v>
+      </c>
+      <c r="B730" s="25"/>
+      <c r="C730" s="25"/>
+      <c r="D730" s="25"/>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731" s="8">
+        <v>44193</v>
+      </c>
+      <c r="B731" s="25"/>
+      <c r="C731" s="25"/>
+      <c r="D731" s="25"/>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" s="8">
+        <v>44194</v>
+      </c>
+      <c r="B732" s="25"/>
+      <c r="C732" s="25"/>
+      <c r="D732" s="25"/>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733" s="8">
+        <v>44195</v>
+      </c>
+      <c r="B733" s="25"/>
+      <c r="C733" s="25"/>
+      <c r="D733" s="25"/>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734" s="8">
+        <v>44196</v>
+      </c>
+      <c r="B734" s="25"/>
+      <c r="C734" s="25"/>
+      <c r="D734" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -11014,10 +11258,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11784,10 +12028,18 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="12">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
@@ -11804,10 +12056,18 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="12">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
@@ -12984,12 +13244,14 @@
     <hyperlink ref="F6" r:id="rId23" xr:uid="{A63B55D0-3F47-4A34-8619-62920F88C6BD}"/>
     <hyperlink ref="F4:F5" r:id="rId24" display="http://www.energia.gob.pa/precios/?tag=255" xr:uid="{CC5C4EC3-A3ED-46B0-9857-4D54C9FB54E0}"/>
     <hyperlink ref="F14" r:id="rId25" xr:uid="{3987BD5B-4929-4737-915E-69B483BD1681}"/>
+    <hyperlink ref="F15" r:id="rId26" xr:uid="{01B53A43-B238-4058-8A26-7C758549C1CF}"/>
+    <hyperlink ref="F16" r:id="rId27" xr:uid="{8BFBE07F-D5BE-43FE-8735-438DA46BE249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId26"/>
+  <legacyDrawing r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1354" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCDCBE00-F7D9-4355-B5B7-C960C9CDEFC9}"/>
+  <xr:revisionPtr revIDLastSave="1356" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{534A9165-AD15-4584-80A0-79FBA546E2E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,8 +1650,8 @@
   <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D734" sqref="D734"/>
+      <pane ySplit="3" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E734" sqref="E734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11258,10 +11258,10 @@
   <dimension ref="A1:Y959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23711"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1376" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36142012-1FF7-44CF-9AA8-28D466C602F7}"/>
+  <xr:revisionPtr revIDLastSave="1378" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D089A9F7-8958-41E7-AC70-2BE5D13B2C9C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,8 +1654,8 @@
   <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
+      <pane ySplit="3" topLeftCell="L47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11939,7 +11939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1378" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D089A9F7-8958-41E7-AC70-2BE5D13B2C9C}"/>
+  <xr:revisionPtr revIDLastSave="1380" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0FA98FB-AB4A-4F3B-B0CE-DD7BD6CA4F44}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,8 +1654,8 @@
   <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+      <pane ySplit="3" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C734" sqref="C734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1394" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE329F2A-B2FC-4FF1-9070-A24BAA0EF81D}"/>
+  <xr:revisionPtr revIDLastSave="1396" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7805C8D-8C9E-464C-A384-31C54AE26BAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,6 +1082,22 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1209,22 +1225,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1335,18 +1335,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R52" totalsRowShown="0" headerRowDxfId="6" headerRowCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R52" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
   <autoFilter ref="J3:R52" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="5">
       <calculatedColumnFormula>+K4&amp;", "&amp;J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8FC1825F-E2AC-4830-AA41-5B12F2C15972}" name="Índice Mensual de Actividad Económica "/>
-    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="1" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="2" dataCellStyle="Millares"/>
     <tableColumn id="8" xr3:uid="{1A570E63-F800-45DF-9E5A-B8961BEFE222}" name="Tasa de desempleo abierto"/>
     <tableColumn id="9" xr3:uid="{7E984A16-0976-4747-9D31-12709D8A9C2E}" name="Ingesos - Egresos Remesas (Millones USD)"/>
   </tableColumns>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="1">
   <autoFilter ref="A1:U23" xr:uid="{A4DDB744-8DEA-4F35-AEC9-FB17B2884A09}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C1E7A7E7-7FD3-4FCB-A528-822BF1431468}" name="ID_Fuente"/>
@@ -1378,7 +1378,7 @@
     <tableColumn id="18" xr3:uid="{BE4CA536-69A1-4E09-B63A-D7282A251F01}" name="País"/>
     <tableColumn id="19" xr3:uid="{15A820D3-8670-4BFD-8BDE-2BD2A5BBCE28}" name="División Administrativa"/>
     <tableColumn id="20" xr3:uid="{19BD7B61-ED33-4BE3-B11A-D96B98260DC0}" name="Formato Descarga"/>
-    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1654,7 +1654,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A751" sqref="A751"/>
+      <selection pane="bottomLeft" activeCell="F748" sqref="F748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11671,7 +11671,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1396" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7805C8D-8C9E-464C-A384-31C54AE26BAF}"/>
+  <xr:revisionPtr revIDLastSave="1417" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{404A48F5-56C8-42C4-A9A3-FAB9A68976A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="105">
   <si>
     <t>Indicadores diarios</t>
   </si>
@@ -1081,6 +1081,56 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5D7B9D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1225,56 +1275,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF5D7B9D"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9E2F3"/>
@@ -1318,13 +1318,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H748" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H748" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H772" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A3:H772" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{1A412D0D-9DDD-4532-ADAC-BC90F0ABB038}" name="Combustible Gasolina Superior"/>
     <tableColumn id="7" xr3:uid="{6C9802FB-03D0-4F94-9942-ED195CC86D50}" name="Combustible Regular"/>
     <tableColumn id="8" xr3:uid="{EBFE959D-24EF-495E-9BE7-BDEC4C8061F8}" name="Combustible Diesel"/>
@@ -1335,18 +1335,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R52" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
-  <autoFilter ref="J3:R52" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R53" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Millares">
+  <autoFilter ref="J3:R53" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="10">
       <calculatedColumnFormula>+K4&amp;", "&amp;J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8FC1825F-E2AC-4830-AA41-5B12F2C15972}" name="Índice Mensual de Actividad Económica "/>
-    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="4" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="2" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="7" dataCellStyle="Millares"/>
     <tableColumn id="8" xr3:uid="{1A570E63-F800-45DF-9E5A-B8961BEFE222}" name="Tasa de desempleo abierto"/>
     <tableColumn id="9" xr3:uid="{7E984A16-0976-4747-9D31-12709D8A9C2E}" name="Ingesos - Egresos Remesas (Millones USD)"/>
   </tableColumns>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="6">
   <autoFilter ref="A1:U23" xr:uid="{A4DDB744-8DEA-4F35-AEC9-FB17B2884A09}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C1E7A7E7-7FD3-4FCB-A528-822BF1431468}" name="ID_Fuente"/>
@@ -1378,7 +1378,7 @@
     <tableColumn id="18" xr3:uid="{BE4CA536-69A1-4E09-B63A-D7282A251F01}" name="País"/>
     <tableColumn id="19" xr3:uid="{15A820D3-8670-4BFD-8BDE-2BD2A5BBCE28}" name="División Administrativa"/>
     <tableColumn id="20" xr3:uid="{19BD7B61-ED33-4BE3-B11A-D96B98260DC0}" name="Formato Descarga"/>
-    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1650,11 +1650,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:W748"/>
+  <dimension ref="A1:W772"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F748" sqref="F748"/>
+      <pane ySplit="3" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B771" sqref="B771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,7 +3722,7 @@
         <v>Septiembre, 2020</v>
       </c>
       <c r="M48" s="24">
-        <v>260.08302350187762</v>
+        <v>260.31128588533551</v>
       </c>
       <c r="N48" s="2">
         <v>226098.86000000007</v>
@@ -3764,7 +3764,7 @@
         <v>Octubre, 2020</v>
       </c>
       <c r="M49" s="24">
-        <v>296.95084413583675</v>
+        <v>297.6383833861118</v>
       </c>
       <c r="N49" s="2">
         <v>146935.70398999998</v>
@@ -3807,7 +3807,9 @@
         <f t="shared" ref="L50" si="4">+K50&amp;", "&amp;J50</f>
         <v>Noviembre, 2020</v>
       </c>
-      <c r="M50" s="24"/>
+      <c r="M50" s="24">
+        <v>296.77843816013888</v>
+      </c>
       <c r="N50" s="2">
         <v>102213.84199999998</v>
       </c>
@@ -3886,6 +3888,19 @@
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
+      <c r="J53" s="9">
+        <v>2022</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="9" t="str">
+        <f>+K53&amp;", "&amp;J53</f>
+        <v>Febrero, 2022</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
@@ -11553,7 +11568,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="8">
         <v>44199</v>
       </c>
@@ -11561,7 +11576,7 @@
       <c r="C737" s="25"/>
       <c r="D737" s="25"/>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="8">
         <v>44200</v>
       </c>
@@ -11569,7 +11584,7 @@
       <c r="C738" s="25"/>
       <c r="D738" s="25"/>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="8">
         <v>44201</v>
       </c>
@@ -11577,7 +11592,7 @@
       <c r="C739" s="25"/>
       <c r="D739" s="25"/>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="8">
         <v>44202</v>
       </c>
@@ -11585,7 +11600,7 @@
       <c r="C740" s="25"/>
       <c r="D740" s="25"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="8">
         <v>44203</v>
       </c>
@@ -11593,15 +11608,24 @@
       <c r="C741" s="25"/>
       <c r="D741" s="25"/>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="8">
         <v>44204</v>
       </c>
       <c r="B742" s="25"/>
       <c r="C742" s="25"/>
       <c r="D742" s="25"/>
-    </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E742">
+        <v>2.62</v>
+      </c>
+      <c r="F742">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G742">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="8">
         <v>44205</v>
       </c>
@@ -11609,7 +11633,7 @@
       <c r="C743" s="25"/>
       <c r="D743" s="25"/>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="8">
         <v>44206</v>
       </c>
@@ -11617,7 +11641,7 @@
       <c r="C744" s="25"/>
       <c r="D744" s="25"/>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="8">
         <v>44207</v>
       </c>
@@ -11625,7 +11649,7 @@
       <c r="C745" s="25"/>
       <c r="D745" s="25"/>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="8">
         <v>44208</v>
       </c>
@@ -11633,7 +11657,7 @@
       <c r="C746" s="25"/>
       <c r="D746" s="25"/>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="8">
         <v>44209</v>
       </c>
@@ -11641,13 +11665,223 @@
       <c r="C747" s="25"/>
       <c r="D747" s="25"/>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="8">
         <v>44210</v>
       </c>
       <c r="B748" s="25"/>
       <c r="C748" s="25"/>
       <c r="D748" s="25"/>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749" s="8">
+        <v>44211</v>
+      </c>
+      <c r="B749" s="25"/>
+      <c r="C749" s="25"/>
+      <c r="D749" s="25"/>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750" s="8">
+        <v>44212</v>
+      </c>
+      <c r="B750" s="25"/>
+      <c r="C750" s="25"/>
+      <c r="D750" s="25"/>
+      <c r="E750" s="21">
+        <v>2.62</v>
+      </c>
+      <c r="F750" s="21">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G750" s="21">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A751" s="8">
+        <v>44213</v>
+      </c>
+      <c r="B751" s="25"/>
+      <c r="C751" s="25"/>
+      <c r="D751" s="25"/>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752" s="8">
+        <v>44214</v>
+      </c>
+      <c r="B752" s="25"/>
+      <c r="C752" s="25"/>
+      <c r="D752" s="25"/>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A753" s="8">
+        <v>44215</v>
+      </c>
+      <c r="B753" s="25"/>
+      <c r="C753" s="25"/>
+      <c r="D753" s="25"/>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A754" s="8">
+        <v>44216</v>
+      </c>
+      <c r="B754" s="25"/>
+      <c r="C754" s="25"/>
+      <c r="D754" s="25"/>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A755" s="8">
+        <v>44217</v>
+      </c>
+      <c r="B755" s="25"/>
+      <c r="C755" s="25"/>
+      <c r="D755" s="25"/>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A756" s="8">
+        <v>44218</v>
+      </c>
+      <c r="B756" s="25"/>
+      <c r="C756" s="25"/>
+      <c r="D756" s="25"/>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A757" s="8">
+        <v>44219</v>
+      </c>
+      <c r="B757" s="25"/>
+      <c r="C757" s="25"/>
+      <c r="D757" s="25"/>
+      <c r="E757">
+        <v>2.7</v>
+      </c>
+      <c r="F757">
+        <v>2.64</v>
+      </c>
+      <c r="G757">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A758" s="8">
+        <v>44220</v>
+      </c>
+      <c r="B758" s="25"/>
+      <c r="C758" s="25"/>
+      <c r="D758" s="25"/>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A759" s="8">
+        <v>44221</v>
+      </c>
+      <c r="B759" s="25"/>
+      <c r="C759" s="25"/>
+      <c r="D759" s="25"/>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A760" s="8">
+        <v>44222</v>
+      </c>
+      <c r="B760" s="25"/>
+      <c r="C760" s="25"/>
+      <c r="D760" s="25"/>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A761" s="8">
+        <v>44223</v>
+      </c>
+      <c r="B761" s="25"/>
+      <c r="C761" s="25"/>
+      <c r="D761" s="25"/>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A762" s="8">
+        <v>44224</v>
+      </c>
+      <c r="B762" s="25"/>
+      <c r="C762" s="25"/>
+      <c r="D762" s="25"/>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A763" s="8">
+        <v>44225</v>
+      </c>
+      <c r="B763" s="25"/>
+      <c r="C763" s="25"/>
+      <c r="D763" s="25"/>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A764" s="8">
+        <v>44226</v>
+      </c>
+      <c r="B764" s="25"/>
+      <c r="C764" s="25"/>
+      <c r="D764" s="25"/>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A765" s="8">
+        <v>44227</v>
+      </c>
+      <c r="B765" s="25"/>
+      <c r="C765" s="25"/>
+      <c r="D765" s="25"/>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A766" s="8">
+        <v>44228</v>
+      </c>
+      <c r="B766" s="25"/>
+      <c r="C766" s="25"/>
+      <c r="D766" s="25"/>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A767" s="8">
+        <v>44229</v>
+      </c>
+      <c r="B767" s="25"/>
+      <c r="C767" s="25"/>
+      <c r="D767" s="25"/>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A768" s="8">
+        <v>44230</v>
+      </c>
+      <c r="B768" s="25"/>
+      <c r="C768" s="25"/>
+      <c r="D768" s="25"/>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769" s="8">
+        <v>44231</v>
+      </c>
+      <c r="B769" s="25"/>
+      <c r="C769" s="25"/>
+      <c r="D769" s="25"/>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770" s="8">
+        <v>44232</v>
+      </c>
+      <c r="B770" s="25"/>
+      <c r="C770" s="25"/>
+      <c r="D770" s="25"/>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771" s="8">
+        <v>44233</v>
+      </c>
+      <c r="B771" s="25"/>
+      <c r="C771" s="25"/>
+      <c r="D771" s="25"/>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772" s="8">
+        <v>44234</v>
+      </c>
+      <c r="B772" s="25"/>
+      <c r="C772" s="25"/>
+      <c r="D772" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R16:X27">
@@ -11671,7 +11905,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1417" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{404A48F5-56C8-42C4-A9A3-FAB9A68976A0}"/>
+  <xr:revisionPtr revIDLastSave="1419" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B4C3D94B-73E0-4C76-918F-D5340DF1DCD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,56 +1081,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF5D7B9D"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1275,6 +1225,56 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5D7B9D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9E2F3"/>
@@ -1318,13 +1318,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H772" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H772" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A3:H772" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D5EAE7FD-5C02-42C1-9C84-A2EEC0E6B542}" name="Precio Banano" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BB21C496-7E01-4835-902E-A9595CE4A9FC}" name="Precio Harina de Pescado" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{1A412D0D-9DDD-4532-ADAC-BC90F0ABB038}" name="Combustible Gasolina Superior"/>
     <tableColumn id="7" xr3:uid="{6C9802FB-03D0-4F94-9942-ED195CC86D50}" name="Combustible Regular"/>
     <tableColumn id="8" xr3:uid="{EBFE959D-24EF-495E-9BE7-BDEC4C8061F8}" name="Combustible Diesel"/>
@@ -1335,18 +1335,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R53" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{361D6DB9-DB5F-41DB-A2B1-3827A7E68BA3}" name="Indicadores_mes_PN" displayName="Indicadores_mes_PN" ref="J3:R53" totalsRowShown="0" headerRowDxfId="8" headerRowCellStyle="Millares">
   <autoFilter ref="J3:R53" xr:uid="{3CCA25B4-1DC8-4605-9570-70ABC518C188}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{07F4ADCA-FED6-473F-B251-F3879D4D00F0}" name="Año" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D9E356F9-F5BF-4968-8B4E-9432BA68AA6E}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B5014004-7BDF-4570-B6E7-9E9E456E9FA9}" name="Fecha" dataDxfId="5">
       <calculatedColumnFormula>+K4&amp;", "&amp;J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8FC1825F-E2AC-4830-AA41-5B12F2C15972}" name="Índice Mensual de Actividad Económica "/>
-    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="9" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="8" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="7" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{9450F662-71AF-4E06-9948-6070A2499352}" name="Valor FOB de las exportaciones de bienes" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{8DA19535-924B-4930-B2B7-A27C68A6BB9A}" name="Valor CIF de las importaciones de bienes" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF46982F-65B8-4AB6-8F8C-0A8885FA66A5}" name="Índice Precios Bolsa de Valores de Panamá" dataDxfId="2" dataCellStyle="Millares"/>
     <tableColumn id="8" xr3:uid="{1A570E63-F800-45DF-9E5A-B8961BEFE222}" name="Tasa de desempleo abierto"/>
     <tableColumn id="9" xr3:uid="{7E984A16-0976-4747-9D31-12709D8A9C2E}" name="Ingesos - Egresos Remesas (Millones USD)"/>
   </tableColumns>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D3CDDC-AAEE-4879-BF46-5EAF54FB4896}" name="Table_17" displayName="Table_17" ref="A1:U23" headerRowDxfId="1">
   <autoFilter ref="A1:U23" xr:uid="{A4DDB744-8DEA-4F35-AEC9-FB17B2884A09}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C1E7A7E7-7FD3-4FCB-A528-822BF1431468}" name="ID_Fuente"/>
@@ -1378,7 +1378,7 @@
     <tableColumn id="18" xr3:uid="{BE4CA536-69A1-4E09-B63A-D7282A251F01}" name="País"/>
     <tableColumn id="19" xr3:uid="{15A820D3-8670-4BFD-8BDE-2BD2A5BBCE28}" name="División Administrativa"/>
     <tableColumn id="20" xr3:uid="{19BD7B61-ED33-4BE3-B11A-D96B98260DC0}" name="Formato Descarga"/>
-    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{3F7DFEC3-567C-4830-8528-61B17B47D643}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1654,7 +1654,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B771" sqref="B771"/>
+      <selection pane="bottomLeft" activeCell="C772" sqref="C772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11880,7 +11880,6 @@
         <v>44234</v>
       </c>
       <c r="B772" s="25"/>
-      <c r="C772" s="25"/>
       <c r="D772" s="25"/>
     </row>
   </sheetData>
@@ -11905,7 +11904,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
     <sheet name="Fuentes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -395,7 +395,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,11 +1654,11 @@
   <dimension ref="A1:W772"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+      <pane ySplit="3" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A772" sqref="A772"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -1679,7 +1679,7 @@
     <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1733,7 +1733,7 @@
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" spans="1:23" ht="60">
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43466</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43467</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43468</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43469</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43470</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43471</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43472</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43473</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43474</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43475</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43476</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43477</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43478</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43479</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43480</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43481</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43482</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43483</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43484</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43485</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43486</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43487</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43488</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43489</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43490</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43491</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>43492</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43493</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>43494</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43495</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>43496</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43497</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>43498</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43499</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>43500</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43501</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>43502</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43503</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>43504</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43505</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43506</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43507</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>43508</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43509</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>43510</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="V58" s="21"/>
       <c r="W58" s="21"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="V60" s="21"/>
       <c r="W60" s="21"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="V61" s="21"/>
       <c r="W61" s="21"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="V62" s="21"/>
       <c r="W62" s="21"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="V64" s="21"/>
       <c r="W64" s="21"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>43527</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>43528</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>43529</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>43530</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>43531</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>43532</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>43533</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>43534</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>43535</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>43536</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>43537</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>43538</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>43539</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>43540</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>43541</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>43542</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>43543</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>43544</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>43545</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>43546</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>43547</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>43548</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>43549</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>43550</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>43551</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>43552</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>43553</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>43554</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>43555</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>43556</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>43557</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>43558</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>43559</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>43560</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>43561</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>43562</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>43563</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>43564</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>43565</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>43566</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>43567</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>43568</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>43569</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>43570</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>43571</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>43572</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>43573</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>43574</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>43575</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>43576</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>43577</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>43578</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>43579</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>43580</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>43581</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>43582</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>43583</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>43584</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>43585</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>43586</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>43587</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>43588</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>43589</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>43590</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>43591</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>43592</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>43593</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>43594</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>43595</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>43596</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>43597</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>43598</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>43599</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>43600</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>43601</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>43602</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>43603</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>43604</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>43605</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>43606</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>43607</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>43608</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>43609</v>
       </c>
@@ -5244,7 +5244,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>43610</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>43611</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>43612</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>43613</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>43614</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>43615</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>43616</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>43618</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>43619</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>43620</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>43621</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>43622</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>43623</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>43624</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>43625</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>43626</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>43627</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>43628</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>43629</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>43630</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>43631</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>43632</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>43633</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>43634</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>43635</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>43636</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>43637</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>43638</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>43639</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>43640</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>43641</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>43642</v>
       </c>
@@ -5641,7 +5641,7 @@
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>43643</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>43644</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>43645</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>43646</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>43647</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>43648</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>43649</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>43650</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>43651</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>43652</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>43653</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>43654</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>43655</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>43656</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>43657</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>43658</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>43659</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>43660</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>43661</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>43662</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>43663</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>43665</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>43666</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>43667</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>43668</v>
       </c>
@@ -5955,7 +5955,7 @@
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>43669</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>43670</v>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>43671</v>
       </c>
@@ -5988,7 +5988,7 @@
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>43672</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>43673</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>43674</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>43675</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>43676</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>43677</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>43679</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>43680</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>43681</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>43682</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>43683</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>43684</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>43685</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>43686</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>43687</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>43688</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>43689</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>43690</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>43691</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>43692</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>43693</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>43694</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>43695</v>
       </c>
@@ -6280,7 +6280,7 @@
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>43696</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>43697</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>43698</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>43699</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>43700</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>43701</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>43702</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>43703</v>
       </c>
@@ -6374,7 +6374,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>43704</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>43705</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>43706</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>43707</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>43708</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>43709</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>43710</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>43711</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>43712</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>43713</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>43714</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>43715</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>43716</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>43717</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>43718</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>43719</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>43720</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>43721</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>43722</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>43723</v>
       </c>
@@ -6616,7 +6616,7 @@
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>43724</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>43725</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>43726</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>43727</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>43728</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>43729</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>43730</v>
       </c>
@@ -6699,7 +6699,7 @@
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>43731</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>43732</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>43733</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>43734</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>43735</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>43736</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>43737</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>43738</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>43739</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>43740</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>43741</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>43742</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>43743</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>43744</v>
       </c>
@@ -6869,7 +6869,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>43745</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>43746</v>
       </c>
@@ -6891,7 +6891,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>43747</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>43748</v>
       </c>
@@ -6913,7 +6913,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>43749</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>43750</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>43751</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>43752</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>43753</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>43754</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>43755</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>43756</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>43757</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>43758</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>43759</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>43760</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>43761</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>43762</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>43763</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>43764</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>43765</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>43766</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>43767</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>43768</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>43769</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>43770</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>43771</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>43772</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>43773</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>43774</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>43775</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>43776</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>43777</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>43778</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>43779</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>43780</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>43781</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>43782</v>
       </c>
@@ -7321,7 +7321,7 @@
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>43783</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>43784</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>43785</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>43786</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>43787</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>43788</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>43789</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>43790</v>
       </c>
@@ -7415,7 +7415,7 @@
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>43791</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>43792</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>43793</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>43794</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>43795</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>43796</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>43797</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>43798</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>43799</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>43800</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>43801</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>43802</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>43803</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>43804</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>43805</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>43806</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>43807</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>43808</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>43809</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>43810</v>
       </c>
@@ -7657,7 +7657,7 @@
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>43811</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>43812</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>43813</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>43814</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>43815</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>43816</v>
       </c>
@@ -7729,7 +7729,7 @@
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>43817</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>43818</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>43819</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>43820</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>43821</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>43822</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>43823</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>43824</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>43825</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>43826</v>
       </c>
@@ -7845,7 +7845,7 @@
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>43827</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>43828</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>43829</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>43830</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>43831</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>43832</v>
       </c>
@@ -7915,7 +7915,7 @@
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>43833</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>43834</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>43835</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>43836</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>43837</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>43838</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>43839</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>43840</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>43841</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>43842</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>43843</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>43844</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>43845</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>43846</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>43847</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>43848</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>43849</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>43850</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>43851</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>43852</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>43853</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>43854</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>43855</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>43856</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>43857</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>43858</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>43859</v>
       </c>
@@ -8230,7 +8230,7 @@
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>43860</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>43861</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>43862</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>43863</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>43864</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>43865</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>43866</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>43867</v>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>43868</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>43869</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>43870</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>43871</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>43872</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>43873</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>43874</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>43875</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>43876</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>43877</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>43878</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>43879</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>43880</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>43881</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>43882</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>43883</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>43884</v>
       </c>
@@ -8533,7 +8533,7 @@
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>43885</v>
       </c>
@@ -8544,7 +8544,7 @@
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>43886</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>43887</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>43888</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>43889</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>43890</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>43891</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>43892</v>
       </c>
@@ -8631,7 +8631,7 @@
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>43893</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>43894</v>
       </c>
@@ -8653,7 +8653,7 @@
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>43895</v>
       </c>
@@ -8664,7 +8664,7 @@
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>43896</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>43897</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>43898</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>43899</v>
       </c>
@@ -8714,7 +8714,7 @@
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>43900</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>43901</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>43902</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>43903</v>
       </c>
@@ -8758,7 +8758,7 @@
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>43904</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>43905</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>43906</v>
       </c>
@@ -8797,7 +8797,7 @@
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>43907</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>43908</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>43909</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>43910</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>43911</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>43912</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>43913</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>43914</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>43915</v>
       </c>
@@ -8902,7 +8902,7 @@
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>43916</v>
       </c>
@@ -8913,7 +8913,7 @@
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>43917</v>
       </c>
@@ -8924,7 +8924,7 @@
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>43918</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>43919</v>
       </c>
@@ -8952,7 +8952,7 @@
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>43920</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>43921</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>43922</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>43923</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>43924</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>43925</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>43926</v>
       </c>
@@ -9039,7 +9039,7 @@
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>43927</v>
       </c>
@@ -9050,7 +9050,7 @@
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>43928</v>
       </c>
@@ -9061,7 +9061,7 @@
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>43929</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>43930</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>43931</v>
       </c>
@@ -9094,7 +9094,7 @@
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>43932</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>43933</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>43934</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>43935</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>43936</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>43937</v>
       </c>
@@ -9166,7 +9166,7 @@
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>43938</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>43939</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>43940</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>43941</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>43942</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>43943</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>43944</v>
       </c>
@@ -9249,7 +9249,7 @@
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>43945</v>
       </c>
@@ -9260,7 +9260,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>43946</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>43947</v>
       </c>
@@ -9282,7 +9282,7 @@
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>43948</v>
       </c>
@@ -9293,7 +9293,7 @@
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>43949</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>43950</v>
       </c>
@@ -9315,7 +9315,7 @@
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>43951</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>43952</v>
       </c>
@@ -9341,7 +9341,7 @@
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>43953</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>43954</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>43955</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>43956</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>43957</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>43958</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>43959</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="G497" s="21"/>
       <c r="H497" s="21"/>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>43960</v>
       </c>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H498" s="21"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>43961</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="G499" s="21"/>
       <c r="H499" s="21"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>43962</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>43963</v>
       </c>
@@ -9479,7 +9479,7 @@
       <c r="G501" s="21"/>
       <c r="H501" s="21"/>
     </row>
-    <row r="502" spans="1:8" s="18" customFormat="1">
+    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>43964</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="G502" s="21"/>
       <c r="H502" s="21"/>
     </row>
-    <row r="503" spans="1:8" s="18" customFormat="1">
+    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>43965</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="G503" s="21"/>
       <c r="H503" s="21"/>
     </row>
-    <row r="504" spans="1:8" s="18" customFormat="1">
+    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8">
         <v>43966</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="G504" s="21"/>
       <c r="H504" s="21"/>
     </row>
-    <row r="505" spans="1:8" s="18" customFormat="1">
+    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8">
         <v>43967</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="H505" s="21"/>
     </row>
-    <row r="506" spans="1:8" s="18" customFormat="1">
+    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8">
         <v>43968</v>
       </c>
@@ -9545,7 +9545,7 @@
       <c r="G506" s="21"/>
       <c r="H506" s="21"/>
     </row>
-    <row r="507" spans="1:8" s="18" customFormat="1">
+    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8">
         <v>43969</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="G507" s="21"/>
       <c r="H507" s="21"/>
     </row>
-    <row r="508" spans="1:8" s="18" customFormat="1">
+    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8">
         <v>43970</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="G508" s="21"/>
       <c r="H508" s="21"/>
     </row>
-    <row r="509" spans="1:8" s="18" customFormat="1">
+    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8">
         <v>43971</v>
       </c>
@@ -9581,7 +9581,7 @@
       <c r="G509" s="21"/>
       <c r="H509" s="21"/>
     </row>
-    <row r="510" spans="1:8" s="18" customFormat="1">
+    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8">
         <v>43972</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="G510" s="21"/>
       <c r="H510" s="21"/>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="8">
         <v>43973</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="G511" s="21"/>
       <c r="H511" s="21"/>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="8">
         <v>43974</v>
       </c>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="H512" s="21"/>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="8">
         <v>43975</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="G513" s="21"/>
       <c r="H513" s="21"/>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="8">
         <v>43976</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="G514" s="21"/>
       <c r="H514" s="21"/>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="8">
         <v>43977</v>
       </c>
@@ -9659,7 +9659,7 @@
       <c r="G515" s="21"/>
       <c r="H515" s="21"/>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="8">
         <v>43978</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="G516" s="21"/>
       <c r="H516" s="21"/>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="8">
         <v>43979</v>
       </c>
@@ -9683,7 +9683,7 @@
       <c r="G517" s="21"/>
       <c r="H517" s="21"/>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="8">
         <v>43980</v>
       </c>
@@ -9695,7 +9695,7 @@
       <c r="G518" s="21"/>
       <c r="H518" s="21"/>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="8">
         <v>43981</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="H519" s="21"/>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="8">
         <v>43982</v>
       </c>
@@ -9729,7 +9729,7 @@
       <c r="G520" s="21"/>
       <c r="H520" s="21"/>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="8">
         <v>43983</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="G521" s="21"/>
       <c r="H521" s="21"/>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="8">
         <v>43984</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="G522" s="21"/>
       <c r="H522" s="21"/>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="8">
         <v>43985</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="G523" s="21"/>
       <c r="H523" s="21"/>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="8">
         <v>43986</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="G524" s="21"/>
       <c r="H524" s="21"/>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="8">
         <v>43987</v>
       </c>
@@ -9789,7 +9789,7 @@
       <c r="G525" s="21"/>
       <c r="H525" s="21"/>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="8">
         <v>43988</v>
       </c>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="H526" s="21"/>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="8">
         <v>43989</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="G527" s="21"/>
       <c r="H527" s="21"/>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="8">
         <v>43990</v>
       </c>
@@ -9831,7 +9831,7 @@
       <c r="G528" s="21"/>
       <c r="H528" s="21"/>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="8">
         <v>43991</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="G529" s="21"/>
       <c r="H529" s="21"/>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="8">
         <v>43992</v>
       </c>
@@ -9855,7 +9855,7 @@
       <c r="G530" s="21"/>
       <c r="H530" s="21"/>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="8">
         <v>43993</v>
       </c>
@@ -9867,7 +9867,7 @@
       <c r="G531" s="21"/>
       <c r="H531" s="21"/>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="8">
         <v>43994</v>
       </c>
@@ -9879,7 +9879,7 @@
       <c r="G532" s="21"/>
       <c r="H532" s="21"/>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="8">
         <v>43995</v>
       </c>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="H533" s="21"/>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="8">
         <v>43996</v>
       </c>
@@ -9909,7 +9909,7 @@
       <c r="G534" s="21"/>
       <c r="H534" s="21"/>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="8">
         <v>43997</v>
       </c>
@@ -9921,7 +9921,7 @@
       <c r="G535" s="21"/>
       <c r="H535" s="21"/>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="8">
         <v>43998</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="G536" s="21"/>
       <c r="H536" s="21"/>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="8">
         <v>43999</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="G537" s="21"/>
       <c r="H537" s="21"/>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="8">
         <v>44000</v>
       </c>
@@ -9957,7 +9957,7 @@
       <c r="G538" s="21"/>
       <c r="H538" s="21"/>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="8">
         <v>44001</v>
       </c>
@@ -9969,7 +9969,7 @@
       <c r="G539" s="21"/>
       <c r="H539" s="21"/>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="8">
         <v>44002</v>
       </c>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="H540" s="21"/>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="8">
         <v>44003</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="G541" s="21"/>
       <c r="H541" s="21"/>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="8">
         <v>44004</v>
       </c>
@@ -10011,7 +10011,7 @@
       <c r="G542" s="21"/>
       <c r="H542" s="21"/>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="8">
         <v>44005</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="G543" s="21"/>
       <c r="H543" s="21"/>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="8">
         <v>44006</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="G544" s="21"/>
       <c r="H544" s="21"/>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="8">
         <v>44007</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="8">
         <v>44008</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="8">
         <v>44009</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="8">
         <v>44010</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="F548" s="21"/>
       <c r="G548" s="21"/>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="8">
         <v>44011</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="F549" s="21"/>
       <c r="G549" s="21"/>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="8">
         <v>44012</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="F550" s="21"/>
       <c r="G550" s="21"/>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="8">
         <v>44013</v>
       </c>
@@ -10122,7 +10122,7 @@
       <c r="F551" s="21"/>
       <c r="G551" s="21"/>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="8">
         <v>44014</v>
       </c>
@@ -10133,7 +10133,7 @@
       <c r="F552" s="21"/>
       <c r="G552" s="21"/>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="8">
         <v>44015</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="F553" s="21"/>
       <c r="G553" s="21"/>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="8">
         <v>44016</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="8">
         <v>44017</v>
       </c>
@@ -10172,7 +10172,7 @@
       <c r="F555" s="21"/>
       <c r="G555" s="21"/>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="8">
         <v>44018</v>
       </c>
@@ -10183,7 +10183,7 @@
       <c r="F556" s="21"/>
       <c r="G556" s="21"/>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="8">
         <v>44019</v>
       </c>
@@ -10194,7 +10194,7 @@
       <c r="F557" s="21"/>
       <c r="G557" s="21"/>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="8">
         <v>44020</v>
       </c>
@@ -10205,7 +10205,7 @@
       <c r="F558" s="21"/>
       <c r="G558" s="21"/>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="8">
         <v>44021</v>
       </c>
@@ -10216,7 +10216,7 @@
       <c r="F559" s="21"/>
       <c r="G559" s="21"/>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="8">
         <v>44022</v>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="F560" s="21"/>
       <c r="G560" s="21"/>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="8">
         <v>44023</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="8">
         <v>44024</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="F562" s="21"/>
       <c r="G562" s="21"/>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="8">
         <v>44025</v>
       </c>
@@ -10266,7 +10266,7 @@
       <c r="F563" s="21"/>
       <c r="G563" s="21"/>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="8">
         <v>44026</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="F564" s="21"/>
       <c r="G564" s="21"/>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="8">
         <v>44027</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="F565" s="21"/>
       <c r="G565" s="21"/>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="8">
         <v>44028</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="F566" s="21"/>
       <c r="G566" s="21"/>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="8">
         <v>44029</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="F567" s="21"/>
       <c r="G567" s="21"/>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="8">
         <v>44030</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="8">
         <v>44031</v>
       </c>
@@ -10338,7 +10338,7 @@
       <c r="F569" s="21"/>
       <c r="G569" s="21"/>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="8">
         <v>44032</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="F570" s="21"/>
       <c r="G570" s="21"/>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="8">
         <v>44033</v>
       </c>
@@ -10360,7 +10360,7 @@
       <c r="F571" s="21"/>
       <c r="G571" s="21"/>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="8">
         <v>44034</v>
       </c>
@@ -10371,7 +10371,7 @@
       <c r="F572" s="21"/>
       <c r="G572" s="21"/>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="8">
         <v>44035</v>
       </c>
@@ -10382,7 +10382,7 @@
       <c r="F573" s="21"/>
       <c r="G573" s="21"/>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="8">
         <v>44036</v>
       </c>
@@ -10393,7 +10393,7 @@
       <c r="F574" s="21"/>
       <c r="G574" s="21"/>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="8">
         <v>44037</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="8">
         <v>44038</v>
       </c>
@@ -10421,7 +10421,7 @@
       <c r="F576" s="21"/>
       <c r="G576" s="21"/>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="8">
         <v>44039</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="F577" s="21"/>
       <c r="G577" s="21"/>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="8">
         <v>44040</v>
       </c>
@@ -10443,7 +10443,7 @@
       <c r="F578" s="21"/>
       <c r="G578" s="21"/>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="8">
         <v>44041</v>
       </c>
@@ -10454,7 +10454,7 @@
       <c r="F579" s="21"/>
       <c r="G579" s="21"/>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="8">
         <v>44042</v>
       </c>
@@ -10465,7 +10465,7 @@
       <c r="F580" s="21"/>
       <c r="G580" s="21"/>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="8">
         <v>44043</v>
       </c>
@@ -10480,7 +10480,7 @@
       <c r="F581" s="21"/>
       <c r="G581" s="21"/>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="8">
         <v>44044</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="8">
         <v>44045</v>
       </c>
@@ -10508,7 +10508,7 @@
       <c r="F583" s="21"/>
       <c r="G583" s="21"/>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="8">
         <v>44046</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="F584" s="21"/>
       <c r="G584" s="21"/>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="8">
         <v>44047</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="F585" s="21"/>
       <c r="G585" s="21"/>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="8">
         <v>44048</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="F586" s="21"/>
       <c r="G586" s="21"/>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="8">
         <v>44049</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="F587" s="21"/>
       <c r="G587" s="21"/>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="8">
         <v>44050</v>
       </c>
@@ -10563,7 +10563,7 @@
       <c r="F588" s="21"/>
       <c r="G588" s="21"/>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="8">
         <v>44051</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="8">
         <v>44052</v>
       </c>
@@ -10591,7 +10591,7 @@
       <c r="F590" s="21"/>
       <c r="G590" s="21"/>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="8">
         <v>44053</v>
       </c>
@@ -10602,7 +10602,7 @@
       <c r="F591" s="21"/>
       <c r="G591" s="21"/>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="8">
         <v>44054</v>
       </c>
@@ -10613,7 +10613,7 @@
       <c r="F592" s="21"/>
       <c r="G592" s="21"/>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="8">
         <v>44055</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="G593" s="21"/>
       <c r="H593" s="21"/>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="8">
         <v>44056</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="G594" s="21"/>
       <c r="H594" s="21"/>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="8">
         <v>44057</v>
       </c>
@@ -10649,7 +10649,7 @@
       <c r="G595" s="21"/>
       <c r="H595" s="21"/>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="8">
         <v>44058</v>
       </c>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="H596" s="21"/>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="8">
         <v>44059</v>
       </c>
@@ -10679,7 +10679,7 @@
       <c r="G597" s="21"/>
       <c r="H597" s="21"/>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="8">
         <v>44060</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="G598" s="21"/>
       <c r="H598" s="21"/>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="8">
         <v>44061</v>
       </c>
@@ -10703,7 +10703,7 @@
       <c r="G599" s="21"/>
       <c r="H599" s="21"/>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="8">
         <v>44062</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="G600" s="21"/>
       <c r="H600" s="21"/>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="8">
         <v>44063</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="G601" s="21"/>
       <c r="H601" s="21"/>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="8">
         <v>44064</v>
       </c>
@@ -10739,7 +10739,7 @@
       <c r="G602" s="21"/>
       <c r="H602" s="21"/>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="8">
         <v>44065</v>
       </c>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="H603" s="21"/>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="8">
         <v>44066</v>
       </c>
@@ -10769,7 +10769,7 @@
       <c r="G604" s="21"/>
       <c r="H604" s="21"/>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="8">
         <v>44067</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="G605" s="21"/>
       <c r="H605" s="21"/>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="8">
         <v>44068</v>
       </c>
@@ -10793,7 +10793,7 @@
       <c r="G606" s="21"/>
       <c r="H606" s="21"/>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="8">
         <v>44069</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="G607" s="21"/>
       <c r="H607" s="21"/>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="8">
         <v>44070</v>
       </c>
@@ -10817,7 +10817,7 @@
       <c r="G608" s="21"/>
       <c r="H608" s="21"/>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="8">
         <v>44071</v>
       </c>
@@ -10829,7 +10829,7 @@
       <c r="G609" s="21"/>
       <c r="H609" s="21"/>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="8">
         <v>44072</v>
       </c>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="H610" s="21"/>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="8">
         <v>44073</v>
       </c>
@@ -10859,7 +10859,7 @@
       <c r="G611" s="21"/>
       <c r="H611" s="21"/>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="8">
         <v>44074</v>
       </c>
@@ -10875,7 +10875,7 @@
       <c r="G612" s="21"/>
       <c r="H612" s="21"/>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="8">
         <v>44075</v>
       </c>
@@ -10887,7 +10887,7 @@
       <c r="G613" s="21"/>
       <c r="H613" s="21"/>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="8">
         <v>44076</v>
       </c>
@@ -10899,7 +10899,7 @@
       <c r="G614" s="21"/>
       <c r="H614" s="21"/>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="8">
         <v>44077</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="G615" s="21"/>
       <c r="H615" s="21"/>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="8">
         <v>44078</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="G616" s="21"/>
       <c r="H616" s="21"/>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="8">
         <v>44079</v>
       </c>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="H617" s="21"/>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="8">
         <v>44080</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="G618" s="21"/>
       <c r="H618" s="21"/>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="8">
         <v>44081</v>
       </c>
@@ -10965,7 +10965,7 @@
       <c r="G619" s="21"/>
       <c r="H619" s="21"/>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="8">
         <v>44082</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="G620" s="21"/>
       <c r="H620" s="21"/>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="8">
         <v>44083</v>
       </c>
@@ -10989,7 +10989,7 @@
       <c r="G621" s="21"/>
       <c r="H621" s="21"/>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="8">
         <v>44084</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="G622" s="21"/>
       <c r="H622" s="21"/>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="8">
         <v>44085</v>
       </c>
@@ -11013,7 +11013,7 @@
       <c r="G623" s="21"/>
       <c r="H623" s="21"/>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="8">
         <v>44086</v>
       </c>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H624" s="21"/>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="8">
         <v>44087</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="G625" s="21"/>
       <c r="H625" s="21"/>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="8">
         <v>44088</v>
       </c>
@@ -11055,7 +11055,7 @@
       <c r="G626" s="21"/>
       <c r="H626" s="21"/>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="8">
         <v>44089</v>
       </c>
@@ -11067,7 +11067,7 @@
       <c r="G627" s="21"/>
       <c r="H627" s="21"/>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="8">
         <v>44090</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="G628" s="21"/>
       <c r="H628" s="21"/>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="8">
         <v>44091</v>
       </c>
@@ -11091,7 +11091,7 @@
       <c r="G629" s="21"/>
       <c r="H629" s="21"/>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="8">
         <v>44092</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="G630" s="21"/>
       <c r="H630" s="21"/>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="8">
         <v>44093</v>
       </c>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="H631" s="21"/>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="8">
         <v>44094</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="G632" s="21"/>
       <c r="H632" s="21"/>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="8">
         <v>44095</v>
       </c>
@@ -11145,7 +11145,7 @@
       <c r="G633" s="21"/>
       <c r="H633" s="21"/>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="8">
         <v>44096</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="G634" s="21"/>
       <c r="H634" s="21"/>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="8">
         <v>44097</v>
       </c>
@@ -11169,7 +11169,7 @@
       <c r="G635" s="21"/>
       <c r="H635" s="21"/>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="8">
         <v>44098</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="G636" s="21"/>
       <c r="H636" s="21"/>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="8">
         <v>44099</v>
       </c>
@@ -11193,7 +11193,7 @@
       <c r="G637" s="21"/>
       <c r="H637" s="21"/>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="8">
         <v>44100</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="H638" s="21"/>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="8">
         <v>44101</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="G639" s="21"/>
       <c r="H639" s="21"/>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="8">
         <v>44102</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="G640" s="21"/>
       <c r="H640" s="21"/>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="8">
         <v>44103</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="C641" s="25"/>
       <c r="D641" s="25"/>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="8">
         <v>44104</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>1477.77</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="8">
         <v>44105</v>
       </c>
@@ -11263,7 +11263,7 @@
       <c r="C643" s="25"/>
       <c r="D643" s="25"/>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="8">
         <v>44106</v>
       </c>
@@ -11271,7 +11271,7 @@
       <c r="C644" s="25"/>
       <c r="D644" s="25"/>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="8">
         <v>44107</v>
       </c>
@@ -11279,7 +11279,7 @@
       <c r="C645" s="25"/>
       <c r="D645" s="25"/>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="8">
         <v>44108</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="C646" s="25"/>
       <c r="D646" s="25"/>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="8">
         <v>44109</v>
       </c>
@@ -11295,7 +11295,7 @@
       <c r="C647" s="25"/>
       <c r="D647" s="25"/>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="8">
         <v>44110</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="C648" s="25"/>
       <c r="D648" s="25"/>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="8">
         <v>44111</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="C649" s="25"/>
       <c r="D649" s="25"/>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="8">
         <v>44112</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="C650" s="25"/>
       <c r="D650" s="25"/>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="8">
         <v>44113</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="C651" s="25"/>
       <c r="D651" s="25"/>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="8">
         <v>44114</v>
       </c>
@@ -11335,7 +11335,7 @@
       <c r="C652" s="25"/>
       <c r="D652" s="25"/>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="8">
         <v>44115</v>
       </c>
@@ -11343,7 +11343,7 @@
       <c r="C653" s="25"/>
       <c r="D653" s="25"/>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="8">
         <v>44116</v>
       </c>
@@ -11351,7 +11351,7 @@
       <c r="C654" s="25"/>
       <c r="D654" s="25"/>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="8">
         <v>44117</v>
       </c>
@@ -11359,7 +11359,7 @@
       <c r="C655" s="25"/>
       <c r="D655" s="25"/>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="8">
         <v>44118</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="C656" s="25"/>
       <c r="D656" s="25"/>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="8">
         <v>44119</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="F657" s="21"/>
       <c r="G657" s="21"/>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="8">
         <v>44120</v>
       </c>
@@ -11389,7 +11389,7 @@
       <c r="F658" s="21"/>
       <c r="G658" s="21"/>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="8">
         <v>44121</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="8">
         <v>44122</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="F660" s="21"/>
       <c r="G660" s="21"/>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="8">
         <v>44123</v>
       </c>
@@ -11428,7 +11428,7 @@
       <c r="F661" s="21"/>
       <c r="G661" s="21"/>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="8">
         <v>44124</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="F662" s="21"/>
       <c r="G662" s="21"/>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="8">
         <v>44125</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="F663" s="21"/>
       <c r="G663" s="21"/>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="8">
         <v>44126</v>
       </c>
@@ -11461,7 +11461,7 @@
       <c r="F664" s="21"/>
       <c r="G664" s="21"/>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="8">
         <v>44127</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="F665" s="21"/>
       <c r="G665" s="21"/>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="8">
         <v>44128</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="8">
         <v>44129</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="F667" s="21"/>
       <c r="G667" s="21"/>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="8">
         <v>44130</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="F668" s="21"/>
       <c r="G668" s="21"/>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="8">
         <v>44131</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="F669" s="21"/>
       <c r="G669" s="21"/>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="8">
         <v>44132</v>
       </c>
@@ -11533,7 +11533,7 @@
       <c r="F670" s="21"/>
       <c r="G670" s="21"/>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="8">
         <v>44133</v>
       </c>
@@ -11544,7 +11544,7 @@
       <c r="F671" s="21"/>
       <c r="G671" s="21"/>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="8">
         <v>44134</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="F672" s="21"/>
       <c r="G672" s="21"/>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="8">
         <v>44135</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="8">
         <v>44136</v>
       </c>
@@ -11587,7 +11587,7 @@
       <c r="F674" s="21"/>
       <c r="G674" s="21"/>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="8">
         <v>44137</v>
       </c>
@@ -11598,7 +11598,7 @@
       <c r="F675" s="21"/>
       <c r="G675" s="21"/>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="8">
         <v>44138</v>
       </c>
@@ -11609,7 +11609,7 @@
       <c r="F676" s="21"/>
       <c r="G676" s="21"/>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="8">
         <v>44139</v>
       </c>
@@ -11620,7 +11620,7 @@
       <c r="F677" s="21"/>
       <c r="G677" s="21"/>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="8">
         <v>44140</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="F678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="8">
         <v>44141</v>
       </c>
@@ -11642,7 +11642,7 @@
       <c r="F679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="8">
         <v>44142</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="8">
         <v>44143</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="F681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="8">
         <v>44144</v>
       </c>
@@ -11681,7 +11681,7 @@
       <c r="F682" s="21"/>
       <c r="G682" s="21"/>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="8">
         <v>44145</v>
       </c>
@@ -11692,7 +11692,7 @@
       <c r="F683" s="21"/>
       <c r="G683" s="21"/>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="8">
         <v>44146</v>
       </c>
@@ -11703,7 +11703,7 @@
       <c r="F684" s="21"/>
       <c r="G684" s="21"/>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="8">
         <v>44147</v>
       </c>
@@ -11714,7 +11714,7 @@
       <c r="F685" s="21"/>
       <c r="G685" s="21"/>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="8">
         <v>44148</v>
       </c>
@@ -11725,7 +11725,7 @@
       <c r="F686" s="21"/>
       <c r="G686" s="21"/>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="8">
         <v>44149</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="8">
         <v>44150</v>
       </c>
@@ -11753,7 +11753,7 @@
       <c r="F688" s="21"/>
       <c r="G688" s="21"/>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="8">
         <v>44151</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="F689" s="21"/>
       <c r="G689" s="21"/>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="8">
         <v>44152</v>
       </c>
@@ -11775,7 +11775,7 @@
       <c r="F690" s="21"/>
       <c r="G690" s="21"/>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="8">
         <v>44153</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="F691" s="21"/>
       <c r="G691" s="21"/>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="8">
         <v>44154</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="F692" s="21"/>
       <c r="G692" s="21"/>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="8">
         <v>44155</v>
       </c>
@@ -11808,7 +11808,7 @@
       <c r="F693" s="21"/>
       <c r="G693" s="21"/>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="8">
         <v>44156</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="8">
         <v>44157</v>
       </c>
@@ -11836,7 +11836,7 @@
       <c r="F695" s="21"/>
       <c r="G695" s="21"/>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="8">
         <v>44158</v>
       </c>
@@ -11847,7 +11847,7 @@
       <c r="F696" s="21"/>
       <c r="G696" s="21"/>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="8">
         <v>44159</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="F697" s="21"/>
       <c r="G697" s="21"/>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="8">
         <v>44160</v>
       </c>
@@ -11869,7 +11869,7 @@
       <c r="F698" s="21"/>
       <c r="G698" s="21"/>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="8">
         <v>44161</v>
       </c>
@@ -11880,7 +11880,7 @@
       <c r="F699" s="21"/>
       <c r="G699" s="21"/>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="8">
         <v>44162</v>
       </c>
@@ -11891,7 +11891,7 @@
       <c r="F700" s="21"/>
       <c r="G700" s="21"/>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="8">
         <v>44163</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="8">
         <v>44164</v>
       </c>
@@ -11919,7 +11919,7 @@
       <c r="F702" s="21"/>
       <c r="G702" s="21"/>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="8">
         <v>44165</v>
       </c>
@@ -11934,7 +11934,7 @@
       <c r="F703" s="21"/>
       <c r="G703" s="21"/>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="8">
         <v>44166</v>
       </c>
@@ -11945,7 +11945,7 @@
       <c r="F704" s="21"/>
       <c r="G704" s="21"/>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="8">
         <v>44167</v>
       </c>
@@ -11956,7 +11956,7 @@
       <c r="F705" s="21"/>
       <c r="G705" s="21"/>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="8">
         <v>44168</v>
       </c>
@@ -11967,7 +11967,7 @@
       <c r="F706" s="21"/>
       <c r="G706" s="21"/>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="8">
         <v>44169</v>
       </c>
@@ -11978,7 +11978,7 @@
       <c r="F707" s="21"/>
       <c r="G707" s="21"/>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="8">
         <v>44170</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="8">
         <v>44171</v>
       </c>
@@ -12006,7 +12006,7 @@
       <c r="F709" s="21"/>
       <c r="G709" s="21"/>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="8">
         <v>44172</v>
       </c>
@@ -12017,7 +12017,7 @@
       <c r="F710" s="21"/>
       <c r="G710" s="21"/>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="8">
         <v>44173</v>
       </c>
@@ -12028,7 +12028,7 @@
       <c r="F711" s="21"/>
       <c r="G711" s="21"/>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="8">
         <v>44174</v>
       </c>
@@ -12039,7 +12039,7 @@
       <c r="F712" s="21"/>
       <c r="G712" s="21"/>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="8">
         <v>44175</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="F713" s="21"/>
       <c r="G713" s="21"/>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="8">
         <v>44176</v>
       </c>
@@ -12061,7 +12061,7 @@
       <c r="F714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="8">
         <v>44177</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="8">
         <v>44178</v>
       </c>
@@ -12089,7 +12089,7 @@
       <c r="F716" s="21"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="8">
         <v>44179</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="F717" s="21"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="8">
         <v>44180</v>
       </c>
@@ -12111,7 +12111,7 @@
       <c r="F718" s="21"/>
       <c r="G718" s="21"/>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="8">
         <v>44181</v>
       </c>
@@ -12122,7 +12122,7 @@
       <c r="F719" s="21"/>
       <c r="G719" s="21"/>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="8">
         <v>44182</v>
       </c>
@@ -12133,7 +12133,7 @@
       <c r="F720" s="21"/>
       <c r="G720" s="21"/>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="8">
         <v>44183</v>
       </c>
@@ -12144,7 +12144,7 @@
       <c r="F721" s="21"/>
       <c r="G721" s="21"/>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="8">
         <v>44184</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="8">
         <v>44185</v>
       </c>
@@ -12172,7 +12172,7 @@
       <c r="F723" s="21"/>
       <c r="G723" s="21"/>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="8">
         <v>44186</v>
       </c>
@@ -12183,7 +12183,7 @@
       <c r="F724" s="21"/>
       <c r="G724" s="21"/>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="8">
         <v>44187</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="F725" s="21"/>
       <c r="G725" s="21"/>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="8">
         <v>44188</v>
       </c>
@@ -12205,7 +12205,7 @@
       <c r="F726" s="21"/>
       <c r="G726" s="21"/>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="8">
         <v>44189</v>
       </c>
@@ -12216,7 +12216,7 @@
       <c r="F727" s="21"/>
       <c r="G727" s="21"/>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="8">
         <v>44190</v>
       </c>
@@ -12227,7 +12227,7 @@
       <c r="F728" s="21"/>
       <c r="G728" s="21"/>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="8">
         <v>44191</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="8">
         <v>44192</v>
       </c>
@@ -12255,7 +12255,7 @@
       <c r="F730" s="21"/>
       <c r="G730" s="21"/>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="8">
         <v>44193</v>
       </c>
@@ -12266,7 +12266,7 @@
       <c r="F731" s="21"/>
       <c r="G731" s="21"/>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="8">
         <v>44194</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="F732" s="21"/>
       <c r="G732" s="21"/>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="8">
         <v>44195</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="F733" s="21"/>
       <c r="G733" s="21"/>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="8">
         <v>44196</v>
       </c>
@@ -12299,7 +12299,7 @@
       <c r="F734" s="21"/>
       <c r="G734" s="21"/>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="8">
         <v>44197</v>
       </c>
@@ -12310,7 +12310,7 @@
       <c r="F735" s="21"/>
       <c r="G735" s="21"/>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="8">
         <v>44198</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="8">
         <v>44199</v>
       </c>
@@ -12338,7 +12338,7 @@
       <c r="F737" s="21"/>
       <c r="G737" s="21"/>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="8">
         <v>44200</v>
       </c>
@@ -12349,7 +12349,7 @@
       <c r="F738" s="21"/>
       <c r="G738" s="21"/>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="8">
         <v>44201</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="F739" s="21"/>
       <c r="G739" s="21"/>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="8">
         <v>44202</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="F740" s="21"/>
       <c r="G740" s="21"/>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="8">
         <v>44203</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="F741" s="21"/>
       <c r="G741" s="21"/>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="8">
         <v>44204</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="8">
         <v>44205</v>
       </c>
@@ -12410,7 +12410,7 @@
       <c r="F743" s="21"/>
       <c r="G743" s="21"/>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="8">
         <v>44206</v>
       </c>
@@ -12421,7 +12421,7 @@
       <c r="F744" s="21"/>
       <c r="G744" s="21"/>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="8">
         <v>44207</v>
       </c>
@@ -12432,7 +12432,7 @@
       <c r="F745" s="21"/>
       <c r="G745" s="21"/>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="8">
         <v>44208</v>
       </c>
@@ -12443,7 +12443,7 @@
       <c r="F746" s="21"/>
       <c r="G746" s="21"/>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="8">
         <v>44209</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="F747" s="21"/>
       <c r="G747" s="21"/>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="8">
         <v>44210</v>
       </c>
@@ -12465,7 +12465,7 @@
       <c r="F748" s="21"/>
       <c r="G748" s="21"/>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="8">
         <v>44211</v>
       </c>
@@ -12476,7 +12476,7 @@
       <c r="F749" s="21"/>
       <c r="G749" s="21"/>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="8">
         <v>44212</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="8">
         <v>44213</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="F751" s="21"/>
       <c r="G751" s="21"/>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="8">
         <v>44214</v>
       </c>
@@ -12515,7 +12515,7 @@
       <c r="F752" s="21"/>
       <c r="G752" s="21"/>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" s="8">
         <v>44215</v>
       </c>
@@ -12526,7 +12526,7 @@
       <c r="F753" s="21"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" s="8">
         <v>44216</v>
       </c>
@@ -12537,7 +12537,7 @@
       <c r="F754" s="21"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" s="8">
         <v>44217</v>
       </c>
@@ -12548,7 +12548,7 @@
       <c r="F755" s="21"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="8">
         <v>44218</v>
       </c>
@@ -12559,7 +12559,7 @@
       <c r="F756" s="21"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" s="8">
         <v>44219</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" s="8">
         <v>44220</v>
       </c>
@@ -12589,7 +12589,7 @@
       <c r="F758" s="21"/>
       <c r="G758" s="21"/>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" s="8">
         <v>44221</v>
       </c>
@@ -12600,7 +12600,7 @@
       <c r="F759" s="21"/>
       <c r="G759" s="21"/>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" s="8">
         <v>44222</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="F760" s="21"/>
       <c r="G760" s="21"/>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" s="8">
         <v>44223</v>
       </c>
@@ -12622,7 +12622,7 @@
       <c r="F761" s="21"/>
       <c r="G761" s="21"/>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" s="8">
         <v>44224</v>
       </c>
@@ -12633,7 +12633,7 @@
       <c r="F762" s="21"/>
       <c r="G762" s="21"/>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" s="8">
         <v>44225</v>
       </c>
@@ -12644,7 +12644,7 @@
       <c r="F763" s="21"/>
       <c r="G763" s="21"/>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" s="8">
         <v>44226</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="8">
         <v>44227</v>
       </c>
@@ -12672,7 +12672,7 @@
       <c r="F765" s="21"/>
       <c r="G765" s="21"/>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="8">
         <v>44228</v>
       </c>
@@ -12683,7 +12683,7 @@
       <c r="F766" s="21"/>
       <c r="G766" s="21"/>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="8">
         <v>44229</v>
       </c>
@@ -12694,7 +12694,7 @@
       <c r="F767" s="21"/>
       <c r="G767" s="21"/>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" s="8">
         <v>44230</v>
       </c>
@@ -12705,7 +12705,7 @@
       <c r="F768" s="21"/>
       <c r="G768" s="21"/>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="8">
         <v>44231</v>
       </c>
@@ -12713,7 +12713,7 @@
       <c r="C769" s="25"/>
       <c r="D769" s="25"/>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="8">
         <v>44232</v>
       </c>
@@ -12721,7 +12721,7 @@
       <c r="C770" s="25"/>
       <c r="D770" s="25"/>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="8">
         <v>44233</v>
       </c>
@@ -12729,7 +12729,7 @@
       <c r="C771" s="25"/>
       <c r="D771" s="25"/>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="8">
         <v>44234</v>
       </c>
@@ -12757,12 +12757,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -12786,7 +12786,7 @@
     <col min="27" max="16384" width="14" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.45" customHeight="1">
+    <row r="1" spans="1:25" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>18</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>18</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>19</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>19</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>19</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>19</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>19</v>
       </c>
@@ -13249,7 +13249,7 @@
       </c>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>19</v>
       </c>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>19</v>
       </c>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>19</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>15</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -13495,7 +13495,7 @@
       <c r="Q13" s="14"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -13523,7 +13523,7 @@
       <c r="Q14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -13551,7 +13551,7 @@
       <c r="Q15" s="14"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12">
@@ -13579,7 +13579,7 @@
       <c r="Q16" s="14"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -13599,7 +13599,7 @@
       <c r="Q17" s="14"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -13619,7 +13619,7 @@
       <c r="Q18" s="14"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13639,7 +13639,7 @@
       <c r="Q19" s="14"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -13659,7 +13659,7 @@
       <c r="Q20" s="14"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -13679,7 +13679,7 @@
       <c r="Q21" s="14"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -13699,7 +13699,7 @@
       <c r="Q22" s="14"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -13719,1002 +13719,1002 @@
       <c r="Q23" s="14"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75" customHeight="1">
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75" customHeight="1">
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75" customHeight="1">
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75" customHeight="1">
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="4:4" ht="15.75" customHeight="1">
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="4:4" ht="15.75" customHeight="1">
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="4:4" ht="15.75" customHeight="1">
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" customHeight="1">
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="4:4" ht="15.75" customHeight="1">
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="4:4" ht="15.75" customHeight="1">
+    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="4:4" ht="15.75" customHeight="1">
+    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="4:4" ht="15.75" customHeight="1">
+    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="4:4" ht="15.75" customHeight="1">
+    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="4:4" ht="15.75" customHeight="1">
+    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="4:4" ht="15.75" customHeight="1">
+    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="4:4" ht="15.75" customHeight="1">
+    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1">
+    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1">
+    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1">
+    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1">
+    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{5BF57AB9-6786-45D4-9B41-00A80ED5A879}"/>

--- a/datacovidpa/ECONOMICOS PN.xlsx
+++ b/datacovidpa/ECONOMICOS PN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23808"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1427" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F06CAC0F-E6E9-4A45-A9D5-948F3A20FF66}"/>
+  <xr:revisionPtr revIDLastSave="1430" documentId="8_{21879485-51D3-4BBD-9EB2-06C996039B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B990834-7B29-42CA-8DA1-BA13F8CD4E07}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PANAMA" sheetId="2" r:id="rId1"/>
     <sheet name="Fuentes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -395,7 +395,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,8 +1319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H772" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:H772" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71A19996-DC22-486D-BF8D-97EBA5C503C7}" name="Indicadores_dia_PN" displayName="Indicadores_dia_PN" ref="A3:H779" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A3:H779" xr:uid="{6D71C6AD-D385-42F5-9CD8-B1007F6F3A09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F490BF3E-829C-4C70-9AA3-B512D80A1FB4}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5D7EFC02-0FC9-44AC-A1B8-577CBA91C59C}" name="Columna1" dataDxfId="11"/>
@@ -1651,14 +1651,14 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:W772"/>
+  <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A772" sqref="A772"/>
+      <selection pane="bottomLeft" activeCell="A771" sqref="A771:A779"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -1679,7 +1679,7 @@
     <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1733,7 +1733,7 @@
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="60">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="8">
         <v>43466</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="8">
         <v>43467</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="8">
         <v>43468</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="8">
         <v>43469</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="8">
         <v>43470</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="8">
         <v>43471</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="8">
         <v>43472</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="8">
         <v>43473</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="8">
         <v>43474</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="8">
         <v>43475</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="8">
         <v>43476</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="8">
         <v>43477</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="8">
         <v>43478</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="8">
         <v>43479</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="8">
         <v>43480</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="8">
         <v>43481</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="8">
         <v>43482</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="8">
         <v>43483</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="8">
         <v>43484</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="8">
         <v>43485</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="8">
         <v>43486</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="8">
         <v>43487</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="8">
         <v>43488</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="8">
         <v>43489</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="8">
         <v>43490</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="8">
         <v>43491</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="8">
         <v>43492</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="8">
         <v>43493</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="8">
         <v>43494</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="8">
         <v>43495</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="8">
         <v>43496</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="8">
         <v>43497</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="8">
         <v>43498</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" s="8">
         <v>43499</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="8">
         <v>43500</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="8">
         <v>43501</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" s="8">
         <v>43502</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" s="8">
         <v>43503</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" s="8">
         <v>43504</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23">
       <c r="A43" s="8">
         <v>43505</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44" s="8">
         <v>43506</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23">
       <c r="A45" s="8">
         <v>43507</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23">
       <c r="A46" s="8">
         <v>43508</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47" s="8">
         <v>43509</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
       <c r="A48" s="8">
         <v>43510</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23">
       <c r="A49" s="8">
         <v>43511</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23">
       <c r="A50" s="8">
         <v>43512</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23">
       <c r="A51" s="8">
         <v>43513</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="A52" s="8">
         <v>43514</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23">
       <c r="A53" s="8">
         <v>43515</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="A54" s="8">
         <v>43516</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23">
       <c r="A55" s="8">
         <v>43517</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23">
       <c r="A56" s="8">
         <v>43518</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23">
       <c r="A57" s="8">
         <v>43519</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23">
       <c r="A58" s="8">
         <v>43520</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="V58" s="21"/>
       <c r="W58" s="21"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23">
       <c r="A59" s="8">
         <v>43521</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23">
       <c r="A60" s="8">
         <v>43522</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="V60" s="21"/>
       <c r="W60" s="21"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23">
       <c r="A61" s="8">
         <v>43523</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="V61" s="21"/>
       <c r="W61" s="21"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23">
       <c r="A62" s="8">
         <v>43524</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="V62" s="21"/>
       <c r="W62" s="21"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23">
       <c r="A63" s="8">
         <v>43525</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23">
       <c r="A64" s="8">
         <v>43526</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="V64" s="21"/>
       <c r="W64" s="21"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="8">
         <v>43527</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="8">
         <v>43528</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="8">
         <v>43529</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="8">
         <v>43530</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="8">
         <v>43531</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="8">
         <v>43532</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="8">
         <v>43533</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="8">
         <v>43534</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="8">
         <v>43535</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="8">
         <v>43536</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="8">
         <v>43537</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="8">
         <v>43538</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="8">
         <v>43539</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="8">
         <v>43540</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="8">
         <v>43541</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="8">
         <v>43542</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="8">
         <v>43543</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="8">
         <v>43544</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="8">
         <v>43545</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="8">
         <v>43546</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="8">
         <v>43547</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="8">
         <v>43548</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="8">
         <v>43549</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="8">
         <v>43550</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="8">
         <v>43551</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="8">
         <v>43552</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="8">
         <v>43553</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="8">
         <v>43554</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="8">
         <v>43555</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="8">
         <v>43556</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="8">
         <v>43557</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="8">
         <v>43558</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="8">
         <v>43559</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="8">
         <v>43560</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="8">
         <v>43561</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="8">
         <v>43562</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="8">
         <v>43563</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="8">
         <v>43564</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="8">
         <v>43565</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="8">
         <v>43566</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="8">
         <v>43567</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="8">
         <v>43568</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="8">
         <v>43569</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="8">
         <v>43570</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="8">
         <v>43571</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="8">
         <v>43572</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="8">
         <v>43573</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="8">
         <v>43574</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="8">
         <v>43575</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="8">
         <v>43576</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="8">
         <v>43577</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="8">
         <v>43578</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="8">
         <v>43579</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="8">
         <v>43580</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="8">
         <v>43581</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="8">
         <v>43582</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="8">
         <v>43583</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="8">
         <v>43584</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="8">
         <v>43585</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="8">
         <v>43586</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="8">
         <v>43587</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="8">
         <v>43588</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="8">
         <v>43589</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="8">
         <v>43590</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="8">
         <v>43591</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="8">
         <v>43592</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="8">
         <v>43593</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="8">
         <v>43594</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="8">
         <v>43595</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="8">
         <v>43596</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="8">
         <v>43597</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="8">
         <v>43598</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="8">
         <v>43599</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="8">
         <v>43600</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="8">
         <v>43601</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="8">
         <v>43602</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="8">
         <v>43603</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="8">
         <v>43604</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="8">
         <v>43605</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="8">
         <v>43606</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="8">
         <v>43607</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="8">
         <v>43608</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="8">
         <v>43609</v>
       </c>
@@ -5244,7 +5244,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="8">
         <v>43610</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="8">
         <v>43611</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="8">
         <v>43612</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="8">
         <v>43613</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="8">
         <v>43614</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="8">
         <v>43615</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="8">
         <v>43616</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="8">
         <v>43618</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="8">
         <v>43619</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="8">
         <v>43620</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="8">
         <v>43621</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="8">
         <v>43622</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="8">
         <v>43623</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="8">
         <v>43624</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="8">
         <v>43625</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="8">
         <v>43626</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="8">
         <v>43627</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="8">
         <v>43628</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="8">
         <v>43629</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="8">
         <v>43630</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="8">
         <v>43631</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="8">
         <v>43632</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="8">
         <v>43633</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="8">
         <v>43634</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="8">
         <v>43635</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="8">
         <v>43636</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="8">
         <v>43637</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="8">
         <v>43638</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="8">
         <v>43639</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="8">
         <v>43640</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="8">
         <v>43641</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="8">
         <v>43642</v>
       </c>
@@ -5641,7 +5641,7 @@
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="8">
         <v>43643</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="8">
         <v>43644</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="8">
         <v>43645</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="8">
         <v>43646</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="8">
         <v>43647</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="8">
         <v>43648</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="8">
         <v>43649</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="8">
         <v>43650</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="8">
         <v>43651</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="8">
         <v>43652</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="8">
         <v>43653</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="8">
         <v>43654</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="8">
         <v>43655</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="8">
         <v>43656</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="8">
         <v>43657</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="8">
         <v>43658</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="8">
         <v>43659</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="8">
         <v>43660</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="8">
         <v>43661</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="8">
         <v>43662</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="8">
         <v>43663</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="8">
         <v>43665</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="8">
         <v>43666</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="8">
         <v>43667</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="8">
         <v>43668</v>
       </c>
@@ -5955,7 +5955,7 @@
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="8">
         <v>43669</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="8">
         <v>43670</v>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="8">
         <v>43671</v>
       </c>
@@ -5988,7 +5988,7 @@
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="8">
         <v>43672</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="8">
         <v>43673</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="8">
         <v>43674</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="8">
         <v>43675</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="8">
         <v>43676</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="8">
         <v>43677</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="8">
         <v>43679</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="8">
         <v>43680</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="8">
         <v>43681</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="8">
         <v>43682</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="8">
         <v>43683</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="8">
         <v>43684</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="8">
         <v>43685</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="8">
         <v>43686</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="8">
         <v>43687</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="8">
         <v>43688</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="8">
         <v>43689</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="8">
         <v>43690</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="8">
         <v>43691</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="8">
         <v>43692</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="8">
         <v>43693</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="8">
         <v>43694</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="8">
         <v>43695</v>
       </c>
@@ -6280,7 +6280,7 @@
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="8">
         <v>43696</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="8">
         <v>43697</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="8">
         <v>43698</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="8">
         <v>43699</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="8">
         <v>43700</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="8">
         <v>43701</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="8">
         <v>43702</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="8">
         <v>43703</v>
       </c>
@@ -6374,7 +6374,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="8">
         <v>43704</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="8">
         <v>43705</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="8">
         <v>43706</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="8">
         <v>43707</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="8">
         <v>43708</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="8">
         <v>43709</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="8">
         <v>43710</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="8">
         <v>43711</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="8">
         <v>43712</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="8">
         <v>43713</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="8">
         <v>43714</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="8">
         <v>43715</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="8">
         <v>43716</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="8">
         <v>43717</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="8">
         <v>43718</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="8">
         <v>43719</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="8">
         <v>43720</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="8">
         <v>43721</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="8">
         <v>43722</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="8">
         <v>43723</v>
       </c>
@@ -6616,7 +6616,7 @@
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="8">
         <v>43724</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="8">
         <v>43725</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="8">
         <v>43726</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="8">
         <v>43727</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="8">
         <v>43728</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="8">
         <v>43729</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="8">
         <v>43730</v>
       </c>
@@ -6699,7 +6699,7 @@
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="8">
         <v>43731</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="8">
         <v>43732</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="F270" s="21"/>
       <c r="G270" s="21"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="8">
         <v>43733</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="8">
         <v>43734</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="8">
         <v>43735</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="8">
         <v>43736</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="8">
         <v>43737</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="8">
         <v>43738</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="8">
         <v>43739</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="8">
         <v>43740</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="8">
         <v>43741</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="8">
         <v>43742</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="8">
         <v>43743</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="8">
         <v>43744</v>
       </c>
@@ -6869,7 +6869,7 @@
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="8">
         <v>43745</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="8">
         <v>43746</v>
       </c>
@@ -6891,7 +6891,7 @@
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="8">
         <v>43747</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="8">
         <v>43748</v>
       </c>
@@ -6913,7 +6913,7 @@
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="8">
         <v>43749</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="8">
         <v>43750</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="8">
         <v>43751</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="8">
         <v>43752</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="8">
         <v>43753</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="8">
         <v>43754</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="8">
         <v>43755</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="8">
         <v>43756</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="8">
         <v>43757</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="8">
         <v>43758</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="8">
         <v>43759</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="8">
         <v>43760</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="8">
         <v>43761</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="8">
         <v>43762</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="8">
         <v>43763</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="8">
         <v>43764</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="8">
         <v>43765</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="8">
         <v>43766</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="8">
         <v>43767</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="8">
         <v>43768</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="8">
         <v>43769</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="8">
         <v>43770</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="8">
         <v>43771</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="8">
         <v>43772</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="8">
         <v>43773</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="8">
         <v>43774</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="8">
         <v>43775</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="8">
         <v>43776</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="8">
         <v>43777</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="8">
         <v>43778</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="8">
         <v>43779</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="8">
         <v>43780</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="8">
         <v>43781</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="8">
         <v>43782</v>
       </c>
@@ -7321,7 +7321,7 @@
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="8">
         <v>43783</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="8">
         <v>43784</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="8">
         <v>43785</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="8">
         <v>43786</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="8">
         <v>43787</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="8">
         <v>43788</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="8">
         <v>43789</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="8">
         <v>43790</v>
       </c>
@@ -7415,7 +7415,7 @@
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="8">
         <v>43791</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="8">
         <v>43792</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="8">
         <v>43793</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="8">
         <v>43794</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="8">
         <v>43795</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="8">
         <v>43796</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="8">
         <v>43797</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="8">
         <v>43798</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="8">
         <v>43799</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="8">
         <v>43800</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="8">
         <v>43801</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="8">
         <v>43802</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="8">
         <v>43803</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="8">
         <v>43804</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="8">
         <v>43805</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="8">
         <v>43806</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="8">
         <v>43807</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="8">
         <v>43808</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="8">
         <v>43809</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="8">
         <v>43810</v>
       </c>
@@ -7657,7 +7657,7 @@
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="8">
         <v>43811</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="8">
         <v>43812</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="8">
         <v>43813</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="8">
         <v>43814</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="8">
         <v>43815</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="8">
         <v>43816</v>
       </c>
@@ -7729,7 +7729,7 @@
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="8">
         <v>43817</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="8">
         <v>43818</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="8">
         <v>43819</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="8">
         <v>43820</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="8">
         <v>43821</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="8">
         <v>43822</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="8">
         <v>43823</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="8">
         <v>43824</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="8">
         <v>43825</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="8">
         <v>43826</v>
       </c>
@@ -7845,7 +7845,7 @@
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="8">
         <v>43827</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="8">
         <v>43828</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="8">
         <v>43829</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="8">
         <v>43830</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="8">
         <v>43831</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="8">
         <v>43832</v>
       </c>
@@ -7915,7 +7915,7 @@
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="8">
         <v>43833</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="8">
         <v>43834</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="8">
         <v>43835</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="8">
         <v>43836</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="8">
         <v>43837</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="8">
         <v>43838</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="8">
         <v>43839</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="8">
         <v>43840</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="8">
         <v>43841</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="8">
         <v>43842</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="8">
         <v>43843</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="8">
         <v>43844</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="8">
         <v>43845</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="8">
         <v>43846</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="8">
         <v>43847</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="8">
         <v>43848</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="8">
         <v>43849</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="8">
         <v>43850</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="8">
         <v>43851</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="8">
         <v>43852</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="8">
         <v>43853</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="F391" s="21"/>
       <c r="G391" s="21"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="8">
         <v>43854</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="F392" s="21"/>
       <c r="G392" s="21"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="8">
         <v>43855</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="8">
         <v>43856</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="F394" s="21"/>
       <c r="G394" s="21"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="8">
         <v>43857</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="F395" s="21"/>
       <c r="G395" s="21"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="8">
         <v>43858</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="F396" s="21"/>
       <c r="G396" s="21"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="8">
         <v>43859</v>
       </c>
@@ -8230,7 +8230,7 @@
       <c r="F397" s="21"/>
       <c r="G397" s="21"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="8">
         <v>43860</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="F398" s="21"/>
       <c r="G398" s="21"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="8">
         <v>43861</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="F399" s="21"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="8">
         <v>43862</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="8">
         <v>43863</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="F401" s="21"/>
       <c r="G401" s="21"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="8">
         <v>43864</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="F402" s="21"/>
       <c r="G402" s="21"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="8">
         <v>43865</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="F403" s="21"/>
       <c r="G403" s="21"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="8">
         <v>43866</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="F404" s="21"/>
       <c r="G404" s="21"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="8">
         <v>43867</v>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="8">
         <v>43868</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="F406" s="21"/>
       <c r="G406" s="21"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="8">
         <v>43869</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="8">
         <v>43870</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="F408" s="21"/>
       <c r="G408" s="21"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="8">
         <v>43871</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="F409" s="21"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="8">
         <v>43872</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="F410" s="21"/>
       <c r="G410" s="21"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="8">
         <v>43873</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="F411" s="21"/>
       <c r="G411" s="21"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="8">
         <v>43874</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="F412" s="21"/>
       <c r="G412" s="21"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="8">
         <v>43875</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="F413" s="21"/>
       <c r="G413" s="21"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="8">
         <v>43876</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="8">
         <v>43877</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="F415" s="21"/>
       <c r="G415" s="21"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="8">
         <v>43878</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="F416" s="21"/>
       <c r="G416" s="21"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="8">
         <v>43879</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="F417" s="21"/>
       <c r="G417" s="21"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="8">
         <v>43880</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="F418" s="21"/>
       <c r="G418" s="21"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="8">
         <v>43881</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="F419" s="21"/>
       <c r="G419" s="21"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="8">
         <v>43882</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="F420" s="21"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="8">
         <v>43883</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="8">
         <v>43884</v>
       </c>
@@ -8533,7 +8533,7 @@
       <c r="F422" s="21"/>
       <c r="G422" s="21"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="8">
         <v>43885</v>
       </c>
@@ -8544,7 +8544,7 @@
       <c r="F423" s="21"/>
       <c r="G423" s="21"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="8">
         <v>43886</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="F424" s="21"/>
       <c r="G424" s="21"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="8">
         <v>43887</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="F425" s="21"/>
       <c r="G425" s="21"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="8">
         <v>43888</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="F426" s="21"/>
       <c r="G426" s="21"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="8">
         <v>43889</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="F427" s="21"/>
       <c r="G427" s="21"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="8">
         <v>43890</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="8">
         <v>43891</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="F429" s="21"/>
       <c r="G429" s="21"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="8">
         <v>43892</v>
       </c>
@@ -8631,7 +8631,7 @@
       <c r="F430" s="21"/>
       <c r="G430" s="21"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="8">
         <v>43893</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="F431" s="21"/>
       <c r="G431" s="21"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="8">
         <v>43894</v>
       </c>
@@ -8653,7 +8653,7 @@
       <c r="F432" s="21"/>
       <c r="G432" s="21"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="8">
         <v>43895</v>
       </c>
@@ -8664,7 +8664,7 @@
       <c r="F433" s="21"/>
       <c r="G433" s="21"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="8">
         <v>43896</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="F434" s="21"/>
       <c r="G434" s="21"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="8">
         <v>43897</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="8">
         <v>43898</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="F436" s="21"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" s="8">
         <v>43899</v>
       </c>
@@ -8714,7 +8714,7 @@
       <c r="F437" s="21"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" s="8">
         <v>43900</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="F438" s="21"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" s="8">
         <v>43901</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="F439" s="21"/>
       <c r="G439" s="21"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" s="8">
         <v>43902</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="F440" s="21"/>
       <c r="G440" s="21"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" s="8">
         <v>43903</v>
       </c>
@@ -8758,7 +8758,7 @@
       <c r="F441" s="21"/>
       <c r="G441" s="21"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" s="8">
         <v>43904</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" s="8">
         <v>43905</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="F443" s="21"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" s="8">
         <v>43906</v>
       </c>
@@ -8797,7 +8797,7 @@
       <c r="F444" s="21"/>
       <c r="G444" s="21"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" s="8">
         <v>43907</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="F445" s="21"/>
       <c r="G445" s="21"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" s="8">
         <v>43908</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="F446" s="21"/>
       <c r="G446" s="21"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" s="8">
         <v>43909</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="F447" s="21"/>
       <c r="G447" s="21"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" s="8">
         <v>43910</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="F448" s="21"/>
       <c r="G448" s="21"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" s="8">
         <v>43911</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" s="8">
         <v>43912</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="F450" s="21"/>
       <c r="G450" s="21"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" s="8">
         <v>43913</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="F451" s="21"/>
       <c r="G451" s="21"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" s="8">
         <v>43914</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="F452" s="21"/>
       <c r="G452" s="21"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" s="8">
         <v>43915</v>
       </c>
@@ -8902,7 +8902,7 @@
       <c r="F453" s="21"/>
       <c r="G453" s="21"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" s="8">
         <v>43916</v>
       </c>
@@ -8913,7 +8913,7 @@
       <c r="F454" s="21"/>
       <c r="G454" s="21"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" s="8">
         <v>43917</v>
       </c>
@@ -8924,7 +8924,7 @@
       <c r="F455" s="21"/>
       <c r="G455" s="21"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" s="8">
         <v>43918</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" s="8">
         <v>43919</v>
       </c>
@@ -8952,7 +8952,7 @@
       <c r="F457" s="21"/>
       <c r="G457" s="21"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" s="8">
         <v>43920</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="F458" s="21"/>
       <c r="G458" s="21"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" s="8">
         <v>43921</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="F459" s="21"/>
       <c r="G459" s="21"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" s="8">
         <v>43922</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="F460" s="21"/>
       <c r="G460" s="21"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" s="8">
         <v>43923</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="F461" s="21"/>
       <c r="G461" s="21"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" s="8">
         <v>43924</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="F462" s="21"/>
       <c r="G462" s="21"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" s="8">
         <v>43925</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" s="8">
         <v>43926</v>
       </c>
@@ -9039,7 +9039,7 @@
       <c r="F464" s="21"/>
       <c r="G464" s="21"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" s="8">
         <v>43927</v>
       </c>
@@ -9050,7 +9050,7 @@
       <c r="F465" s="21"/>
       <c r="G465" s="21"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" s="8">
         <v>43928</v>
       </c>
@@ -9061,7 +9061,7 @@
       <c r="F466" s="21"/>
       <c r="G466" s="21"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" s="8">
         <v>43929</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="F467" s="21"/>
       <c r="G467" s="21"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" s="8">
         <v>43930</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="F468" s="21"/>
       <c r="G468" s="21"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" s="8">
         <v>43931</v>
       </c>
@@ -9094,7 +9094,7 @@
       <c r="F469" s="21"/>
       <c r="G469" s="21"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" s="8">
         <v>43932</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" s="8">
         <v>43933</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="F471" s="21"/>
       <c r="G471" s="21"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" s="8">
         <v>43934</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="F472" s="21"/>
       <c r="G472" s="21"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" s="8">
         <v>43935</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" s="8">
         <v>43936</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="F474" s="21"/>
       <c r="G474" s="21"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" s="8">
         <v>43937</v>
       </c>
@@ -9166,7 +9166,7 @@
       <c r="F475" s="21"/>
       <c r="G475" s="21"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" s="8">
         <v>43938</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" s="8">
         <v>43939</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" s="8">
         <v>43940</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" s="8">
         <v>43941</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="F479" s="21"/>
       <c r="G479" s="21"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" s="8">
         <v>43942</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" s="8">
         <v>43943</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="F481" s="21"/>
       <c r="G481" s="21"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" s="8">
         <v>43944</v>
       </c>
@@ -9249,7 +9249,7 @@
       <c r="F482" s="21"/>
       <c r="G482" s="21"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" s="8">
         <v>43945</v>
       </c>
@@ -9260,7 +9260,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" s="8">
         <v>43946</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="F484" s="21"/>
       <c r="G484" s="21"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" s="8">
         <v>43947</v>
       </c>
@@ -9282,7 +9282,7 @@
       <c r="F485" s="21"/>
       <c r="G485" s="21"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" s="8">
         <v>43948</v>
       </c>
@@ -9293,7 +9293,7 @@
       <c r="F486" s="21"/>
       <c r="G486" s="21"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" s="8">
         <v>43949</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" s="8">
         <v>43950</v>
       </c>
@@ -9315,7 +9315,7 @@
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" s="8">
         <v>43951</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" s="8">
         <v>43952</v>
       </c>
@@ -9341,7 +9341,7 @@
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" s="8">
         <v>43953</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" s="8">
         <v>43954</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="F492" s="21"/>
       <c r="G492" s="21"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" s="8">
         <v>43955</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="F493" s="21"/>
       <c r="G493" s="21"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" s="8">
         <v>43956</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="F494" s="21"/>
       <c r="G494" s="21"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" s="8">
         <v>43957</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="F495" s="21"/>
       <c r="G495" s="21"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" s="8">
         <v>43958</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="F496" s="21"/>
       <c r="G496" s="21"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497" s="8">
         <v>43959</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="G497" s="21"/>
       <c r="H497" s="21"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498" s="8">
         <v>43960</v>
       </c>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H498" s="21"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499" s="8">
         <v>43961</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="G499" s="21"/>
       <c r="H499" s="21"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500" s="8">
         <v>43962</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="G500" s="21"/>
       <c r="H500" s="21"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501" s="8">
         <v>43963</v>
       </c>
@@ -9479,7 +9479,7 @@
       <c r="G501" s="21"/>
       <c r="H501" s="21"/>
     </row>
-    <row r="502" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" s="18" customFormat="1">
       <c r="A502" s="8">
         <v>43964</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="G502" s="21"/>
       <c r="H502" s="21"/>
     </row>
-    <row r="503" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" s="18" customFormat="1">
       <c r="A503" s="8">
         <v>43965</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="G503" s="21"/>
       <c r="H503" s="21"/>
     </row>
-    <row r="504" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" s="18" customFormat="1">
       <c r="A504" s="8">
         <v>43966</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="G504" s="21"/>
       <c r="H504" s="21"/>
     </row>
-    <row r="505" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" s="18" customFormat="1">
       <c r="A505" s="8">
         <v>43967</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="H505" s="21"/>
     </row>
-    <row r="506" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" s="18" customFormat="1">
       <c r="A506" s="8">
         <v>43968</v>
       </c>
@@ -9545,7 +9545,7 @@
       <c r="G506" s="21"/>
       <c r="H506" s="21"/>
     </row>
-    <row r="507" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" s="18" customFormat="1">
       <c r="A507" s="8">
         <v>43969</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="G507" s="21"/>
       <c r="H507" s="21"/>
     </row>
-    <row r="508" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" s="18" customFormat="1">
       <c r="A508" s="8">
         <v>43970</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="G508" s="21"/>
       <c r="H508" s="21"/>
     </row>
-    <row r="509" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" s="18" customFormat="1">
       <c r="A509" s="8">
         <v>43971</v>
       </c>
@@ -9581,7 +9581,7 @@
       <c r="G509" s="21"/>
       <c r="H509" s="21"/>
     </row>
-    <row r="510" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" s="18" customFormat="1">
       <c r="A510" s="8">
         <v>43972</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="G510" s="21"/>
       <c r="H510" s="21"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" s="8">
         <v>43973</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="G511" s="21"/>
       <c r="H511" s="21"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512" s="8">
         <v>